--- a/ORscheduling_Complete (1).xlsx
+++ b/ORscheduling_Complete (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igiannakopoulos\Desktop\MBA\Exercise - Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5443EED0-5430-4B1B-9085-A44C593B60DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2A625-932D-41CF-BB23-094ABEC83D82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1237,6 +1237,23 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1247,6 +1264,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1255,30 +1279,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1497,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S56" sqref="S56"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1614,31 +1614,31 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="126" t="s">
+      <c r="A5" s="133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="126" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -1770,19 +1770,19 @@
       </c>
       <c r="G8" s="82"/>
       <c r="H8" s="103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="91">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K8" s="91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" s="104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" s="124"/>
       <c r="N8" s="95">
@@ -1944,19 +1944,19 @@
       </c>
       <c r="G11" s="82"/>
       <c r="H11" s="103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" s="91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" s="104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11" s="124"/>
       <c r="N11" s="95">
@@ -2350,23 +2350,23 @@
       <c r="G18" s="86"/>
       <c r="H18" s="91">
         <f>SUM(H7:H17)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I18" s="91">
         <f t="shared" ref="I18:L18" si="12">SUM(I7:I17)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J18" s="91">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K18" s="91">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L18" s="91">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M18" s="86"/>
       <c r="N18" s="1">
@@ -2413,23 +2413,23 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="126" t="s">
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="126"/>
-      <c r="J20" s="126"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
       <c r="K20" s="123"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="128"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="B23" s="103">
         <f t="shared" ref="B23:B32" si="14">TRUNC(SUM(H8:L8))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C23" s="104">
         <f t="shared" ref="C23:C32" si="15">TRUNC(SUM(N8:R8))</f>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B26" s="103">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C26" s="104">
         <f t="shared" si="15"/>
@@ -2924,39 +2924,39 @@
         <v>83</v>
       </c>
       <c r="P40" s="29"/>
-      <c r="Q40" s="134" t="s">
+      <c r="Q40" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="R40" s="134"/>
-      <c r="S40" s="134"/>
-      <c r="T40" s="139" t="s">
+      <c r="R40" s="136"/>
+      <c r="S40" s="136"/>
+      <c r="T40" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="U40" s="139"/>
-      <c r="V40" s="139"/>
-      <c r="W40" s="139" t="s">
+      <c r="U40" s="129"/>
+      <c r="V40" s="129"/>
+      <c r="W40" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="X40" s="139"/>
+      <c r="X40" s="129"/>
     </row>
     <row r="41" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="86" t="s">
         <v>74</v>
       </c>
       <c r="B41" s="113">
+        <v>0</v>
+      </c>
+      <c r="C41" s="114">
         <v>1</v>
       </c>
-      <c r="C41" s="114">
-        <v>0</v>
-      </c>
       <c r="D41" s="114">
+        <v>0</v>
+      </c>
+      <c r="E41" s="114">
+        <v>0</v>
+      </c>
+      <c r="F41" s="115">
         <v>1</v>
-      </c>
-      <c r="E41" s="114">
-        <v>0</v>
-      </c>
-      <c r="F41" s="115">
-        <v>0</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="71">
@@ -2971,81 +2971,81 @@
         <v>14</v>
       </c>
       <c r="M41" s="29"/>
-      <c r="N41" s="141">
+      <c r="N41" s="131">
         <f>L41/H22</f>
         <v>1</v>
       </c>
       <c r="P41" s="29"/>
-      <c r="Q41" s="135"/>
-      <c r="R41" s="136">
+      <c r="Q41" s="125"/>
+      <c r="R41" s="126">
         <v>60</v>
       </c>
-      <c r="S41" s="137"/>
-      <c r="T41" s="139">
+      <c r="S41" s="127"/>
+      <c r="T41" s="129">
         <f>TRUNC((L41*60)/R41)</f>
         <v>14</v>
       </c>
-      <c r="U41" s="139"/>
-      <c r="V41" s="139"/>
-      <c r="W41" s="139">
+      <c r="U41" s="129"/>
+      <c r="V41" s="129"/>
+      <c r="W41" s="129">
         <f>TRUNC(T41/5)</f>
         <v>2</v>
       </c>
-      <c r="X41" s="139"/>
+      <c r="X41" s="129"/>
     </row>
     <row r="42" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="86" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="77">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E42" s="77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="71">
         <f t="shared" ref="H42:H51" si="18">TRUNC(SUM(B42:F42))</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
       <c r="L42" s="122">
         <f t="shared" ref="L42:L51" si="19">7*H42</f>
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="M42" s="29"/>
-      <c r="N42" s="141">
+      <c r="N42" s="131">
         <f t="shared" ref="N42:N51" si="20">L42/H23</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P42" s="29"/>
-      <c r="Q42" s="135"/>
-      <c r="R42" s="136">
+      <c r="Q42" s="125"/>
+      <c r="R42" s="126">
         <v>75</v>
       </c>
-      <c r="S42" s="137"/>
-      <c r="T42" s="139">
+      <c r="S42" s="127"/>
+      <c r="T42" s="129">
         <f t="shared" ref="T42:T51" si="21">TRUNC((L42*60)/R42)</f>
-        <v>67</v>
-      </c>
-      <c r="U42" s="139"/>
-      <c r="V42" s="139"/>
-      <c r="W42" s="139">
+        <v>100</v>
+      </c>
+      <c r="U42" s="129"/>
+      <c r="V42" s="129"/>
+      <c r="W42" s="129">
         <f t="shared" ref="W42:W51" si="22">TRUNC(T42/5)</f>
-        <v>13</v>
-      </c>
-      <c r="X42" s="139"/>
+        <v>20</v>
+      </c>
+      <c r="X42" s="129"/>
     </row>
     <row r="43" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="86" t="s">
@@ -3079,135 +3079,135 @@
         <v>14</v>
       </c>
       <c r="M43" s="29"/>
-      <c r="N43" s="141">
+      <c r="N43" s="131">
         <f t="shared" si="20"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="P43" s="29"/>
-      <c r="Q43" s="135"/>
-      <c r="R43" s="136">
+      <c r="Q43" s="125"/>
+      <c r="R43" s="126">
         <v>45</v>
       </c>
-      <c r="S43" s="137"/>
-      <c r="T43" s="139">
+      <c r="S43" s="127"/>
+      <c r="T43" s="129">
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="U43" s="139"/>
-      <c r="V43" s="139"/>
-      <c r="W43" s="139">
+      <c r="U43" s="129"/>
+      <c r="V43" s="129"/>
+      <c r="W43" s="129">
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="X43" s="139"/>
+      <c r="X43" s="129"/>
     </row>
     <row r="44" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="86" t="s">
         <v>75</v>
       </c>
       <c r="B44" s="116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="77">
         <v>1</v>
       </c>
       <c r="F44" s="117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="71">
         <f t="shared" si="18"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="122">
         <f t="shared" si="19"/>
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="M44" s="29"/>
-      <c r="N44" s="141">
+      <c r="N44" s="131">
         <f t="shared" si="20"/>
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="P44" s="29"/>
-      <c r="Q44" s="135"/>
-      <c r="R44" s="136">
+      <c r="Q44" s="125"/>
+      <c r="R44" s="126">
         <v>120</v>
       </c>
-      <c r="S44" s="137"/>
-      <c r="T44" s="139">
+      <c r="S44" s="127"/>
+      <c r="T44" s="129">
         <f t="shared" si="21"/>
-        <v>31</v>
-      </c>
-      <c r="U44" s="139"/>
-      <c r="V44" s="139"/>
-      <c r="W44" s="139">
+        <v>17</v>
+      </c>
+      <c r="U44" s="129"/>
+      <c r="V44" s="129"/>
+      <c r="W44" s="129">
         <f t="shared" si="22"/>
-        <v>6</v>
-      </c>
-      <c r="X44" s="139"/>
+        <v>3</v>
+      </c>
+      <c r="X44" s="129"/>
     </row>
     <row r="45" spans="1:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="86" t="s">
         <v>76</v>
       </c>
       <c r="B45" s="116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" s="77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" s="77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" s="77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="71">
         <f t="shared" si="18"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="122">
         <f t="shared" si="19"/>
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="M45" s="29"/>
-      <c r="N45" s="141">
+      <c r="N45" s="131">
         <f t="shared" si="20"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P45" s="29"/>
-      <c r="Q45" s="135"/>
-      <c r="R45" s="136">
+      <c r="Q45" s="125"/>
+      <c r="R45" s="126">
         <v>150</v>
       </c>
-      <c r="S45" s="137"/>
-      <c r="T45" s="139">
+      <c r="S45" s="127"/>
+      <c r="T45" s="129">
         <f t="shared" si="21"/>
-        <v>28</v>
-      </c>
-      <c r="U45" s="139"/>
-      <c r="V45" s="139"/>
-      <c r="W45" s="139">
+        <v>42</v>
+      </c>
+      <c r="U45" s="129"/>
+      <c r="V45" s="129"/>
+      <c r="W45" s="129">
         <f t="shared" si="22"/>
-        <v>5</v>
-      </c>
-      <c r="X45" s="139"/>
+        <v>8</v>
+      </c>
+      <c r="X45" s="129"/>
     </row>
     <row r="46" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="88" t="s">
@@ -3241,28 +3241,28 @@
         <v>56</v>
       </c>
       <c r="M46" s="29"/>
-      <c r="N46" s="141">
+      <c r="N46" s="131">
         <f t="shared" si="20"/>
         <v>0.8</v>
       </c>
       <c r="O46" s="83"/>
       <c r="P46" s="29"/>
-      <c r="Q46" s="135"/>
-      <c r="R46" s="136">
+      <c r="Q46" s="125"/>
+      <c r="R46" s="126">
         <v>60</v>
       </c>
-      <c r="S46" s="137"/>
-      <c r="T46" s="139">
+      <c r="S46" s="127"/>
+      <c r="T46" s="129">
         <f t="shared" si="21"/>
         <v>56</v>
       </c>
-      <c r="U46" s="139"/>
-      <c r="V46" s="139"/>
-      <c r="W46" s="139">
+      <c r="U46" s="129"/>
+      <c r="V46" s="129"/>
+      <c r="W46" s="129">
         <f t="shared" si="22"/>
         <v>11</v>
       </c>
-      <c r="X46" s="139"/>
+      <c r="X46" s="129"/>
     </row>
     <row r="47" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="87" t="s">
@@ -3296,28 +3296,28 @@
         <v>35</v>
       </c>
       <c r="M47" s="88"/>
-      <c r="N47" s="141">
+      <c r="N47" s="131">
         <f t="shared" si="20"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="O47" s="88"/>
       <c r="P47" s="88"/>
-      <c r="Q47" s="135"/>
-      <c r="R47" s="138">
+      <c r="Q47" s="125"/>
+      <c r="R47" s="128">
         <v>60</v>
       </c>
-      <c r="S47" s="137"/>
-      <c r="T47" s="139">
+      <c r="S47" s="127"/>
+      <c r="T47" s="129">
         <f t="shared" si="21"/>
         <v>35</v>
       </c>
-      <c r="U47" s="139"/>
-      <c r="V47" s="139"/>
-      <c r="W47" s="139">
+      <c r="U47" s="129"/>
+      <c r="V47" s="129"/>
+      <c r="W47" s="129">
         <f t="shared" si="22"/>
         <v>7</v>
       </c>
-      <c r="X47" s="139"/>
+      <c r="X47" s="129"/>
     </row>
     <row r="48" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="87" t="s">
@@ -3330,49 +3330,49 @@
         <v>1</v>
       </c>
       <c r="D48" s="77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="77">
         <v>1</v>
       </c>
       <c r="F48" s="117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" s="88"/>
       <c r="H48" s="71">
         <f t="shared" si="18"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I48" s="88"/>
       <c r="J48" s="88"/>
       <c r="K48" s="88"/>
       <c r="L48" s="122">
         <f t="shared" si="19"/>
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="M48" s="88"/>
-      <c r="N48" s="141">
+      <c r="N48" s="131">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="O48" s="88"/>
       <c r="P48" s="88"/>
-      <c r="Q48" s="135"/>
-      <c r="R48" s="138">
+      <c r="Q48" s="125"/>
+      <c r="R48" s="128">
         <v>60</v>
       </c>
-      <c r="S48" s="137"/>
-      <c r="T48" s="139">
+      <c r="S48" s="127"/>
+      <c r="T48" s="129">
         <f t="shared" si="21"/>
-        <v>56</v>
-      </c>
-      <c r="U48" s="139"/>
-      <c r="V48" s="139"/>
-      <c r="W48" s="139">
+        <v>35</v>
+      </c>
+      <c r="U48" s="129"/>
+      <c r="V48" s="129"/>
+      <c r="W48" s="129">
         <f t="shared" si="22"/>
-        <v>11</v>
-      </c>
-      <c r="X48" s="139"/>
+        <v>7</v>
+      </c>
+      <c r="X48" s="129"/>
     </row>
     <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="87" t="s">
@@ -3401,26 +3401,26 @@
         <f t="shared" si="19"/>
         <v>56</v>
       </c>
-      <c r="N49" s="141">
+      <c r="N49" s="131">
         <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
-      <c r="Q49" s="135"/>
-      <c r="R49" s="138">
+      <c r="Q49" s="125"/>
+      <c r="R49" s="128">
         <v>45</v>
       </c>
-      <c r="S49" s="139"/>
-      <c r="T49" s="139">
+      <c r="S49" s="129"/>
+      <c r="T49" s="129">
         <f t="shared" si="21"/>
         <v>74</v>
       </c>
-      <c r="U49" s="139"/>
-      <c r="V49" s="139"/>
-      <c r="W49" s="139">
+      <c r="U49" s="129"/>
+      <c r="V49" s="129"/>
+      <c r="W49" s="129">
         <f t="shared" si="22"/>
         <v>14</v>
       </c>
-      <c r="X49" s="139"/>
+      <c r="X49" s="129"/>
     </row>
     <row r="50" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="87" t="s">
@@ -3430,45 +3430,45 @@
         <v>0</v>
       </c>
       <c r="C50" s="77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D50" s="77">
         <v>0</v>
       </c>
       <c r="E50" s="77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" s="117">
         <v>1</v>
       </c>
       <c r="H50" s="71">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L50" s="122">
         <f t="shared" si="19"/>
-        <v>35</v>
-      </c>
-      <c r="N50" s="141">
+        <v>7</v>
+      </c>
+      <c r="N50" s="131">
         <f t="shared" si="20"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q50" s="135"/>
-      <c r="R50" s="138">
+        <v>0.1</v>
+      </c>
+      <c r="Q50" s="125"/>
+      <c r="R50" s="128">
         <v>45</v>
       </c>
-      <c r="S50" s="139"/>
-      <c r="T50" s="139">
+      <c r="S50" s="129"/>
+      <c r="T50" s="129">
         <f t="shared" si="21"/>
-        <v>46</v>
-      </c>
-      <c r="U50" s="139"/>
-      <c r="V50" s="139"/>
-      <c r="W50" s="139">
+        <v>9</v>
+      </c>
+      <c r="U50" s="129"/>
+      <c r="V50" s="129"/>
+      <c r="W50" s="129">
         <f t="shared" si="22"/>
-        <v>9</v>
-      </c>
-      <c r="X50" s="139"/>
+        <v>1</v>
+      </c>
+      <c r="X50" s="129"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="87" t="s">
@@ -3497,31 +3497,31 @@
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="N51" s="141">
+      <c r="N51" s="131">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="Q51" s="135"/>
-      <c r="R51" s="138">
+      <c r="Q51" s="125"/>
+      <c r="R51" s="128">
         <v>45</v>
       </c>
-      <c r="S51" s="139"/>
-      <c r="T51" s="139">
+      <c r="S51" s="129"/>
+      <c r="T51" s="129">
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-      <c r="U51" s="139"/>
-      <c r="V51" s="139"/>
-      <c r="W51" s="139">
+      <c r="U51" s="129"/>
+      <c r="V51" s="129"/>
+      <c r="W51" s="129">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="X51" s="139"/>
+      <c r="X51" s="129"/>
     </row>
     <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V52" s="139"/>
-      <c r="W52" s="139"/>
-      <c r="X52" s="139"/>
+      <c r="V52" s="129"/>
+      <c r="W52" s="129"/>
+      <c r="X52" s="129"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -3547,26 +3547,26 @@
         <f>SUM(F41:F51)</f>
         <v>14</v>
       </c>
-      <c r="V53" s="139"/>
-      <c r="W53" s="139"/>
-      <c r="X53" s="139"/>
+      <c r="V53" s="129"/>
+      <c r="W53" s="129"/>
+      <c r="X53" s="129"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V54" s="139"/>
-      <c r="W54" s="139">
+      <c r="V54" s="129"/>
+      <c r="W54" s="129">
         <f>SUM(W41:W51)</f>
-        <v>82</v>
-      </c>
-      <c r="X54" s="139"/>
+        <v>77</v>
+      </c>
+      <c r="X54" s="129"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="140">
+      <c r="B56" s="130">
         <f>SUM(N41:N51)</f>
-        <v>7.2833333333333341</v>
+        <v>6.6083333333333334</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3798,24 +3798,24 @@
       <c r="R78" s="88"/>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="125"/>
-      <c r="B86" s="125"/>
-      <c r="C86" s="125"/>
-      <c r="D86" s="125"/>
-      <c r="E86" s="125"/>
-      <c r="F86" s="125"/>
-      <c r="G86" s="125"/>
-      <c r="H86" s="125"/>
-      <c r="I86" s="125"/>
-      <c r="J86" s="125"/>
-      <c r="K86" s="125"/>
-      <c r="L86" s="125"/>
-      <c r="M86" s="125"/>
-      <c r="N86" s="125"/>
-      <c r="O86" s="125"/>
-      <c r="P86" s="125"/>
-      <c r="Q86" s="125"/>
-      <c r="R86" s="125"/>
+      <c r="A86" s="132"/>
+      <c r="B86" s="132"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="132"/>
+      <c r="G86" s="132"/>
+      <c r="H86" s="132"/>
+      <c r="I86" s="132"/>
+      <c r="J86" s="132"/>
+      <c r="K86" s="132"/>
+      <c r="L86" s="132"/>
+      <c r="M86" s="132"/>
+      <c r="N86" s="132"/>
+      <c r="O86" s="132"/>
+      <c r="P86" s="132"/>
+      <c r="Q86" s="132"/>
+      <c r="R86" s="132"/>
     </row>
     <row r="123" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D123" s="88"/>
@@ -4022,31 +4022,31 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="126" t="s">
+      <c r="A5" s="133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="126" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -4401,21 +4401,21 @@
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="126" t="s">
+      <c r="H13" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="16" t="s">
@@ -5464,46 +5464,46 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="129" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="130" t="s">
+      <c r="A5" s="139" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="126" t="s">
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
       <c r="S5" s="29"/>
-      <c r="T5" s="131" t="s">
+      <c r="T5" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
       <c r="Y5" s="29"/>
-      <c r="Z5" s="126" t="s">
+      <c r="Z5" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
     </row>
     <row r="6" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -6114,21 +6114,21 @@
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="126" t="s">
+      <c r="H13" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
@@ -6176,21 +6176,21 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="R15" s="126" t="s">
+      <c r="R15" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="S15" s="127"/>
-      <c r="T15" s="127"/>
-      <c r="U15" s="127"/>
-      <c r="V15" s="127"/>
-      <c r="X15" s="126" t="s">
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="X15" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="Y15" s="127"/>
-      <c r="Z15" s="127"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="127"/>
+      <c r="Y15" s="134"/>
+      <c r="Z15" s="134"/>
+      <c r="AA15" s="134"/>
+      <c r="AB15" s="134"/>
+      <c r="AC15" s="134"/>
     </row>
     <row r="16" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -6274,11 +6274,11 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="126" t="s">
+      <c r="N17" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134"/>
       <c r="R17" s="36">
         <f t="shared" ref="R17:V17" si="15">B24/1.5</f>
         <v>12</v>
@@ -6346,11 +6346,11 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="126" t="s">
+      <c r="N18" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
       <c r="R18" s="50">
         <f t="shared" ref="R18:V18" si="17">B25/2</f>
         <v>6</v>
@@ -6418,11 +6418,11 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="126" t="s">
+      <c r="N19" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="O19" s="127"/>
-      <c r="P19" s="127"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="134"/>
       <c r="R19" s="50">
         <f t="shared" ref="R19:V19" si="19">B26/2.5</f>
         <v>12.8</v>
@@ -6477,11 +6477,11 @@
       <c r="I20" s="1"/>
       <c r="K20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="126" t="s">
+      <c r="N20" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="50">
         <f t="shared" ref="R20:V20" si="21">B27/3</f>
@@ -6544,11 +6544,11 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="126" t="s">
+      <c r="N21" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="O21" s="127"/>
-      <c r="P21" s="127"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="134"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="62">
         <f t="shared" ref="R21:V21" si="23">B28/2.75</f>
@@ -6722,13 +6722,13 @@
       <c r="O24" s="72"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="126" t="s">
+      <c r="R24" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="S24" s="127"/>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="127"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="134"/>
     </row>
     <row r="25" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -6814,11 +6814,11 @@
         <v>1</v>
       </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="126" t="s">
+      <c r="N26" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="134"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="36">
         <f t="shared" ref="R26:V26" si="29">T7-R17</f>
@@ -6873,11 +6873,11 @@
         <v>1</v>
       </c>
       <c r="M27" s="1"/>
-      <c r="N27" s="126" t="s">
+      <c r="N27" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="134"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="50">
         <f t="shared" ref="R27:V27" si="30">T8-R18</f>
@@ -6932,11 +6932,11 @@
         <v>0.6645833333333333</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="126" t="s">
+      <c r="N28" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="134"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="50">
         <f t="shared" ref="R28:V28" si="31">T9-R19</f>
@@ -6990,11 +6990,11 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="126" t="s">
+      <c r="N29" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="O29" s="127"/>
-      <c r="P29" s="127"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="134"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="50">
         <f t="shared" ref="R29:V29" si="33">T10-R20</f>
@@ -7037,11 +7037,11 @@
         <v>0.68936965811965811</v>
       </c>
       <c r="M30" s="1"/>
-      <c r="N30" s="126" t="s">
+      <c r="N30" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="O30" s="127"/>
-      <c r="P30" s="127"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="134"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="62">
         <f t="shared" ref="R30:V30" si="34">T11-R21</f>
@@ -7068,11 +7068,11 @@
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="132">
+      <c r="B31" s="137">
         <f>L30</f>
         <v>0.68936965811965811</v>
       </c>
-      <c r="C31" s="133"/>
+      <c r="C31" s="138"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -7306,27 +7306,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="X15:AC15"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Z5:AD5"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
     <mergeCell ref="N28:P28"/>
     <mergeCell ref="N29:P29"/>
     <mergeCell ref="N30:P30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="R15:V15"/>
     <mergeCell ref="R24:V24"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Z5:AD5"/>
+    <mergeCell ref="X15:AC15"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ORscheduling_Complete (1).xlsx
+++ b/ORscheduling_Complete (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igiannakopoulos\Desktop\MBA\Exercise - Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2A625-932D-41CF-BB23-094ABEC83D82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3D5BBC-B076-4920-B1D1-3AA9B4D292C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1267,19 +1267,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1497,31 +1497,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" customWidth="1"/>
-    <col min="5" max="6" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="6" width="5.44140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.453125" customWidth="1"/>
-    <col min="17" max="17" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" customWidth="1"/>
     <col min="19" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="R1" s="29"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1567,7 +1567,7 @@
       <c r="R2" s="29"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="R3" s="29"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -1613,7 +1613,7 @@
       <c r="R4" s="29"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="133" t="s">
         <v>2</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="R5" s="134"/>
       <c r="S5" s="134"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>74</v>
       </c>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="S7" s="122"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>14</v>
       </c>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="S8" s="122"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>82</v>
       </c>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="S9" s="122"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>75</v>
       </c>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="S10" s="122"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="88" t="s">
         <v>76</v>
       </c>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="S11" s="122"/>
     </row>
-    <row r="12" spans="1:19" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>77</v>
       </c>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="S12" s="122"/>
     </row>
-    <row r="13" spans="1:19" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="86" t="s">
         <v>78</v>
       </c>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="S13" s="122"/>
     </row>
-    <row r="14" spans="1:19" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="86" t="s">
         <v>13</v>
       </c>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="S14" s="122"/>
     </row>
-    <row r="15" spans="1:19" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="86" t="s">
         <v>79</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="S15" s="122"/>
     </row>
-    <row r="16" spans="1:19" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="86" t="s">
         <v>81</v>
       </c>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="S16" s="122"/>
     </row>
-    <row r="17" spans="1:21" s="87" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="87" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="86" t="s">
         <v>80</v>
       </c>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="S17" s="122"/>
     </row>
-    <row r="18" spans="1:21" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="87" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="90">
         <f>SUM(B7:B17)</f>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="88"/>
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
@@ -2412,7 +2412,7 @@
       <c r="R19" s="88"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="133" t="s">
         <v>15</v>
       </c>
@@ -2432,7 +2432,7 @@
       <c r="M20" s="135"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>17</v>
@@ -2457,7 +2457,7 @@
       <c r="R21" s="88"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="R22" s="29"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -2519,8 +2519,8 @@
       <c r="F23" s="88"/>
       <c r="G23" s="88"/>
       <c r="H23" s="111">
-        <f t="shared" ref="H23:H31" si="16">(B8+C8+D8+E8+F8)*7</f>
-        <v>168</v>
+        <f>(B8+C8+D8+E8+F8)*8*0.7</f>
+        <v>134.39999999999998</v>
       </c>
       <c r="I23" s="88"/>
       <c r="J23" s="85" t="str">
@@ -2528,19 +2528,19 @@
         <v/>
       </c>
       <c r="K23" s="85" t="str">
-        <f t="shared" ref="K23:N26" si="17">IF(C8&lt;I8,1,"")</f>
+        <f t="shared" ref="K23:N26" si="16">IF(C8&lt;I8,1,"")</f>
         <v/>
       </c>
       <c r="L23" s="85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M23" s="85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N23" s="85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P23" s="29"/>
@@ -2549,7 +2549,7 @@
       <c r="S23" s="2"/>
       <c r="U23" s="29"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -2566,8 +2566,8 @@
       <c r="F24" s="88"/>
       <c r="G24" s="88"/>
       <c r="H24" s="111">
-        <f t="shared" si="16"/>
-        <v>84</v>
+        <f t="shared" ref="H24:H31" si="17">(B9+C9+D9+E9+F9)*8*0.7</f>
+        <v>67.199999999999989</v>
       </c>
       <c r="I24" s="88"/>
       <c r="J24" s="85" t="str">
@@ -2575,19 +2575,19 @@
         <v/>
       </c>
       <c r="K24" s="85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L24" s="85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M24" s="85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N24" s="85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P24" s="29"/>
@@ -2596,7 +2596,7 @@
       <c r="S24" s="2"/>
       <c r="U24" s="29"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -2613,8 +2613,8 @@
       <c r="F25" s="88"/>
       <c r="G25" s="88"/>
       <c r="H25" s="111">
-        <f t="shared" si="16"/>
-        <v>70</v>
+        <f t="shared" si="17"/>
+        <v>56</v>
       </c>
       <c r="I25" s="88"/>
       <c r="J25" s="85" t="str">
@@ -2622,19 +2622,19 @@
         <v/>
       </c>
       <c r="K25" s="85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L25" s="85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M25" s="85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N25" s="85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P25" s="29"/>
@@ -2643,7 +2643,7 @@
       <c r="S25" s="2"/>
       <c r="U25" s="29"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -2660,8 +2660,8 @@
       <c r="F26" s="88"/>
       <c r="G26" s="88"/>
       <c r="H26" s="111">
-        <f t="shared" si="16"/>
-        <v>140</v>
+        <f t="shared" si="17"/>
+        <v>112</v>
       </c>
       <c r="I26" s="88"/>
       <c r="J26" s="85" t="str">
@@ -2669,19 +2669,19 @@
         <v/>
       </c>
       <c r="K26" s="85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L26" s="85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M26" s="85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N26" s="85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P26" s="29"/>
@@ -2690,7 +2690,7 @@
       <c r="S26" s="2"/>
       <c r="U26" s="29"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="88" t="s">
         <v>77</v>
       </c>
@@ -2707,8 +2707,8 @@
       <c r="F27" s="88"/>
       <c r="G27" s="88"/>
       <c r="H27" s="111">
-        <f t="shared" si="16"/>
-        <v>70</v>
+        <f t="shared" si="17"/>
+        <v>56</v>
       </c>
       <c r="I27" s="88"/>
       <c r="J27" s="88"/>
@@ -2722,7 +2722,7 @@
       <c r="S27" s="2"/>
       <c r="U27" s="29"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -2737,14 +2737,14 @@
       <c r="D28" s="109"/>
       <c r="G28" s="109"/>
       <c r="H28" s="111">
-        <f t="shared" si="16"/>
-        <v>84</v>
+        <f t="shared" si="17"/>
+        <v>67.199999999999989</v>
       </c>
       <c r="I28" s="109"/>
       <c r="S28" s="2"/>
       <c r="U28" s="88"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2759,14 +2759,14 @@
       <c r="D29" s="109"/>
       <c r="G29" s="109"/>
       <c r="H29" s="111">
-        <f t="shared" si="16"/>
-        <v>56</v>
+        <f t="shared" si="17"/>
+        <v>44.8</v>
       </c>
       <c r="I29" s="109"/>
       <c r="S29" s="2"/>
       <c r="U29" s="29"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -2781,14 +2781,14 @@
       <c r="D30" s="109"/>
       <c r="G30" s="109"/>
       <c r="H30" s="111">
-        <f t="shared" si="16"/>
-        <v>112</v>
+        <f t="shared" si="17"/>
+        <v>89.6</v>
       </c>
       <c r="I30" s="109"/>
       <c r="S30" s="2"/>
       <c r="U30" s="29"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -2803,14 +2803,14 @@
       <c r="D31" s="109"/>
       <c r="G31" s="109"/>
       <c r="H31" s="111">
-        <f t="shared" si="16"/>
-        <v>70</v>
+        <f t="shared" si="17"/>
+        <v>56</v>
       </c>
       <c r="I31" s="109"/>
       <c r="S31" s="2"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -2831,26 +2831,26 @@
       <c r="S32" s="2"/>
       <c r="U32" s="86"/>
     </row>
-    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S33" s="2"/>
       <c r="U33" s="86"/>
     </row>
-    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S34" s="2"/>
       <c r="U34" s="86"/>
     </row>
-    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S35" s="2"/>
       <c r="U35" s="86"/>
     </row>
-    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S36" s="2"/>
       <c r="U36" s="86"/>
     </row>
-    <row r="37" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="R38" s="29"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -2892,7 +2892,7 @@
       <c r="R39" s="29"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>5</v>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="X40" s="129"/>
     </row>
-    <row r="41" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="86" t="s">
         <v>74</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="X41" s="129"/>
     </row>
-    <row r="42" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="86" t="s">
         <v>14</v>
       </c>
@@ -3027,7 +3027,7 @@
       <c r="M42" s="29"/>
       <c r="N42" s="131">
         <f t="shared" ref="N42:N51" si="20">L42/H23</f>
-        <v>0.75</v>
+        <v>0.93750000000000011</v>
       </c>
       <c r="P42" s="29"/>
       <c r="Q42" s="125"/>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="X42" s="129"/>
     </row>
-    <row r="43" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="86" t="s">
         <v>82</v>
       </c>
@@ -3081,7 +3081,7 @@
       <c r="M43" s="29"/>
       <c r="N43" s="131">
         <f t="shared" si="20"/>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="P43" s="29"/>
       <c r="Q43" s="125"/>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="X43" s="129"/>
     </row>
-    <row r="44" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="86" t="s">
         <v>75</v>
       </c>
@@ -3135,7 +3135,7 @@
       <c r="M44" s="29"/>
       <c r="N44" s="131">
         <f t="shared" si="20"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="P44" s="29"/>
       <c r="Q44" s="125"/>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="X44" s="129"/>
     </row>
-    <row r="45" spans="1:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="86" t="s">
         <v>76</v>
       </c>
@@ -3189,7 +3189,7 @@
       <c r="M45" s="29"/>
       <c r="N45" s="131">
         <f t="shared" si="20"/>
-        <v>0.75</v>
+        <v>0.9375</v>
       </c>
       <c r="P45" s="29"/>
       <c r="Q45" s="125"/>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="X45" s="129"/>
     </row>
-    <row r="46" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="88" t="s">
         <v>77</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="M46" s="29"/>
       <c r="N46" s="131">
         <f t="shared" si="20"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O46" s="83"/>
       <c r="P46" s="29"/>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="X46" s="129"/>
     </row>
-    <row r="47" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="87" t="s">
         <v>78</v>
       </c>
@@ -3298,7 +3298,7 @@
       <c r="M47" s="88"/>
       <c r="N47" s="131">
         <f t="shared" si="20"/>
-        <v>0.41666666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="O47" s="88"/>
       <c r="P47" s="88"/>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="X47" s="129"/>
     </row>
-    <row r="48" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="87" t="s">
         <v>13</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="M48" s="88"/>
       <c r="N48" s="131">
         <f t="shared" si="20"/>
-        <v>0.625</v>
+        <v>0.78125</v>
       </c>
       <c r="O48" s="88"/>
       <c r="P48" s="88"/>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="X48" s="129"/>
     </row>
-    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="87" t="s">
         <v>79</v>
       </c>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="N49" s="131">
         <f t="shared" si="20"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="Q49" s="125"/>
       <c r="R49" s="128">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="X49" s="129"/>
     </row>
-    <row r="50" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="87" t="s">
         <v>81</v>
       </c>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="N50" s="131">
         <f t="shared" si="20"/>
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="Q50" s="125"/>
       <c r="R50" s="128">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="X50" s="129"/>
     </row>
-    <row r="51" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="87" t="s">
         <v>80</v>
       </c>
@@ -3518,12 +3518,12 @@
       </c>
       <c r="X51" s="129"/>
     </row>
-    <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V52" s="129"/>
       <c r="W52" s="129"/>
       <c r="X52" s="129"/>
     </row>
-    <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
@@ -3551,7 +3551,7 @@
       <c r="W53" s="129"/>
       <c r="X53" s="129"/>
     </row>
-    <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V54" s="129"/>
       <c r="W54" s="129">
         <f>SUM(W41:W51)</f>
@@ -3559,24 +3559,24 @@
       </c>
       <c r="X54" s="129"/>
     </row>
-    <row r="55" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="130">
         <f>SUM(N41:N51)</f>
-        <v>6.6083333333333334</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.760416666666667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H57" s="108"/>
       <c r="I57" s="108"/>
       <c r="J57" s="108"/>
       <c r="K57" s="108"/>
       <c r="L57" s="108"/>
     </row>
-    <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>25</v>
       </c>
@@ -3586,7 +3586,7 @@
       <c r="K58" s="108"/>
       <c r="L58" s="108"/>
     </row>
-    <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="26" t="s">
         <v>26</v>
       </c>
@@ -3596,7 +3596,7 @@
       <c r="K59" s="108"/>
       <c r="L59" s="108"/>
     </row>
-    <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="26" t="s">
         <v>23</v>
       </c>
@@ -3606,7 +3606,7 @@
       <c r="K60" s="108"/>
       <c r="L60" s="108"/>
     </row>
-    <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="26" t="s">
         <v>27</v>
       </c>
@@ -3616,7 +3616,7 @@
       <c r="K61" s="108"/>
       <c r="L61" s="108"/>
     </row>
-    <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="26" t="s">
         <v>28</v>
       </c>
@@ -3626,7 +3626,7 @@
       <c r="K62" s="108"/>
       <c r="L62" s="108"/>
     </row>
-    <row r="63" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="26" t="s">
         <v>29</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="K63" s="108"/>
       <c r="L63" s="108"/>
     </row>
-    <row r="64" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26" t="s">
         <v>30</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="K64" s="108"/>
       <c r="L64" s="108"/>
     </row>
-    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26" t="s">
         <v>31</v>
       </c>
@@ -3656,7 +3656,7 @@
       <c r="K65" s="108"/>
       <c r="L65" s="108"/>
     </row>
-    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26" t="s">
         <v>32</v>
       </c>
@@ -3666,14 +3666,14 @@
       <c r="K66" s="108"/>
       <c r="L66" s="108"/>
     </row>
-    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H67" s="108"/>
       <c r="I67" s="108"/>
       <c r="J67" s="108"/>
       <c r="K67" s="108"/>
       <c r="L67" s="108"/>
     </row>
-    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="88"/>
       <c r="C70" s="88"/>
       <c r="D70" s="88"/>
@@ -3692,7 +3692,7 @@
       <c r="Q70" s="88"/>
       <c r="R70" s="88"/>
     </row>
-    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="88"/>
       <c r="C71" s="88"/>
       <c r="D71" s="88"/>
@@ -3706,7 +3706,7 @@
       <c r="Q71" s="88"/>
       <c r="R71" s="88"/>
     </row>
-    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="88"/>
       <c r="C72" s="88"/>
       <c r="D72" s="88"/>
@@ -3720,7 +3720,7 @@
       <c r="Q72" s="88"/>
       <c r="R72" s="88"/>
     </row>
-    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="88"/>
       <c r="C73" s="88"/>
       <c r="D73" s="88"/>
@@ -3734,7 +3734,7 @@
       <c r="Q73" s="88"/>
       <c r="R73" s="88"/>
     </row>
-    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="88"/>
       <c r="C74" s="88"/>
       <c r="D74" s="88"/>
@@ -3748,7 +3748,7 @@
       <c r="Q74" s="88"/>
       <c r="R74" s="88"/>
     </row>
-    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="88"/>
       <c r="C75" s="88"/>
       <c r="D75" s="88"/>
@@ -3762,7 +3762,7 @@
       <c r="Q75" s="88"/>
       <c r="R75" s="88"/>
     </row>
-    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="88"/>
       <c r="C76" s="88"/>
       <c r="D76" s="88"/>
@@ -3776,7 +3776,7 @@
       <c r="Q76" s="88"/>
       <c r="R76" s="88"/>
     </row>
-    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="88"/>
       <c r="C77" s="88"/>
       <c r="D77" s="88"/>
@@ -3790,14 +3790,14 @@
       <c r="Q77" s="88"/>
       <c r="R77" s="88"/>
     </row>
-    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="88"/>
       <c r="C78" s="88"/>
       <c r="P78" s="88"/>
       <c r="Q78" s="88"/>
       <c r="R78" s="88"/>
     </row>
-    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="132"/>
       <c r="B86" s="132"/>
       <c r="C86" s="132"/>
@@ -3817,7 +3817,7 @@
       <c r="Q86" s="132"/>
       <c r="R86" s="132"/>
     </row>
-    <row r="123" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D123" s="88"/>
       <c r="E123" s="88"/>
       <c r="F123" s="88"/>
@@ -3831,61 +3831,61 @@
       <c r="N123" s="88"/>
       <c r="O123" s="88"/>
     </row>
-    <row r="124" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T124" s="89"/>
     </row>
-    <row r="125" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H125" s="87"/>
       <c r="T125" s="89"/>
     </row>
-    <row r="126" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H126" s="89"/>
       <c r="T126" s="89"/>
     </row>
-    <row r="127" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H127" s="89"/>
       <c r="T127" s="89"/>
     </row>
-    <row r="128" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H128" s="87"/>
       <c r="T128" s="89"/>
     </row>
-    <row r="129" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H129" s="87"/>
       <c r="T129" s="87"/>
     </row>
-    <row r="130" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D130" s="89"/>
       <c r="H130" s="89"/>
       <c r="T130" s="87"/>
     </row>
-    <row r="131" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H131" s="89"/>
       <c r="T131" s="87"/>
     </row>
-    <row r="132" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H132" s="89"/>
       <c r="T132" s="87"/>
     </row>
-    <row r="133" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H133" s="89"/>
       <c r="T133" s="87"/>
     </row>
-    <row r="134" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H134" s="87"/>
       <c r="T134" s="87"/>
     </row>
-    <row r="135" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H135" s="87"/>
       <c r="T135" s="87"/>
     </row>
-    <row r="136" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H136" s="87"/>
     </row>
-    <row r="137" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H137" s="87"/>
     </row>
-    <row r="138" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H138" s="87"/>
     </row>
   </sheetData>
@@ -3911,29 +3911,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" customWidth="1"/>
-    <col min="4" max="4" width="4.6328125" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" customWidth="1"/>
-    <col min="7" max="7" width="5.453125" customWidth="1"/>
-    <col min="8" max="8" width="6.54296875" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" customWidth="1"/>
-    <col min="10" max="10" width="6.1796875" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" customWidth="1"/>
-    <col min="14" max="14" width="6.54296875" customWidth="1"/>
-    <col min="15" max="15" width="5.54296875" customWidth="1"/>
-    <col min="16" max="17" width="6.453125" customWidth="1"/>
-    <col min="18" max="18" width="4.90625" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" customWidth="1"/>
+    <col min="11" max="11" width="5.21875" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" customWidth="1"/>
+    <col min="16" max="17" width="6.44140625" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" customWidth="1"/>
     <col min="19" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3956,7 +3956,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3977,7 +3977,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4000,7 +4000,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -4021,7 +4021,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="133" t="s">
         <v>2</v>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="R5" s="134"/>
       <c r="S5" s="134"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <f t="shared" ref="B12:F12" si="0">SUM(B7:B11)</f>
@@ -4400,7 +4400,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="133" t="s">
         <v>15</v>
       </c>
@@ -4427,7 +4427,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -4464,7 +4464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4731,7 +4731,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -4757,7 +4757,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4778,7 +4778,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>5</v>
@@ -4815,7 +4815,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -4857,7 +4857,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -4899,7 +4899,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -4941,7 +4941,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -4983,7 +4983,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -5025,7 +5025,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -5063,7 +5063,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5093,7 +5093,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
@@ -5119,7 +5119,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5140,7 +5140,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
@@ -5163,7 +5163,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>26</v>
       </c>
@@ -5186,7 +5186,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>23</v>
       </c>
@@ -5209,7 +5209,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>27</v>
       </c>
@@ -5232,7 +5232,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>28</v>
       </c>
@@ -5255,7 +5255,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>29</v>
       </c>
@@ -5278,7 +5278,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>30</v>
       </c>
@@ -5301,7 +5301,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>31</v>
       </c>
@@ -5324,7 +5324,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>32</v>
       </c>
@@ -5368,14 +5368,14 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.453125" customWidth="1"/>
-    <col min="2" max="30" width="6.54296875" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="30" width="6.5546875" customWidth="1"/>
     <col min="31" max="31" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5398,7 +5398,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5419,7 +5419,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -5442,7 +5442,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5463,8 +5463,8 @@
       <c r="R4" s="1"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
+    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="137" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="134"/>
@@ -5473,7 +5473,7 @@
       <c r="E5" s="134"/>
       <c r="F5" s="134"/>
       <c r="G5" s="134"/>
-      <c r="H5" s="140" t="s">
+      <c r="H5" s="138" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="134"/>
@@ -5489,7 +5489,7 @@
       <c r="Q5" s="134"/>
       <c r="R5" s="134"/>
       <c r="S5" s="29"/>
-      <c r="T5" s="141" t="s">
+      <c r="T5" s="139" t="s">
         <v>37</v>
       </c>
       <c r="U5" s="134"/>
@@ -5505,7 +5505,7 @@
       <c r="AC5" s="134"/>
       <c r="AD5" s="134"/>
     </row>
-    <row r="6" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -5587,7 +5587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>239.25</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6113,7 +6113,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="133" t="s">
         <v>15</v>
       </c>
@@ -6132,7 +6132,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -6151,7 +6151,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -6192,7 +6192,7 @@
       <c r="AB15" s="134"/>
       <c r="AC15" s="134"/>
     </row>
-    <row r="16" spans="1:31" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -6633,7 +6633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>5</v>
@@ -6686,7 +6686,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -6730,7 +6730,7 @@
       <c r="U24" s="134"/>
       <c r="V24" s="134"/>
     </row>
-    <row r="25" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>40.666666666666664</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7064,15 +7064,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="137">
+      <c r="B31" s="140">
         <f>L30</f>
         <v>0.68936965811965811</v>
       </c>
-      <c r="C31" s="138"/>
+      <c r="C31" s="141"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -7088,7 +7088,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:29" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -7107,7 +7107,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
@@ -7128,7 +7128,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
         <v>26</v>
       </c>
@@ -7149,7 +7149,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>23</v>
       </c>
@@ -7170,7 +7170,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
         <v>27</v>
       </c>
@@ -7191,7 +7191,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="26" t="s">
         <v>28</v>
       </c>
@@ -7212,7 +7212,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>29</v>
       </c>
@@ -7235,7 +7235,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>30</v>
       </c>
@@ -7258,7 +7258,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>31</v>
       </c>
@@ -7281,7 +7281,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>32</v>
       </c>
@@ -7306,27 +7306,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Z5:AD5"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="X15:AC15"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
     <mergeCell ref="N28:P28"/>
     <mergeCell ref="N29:P29"/>
     <mergeCell ref="N30:P30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="R15:V15"/>
     <mergeCell ref="R24:V24"/>
-    <mergeCell ref="X15:AC15"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Z5:AD5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7341,13 +7341,13 @@
       <selection activeCell="T23" sqref="T12:T23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="88"/>
       <c r="E11" s="88"/>
       <c r="F11" s="88"/>
@@ -7361,12 +7361,12 @@
       <c r="N11" s="88"/>
       <c r="O11" s="88"/>
     </row>
-    <row r="12" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T12" s="89" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="121" t="s">
         <v>43</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="121" t="s">
         <v>44</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="121" t="s">
         <v>45</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="121" t="s">
         <v>46</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H17" s="121" t="s">
         <v>49</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="89" t="s">
         <v>73</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H19" s="89" t="s">
         <v>71</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H20" s="89" t="s">
         <v>70</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H21" s="89" t="s">
         <v>72</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H22" s="121" t="s">
         <v>50</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H23" s="121" t="s">
         <v>51</v>
       </c>
@@ -7469,24 +7469,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H24" s="121" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H25" s="121" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H26" s="121" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="4:20" s="121" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ORscheduling_Complete (1).xlsx
+++ b/ORscheduling_Complete (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igiannakopoulos\Desktop\MBA\Exercise - Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7C6B19-5E86-4DCF-88B7-0C57447CDD98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E3D9B3-81AB-4B60-8426-4AF8B1B4E739}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Room Scheduling" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
   <si>
     <t>OR Scheduling</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>Weekly total (hours)</t>
+  </si>
+  <si>
+    <t>% each clinic sets as target</t>
   </si>
 </sst>
 </file>
@@ -675,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -917,6 +920,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,31 +1141,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" customWidth="1"/>
-    <col min="5" max="6" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="6" width="5.44140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.453125" customWidth="1"/>
-    <col min="17" max="17" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" customWidth="1"/>
     <col min="19" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1189,7 @@
       <c r="R1" s="29"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1204,7 +1212,7 @@
       <c r="R2" s="29"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1229,7 +1237,7 @@
       <c r="R3" s="29"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -1250,7 +1258,7 @@
       <c r="R4" s="29"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="83" t="s">
         <v>2</v>
       </c>
@@ -1277,7 +1285,7 @@
       <c r="R5" s="84"/>
       <c r="S5" s="84"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1328,7 +1336,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>36</v>
       </c>
@@ -1386,7 +1394,7 @@
       </c>
       <c r="S7" s="72"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>14</v>
       </c>
@@ -1444,7 +1452,7 @@
       </c>
       <c r="S8" s="72"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>44</v>
       </c>
@@ -1502,7 +1510,7 @@
       </c>
       <c r="S9" s="72"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>37</v>
       </c>
@@ -1560,7 +1568,7 @@
       </c>
       <c r="S10" s="72"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="s">
         <v>38</v>
       </c>
@@ -1618,7 +1626,7 @@
       </c>
       <c r="S11" s="72"/>
     </row>
-    <row r="12" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>39</v>
       </c>
@@ -1676,7 +1684,7 @@
       </c>
       <c r="S12" s="72"/>
     </row>
-    <row r="13" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>40</v>
       </c>
@@ -1734,7 +1742,7 @@
       </c>
       <c r="S13" s="72"/>
     </row>
-    <row r="14" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -1792,7 +1800,7 @@
       </c>
       <c r="S14" s="72"/>
     </row>
-    <row r="15" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>41</v>
       </c>
@@ -1850,7 +1858,7 @@
       </c>
       <c r="S15" s="72"/>
     </row>
-    <row r="16" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>43</v>
       </c>
@@ -1908,7 +1916,7 @@
       </c>
       <c r="S16" s="72"/>
     </row>
-    <row r="17" spans="1:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>42</v>
       </c>
@@ -1962,7 +1970,7 @@
       </c>
       <c r="S17" s="72"/>
     </row>
-    <row r="18" spans="1:21" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="41">
         <f>SUM(B7:B17)</f>
@@ -2028,7 +2036,7 @@
       </c>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -2049,7 +2057,7 @@
       <c r="R19" s="39"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="83" t="s">
         <v>15</v>
       </c>
@@ -2069,7 +2077,7 @@
       <c r="M20" s="85"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>17</v>
@@ -2082,9 +2090,11 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="I21" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
       <c r="N21" s="39"/>
@@ -2094,7 +2104,7 @@
       <c r="R21" s="39"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -2139,7 +2149,7 @@
       <c r="R22" s="29"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -2156,10 +2166,12 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="62">
-        <f>(B8+C8+D8+E8+F8)*8*0.7</f>
-        <v>134.39999999999998</v>
-      </c>
-      <c r="I23" s="39"/>
+        <f>(B8+C8+D8+E8+F8)*7*I23</f>
+        <v>126</v>
+      </c>
+      <c r="I23" s="87">
+        <v>0.75</v>
+      </c>
       <c r="J23" s="36" t="str">
         <f>IF(B8&lt;H8,1,"")</f>
         <v/>
@@ -2186,7 +2198,7 @@
       <c r="S23" s="2"/>
       <c r="U23" s="29"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -2203,10 +2215,12 @@
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="62">
-        <f t="shared" ref="H24:H31" si="17">(B9+C9+D9+E9+F9)*8*0.7</f>
-        <v>67.199999999999989</v>
-      </c>
-      <c r="I24" s="39"/>
+        <f t="shared" ref="H24:H31" si="17">(B9+C9+D9+E9+F9)*7*I24</f>
+        <v>50.4</v>
+      </c>
+      <c r="I24" s="87">
+        <v>0.6</v>
+      </c>
       <c r="J24" s="36" t="str">
         <f>IF(B9&lt;H9,1,"")</f>
         <v/>
@@ -2233,7 +2247,7 @@
       <c r="S24" s="2"/>
       <c r="U24" s="29"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -2251,9 +2265,11 @@
       <c r="G25" s="39"/>
       <c r="H25" s="62">
         <f t="shared" si="17"/>
-        <v>56</v>
-      </c>
-      <c r="I25" s="39"/>
+        <v>49</v>
+      </c>
+      <c r="I25" s="87">
+        <v>0.7</v>
+      </c>
       <c r="J25" s="36" t="str">
         <f>IF(B10&lt;H10,1,"")</f>
         <v/>
@@ -2280,7 +2296,7 @@
       <c r="S25" s="2"/>
       <c r="U25" s="29"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -2298,9 +2314,11 @@
       <c r="G26" s="39"/>
       <c r="H26" s="62">
         <f t="shared" si="17"/>
-        <v>112</v>
-      </c>
-      <c r="I26" s="39"/>
+        <v>105</v>
+      </c>
+      <c r="I26" s="87">
+        <v>0.75</v>
+      </c>
       <c r="J26" s="36" t="str">
         <f>IF(B11&lt;H11,1,"")</f>
         <v/>
@@ -2327,7 +2345,7 @@
       <c r="S26" s="2"/>
       <c r="U26" s="29"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>39</v>
       </c>
@@ -2347,7 +2365,9 @@
         <f t="shared" si="17"/>
         <v>56</v>
       </c>
-      <c r="I27" s="39"/>
+      <c r="I27" s="87">
+        <v>0.8</v>
+      </c>
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
@@ -2359,7 +2379,7 @@
       <c r="S27" s="2"/>
       <c r="U27" s="29"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -2375,13 +2395,15 @@
       <c r="G28" s="60"/>
       <c r="H28" s="62">
         <f t="shared" si="17"/>
-        <v>67.199999999999989</v>
-      </c>
-      <c r="I28" s="60"/>
+        <v>54.6</v>
+      </c>
+      <c r="I28" s="88">
+        <v>0.65</v>
+      </c>
       <c r="S28" s="2"/>
       <c r="U28" s="39"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2397,13 +2419,15 @@
       <c r="G29" s="60"/>
       <c r="H29" s="62">
         <f t="shared" si="17"/>
-        <v>44.8</v>
-      </c>
-      <c r="I29" s="60"/>
+        <v>28</v>
+      </c>
+      <c r="I29" s="88">
+        <v>0.5</v>
+      </c>
       <c r="S29" s="2"/>
       <c r="U29" s="29"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2419,13 +2443,15 @@
       <c r="G30" s="60"/>
       <c r="H30" s="62">
         <f t="shared" si="17"/>
-        <v>89.6</v>
-      </c>
-      <c r="I30" s="60"/>
+        <v>56</v>
+      </c>
+      <c r="I30" s="88">
+        <v>0.5</v>
+      </c>
       <c r="S30" s="2"/>
       <c r="U30" s="29"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -2441,13 +2467,15 @@
       <c r="G31" s="60"/>
       <c r="H31" s="62">
         <f t="shared" si="17"/>
-        <v>56</v>
-      </c>
-      <c r="I31" s="60"/>
+        <v>35</v>
+      </c>
+      <c r="I31" s="88">
+        <v>0.5</v>
+      </c>
       <c r="S31" s="2"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2468,26 +2496,26 @@
       <c r="S32" s="2"/>
       <c r="U32" s="37"/>
     </row>
-    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S33" s="2"/>
       <c r="U33" s="37"/>
     </row>
-    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S34" s="2"/>
       <c r="U34" s="37"/>
     </row>
-    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S35" s="2"/>
       <c r="U35" s="37"/>
     </row>
-    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S36" s="2"/>
       <c r="U36" s="37"/>
     </row>
-    <row r="37" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
@@ -2509,7 +2537,7 @@
       <c r="R38" s="29"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -2529,7 +2557,7 @@
       <c r="R39" s="29"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>5</v>
@@ -2576,7 +2604,7 @@
       </c>
       <c r="X40" s="79"/>
     </row>
-    <row r="41" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>36</v>
       </c>
@@ -2630,7 +2658,7 @@
       </c>
       <c r="X41" s="79"/>
     </row>
-    <row r="42" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>14</v>
       </c>
@@ -2664,7 +2692,7 @@
       <c r="M42" s="29"/>
       <c r="N42" s="81">
         <f t="shared" ref="N42:N51" si="20">L42/H23</f>
-        <v>0.93750000000000011</v>
+        <v>1</v>
       </c>
       <c r="P42" s="29"/>
       <c r="Q42" s="75"/>
@@ -2684,7 +2712,7 @@
       </c>
       <c r="X42" s="79"/>
     </row>
-    <row r="43" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>44</v>
       </c>
@@ -2718,7 +2746,7 @@
       <c r="M43" s="29"/>
       <c r="N43" s="81">
         <f t="shared" si="20"/>
-        <v>0.20833333333333337</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="P43" s="29"/>
       <c r="Q43" s="75"/>
@@ -2738,7 +2766,7 @@
       </c>
       <c r="X43" s="79"/>
     </row>
-    <row r="44" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>37</v>
       </c>
@@ -2772,7 +2800,7 @@
       <c r="M44" s="29"/>
       <c r="N44" s="81">
         <f t="shared" si="20"/>
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="P44" s="29"/>
       <c r="Q44" s="75"/>
@@ -2792,7 +2820,7 @@
       </c>
       <c r="X44" s="79"/>
     </row>
-    <row r="45" spans="1:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
         <v>38</v>
       </c>
@@ -2826,7 +2854,7 @@
       <c r="M45" s="29"/>
       <c r="N45" s="81">
         <f t="shared" si="20"/>
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="P45" s="29"/>
       <c r="Q45" s="75"/>
@@ -2846,7 +2874,7 @@
       </c>
       <c r="X45" s="79"/>
     </row>
-    <row r="46" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
         <v>39</v>
       </c>
@@ -2901,7 +2929,7 @@
       </c>
       <c r="X46" s="79"/>
     </row>
-    <row r="47" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
         <v>40</v>
       </c>
@@ -2935,7 +2963,7 @@
       <c r="M47" s="39"/>
       <c r="N47" s="81">
         <f t="shared" si="20"/>
-        <v>0.52083333333333337</v>
+        <v>0.64102564102564097</v>
       </c>
       <c r="O47" s="39"/>
       <c r="P47" s="39"/>
@@ -2956,7 +2984,7 @@
       </c>
       <c r="X47" s="79"/>
     </row>
-    <row r="48" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>13</v>
       </c>
@@ -2990,7 +3018,7 @@
       <c r="M48" s="39"/>
       <c r="N48" s="81">
         <f t="shared" si="20"/>
-        <v>0.78125</v>
+        <v>1.25</v>
       </c>
       <c r="O48" s="39"/>
       <c r="P48" s="39"/>
@@ -3011,7 +3039,7 @@
       </c>
       <c r="X48" s="79"/>
     </row>
-    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="38" t="s">
         <v>41</v>
       </c>
@@ -3040,7 +3068,7 @@
       </c>
       <c r="N49" s="81">
         <f t="shared" si="20"/>
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="75"/>
       <c r="R49" s="78">
@@ -3059,7 +3087,7 @@
       </c>
       <c r="X49" s="79"/>
     </row>
-    <row r="50" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="38" t="s">
         <v>43</v>
       </c>
@@ -3088,7 +3116,7 @@
       </c>
       <c r="N50" s="81">
         <f t="shared" si="20"/>
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="Q50" s="75"/>
       <c r="R50" s="78">
@@ -3107,7 +3135,7 @@
       </c>
       <c r="X50" s="79"/>
     </row>
-    <row r="51" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
         <v>42</v>
       </c>
@@ -3155,12 +3183,12 @@
       </c>
       <c r="X51" s="79"/>
     </row>
-    <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V52" s="79"/>
       <c r="W52" s="79"/>
       <c r="X52" s="79"/>
     </row>
-    <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
@@ -3188,7 +3216,7 @@
       <c r="W53" s="79"/>
       <c r="X53" s="79"/>
     </row>
-    <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V54" s="79"/>
       <c r="W54" s="79">
         <f>SUM(W41:W51)</f>
@@ -3196,24 +3224,24 @@
       </c>
       <c r="X54" s="79"/>
     </row>
-    <row r="55" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="80">
         <f>SUM(N41:N51)</f>
-        <v>7.760416666666667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.0830891330891319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H57" s="59"/>
       <c r="I57" s="59"/>
       <c r="J57" s="59"/>
       <c r="K57" s="59"/>
       <c r="L57" s="59"/>
     </row>
-    <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>25</v>
       </c>
@@ -3223,7 +3251,7 @@
       <c r="K58" s="59"/>
       <c r="L58" s="59"/>
     </row>
-    <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="26" t="s">
         <v>26</v>
       </c>
@@ -3233,7 +3261,7 @@
       <c r="K59" s="59"/>
       <c r="L59" s="59"/>
     </row>
-    <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="26" t="s">
         <v>23</v>
       </c>
@@ -3243,7 +3271,7 @@
       <c r="K60" s="59"/>
       <c r="L60" s="59"/>
     </row>
-    <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="26" t="s">
         <v>27</v>
       </c>
@@ -3253,7 +3281,7 @@
       <c r="K61" s="59"/>
       <c r="L61" s="59"/>
     </row>
-    <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="26" t="s">
         <v>28</v>
       </c>
@@ -3263,7 +3291,7 @@
       <c r="K62" s="59"/>
       <c r="L62" s="59"/>
     </row>
-    <row r="63" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="26" t="s">
         <v>29</v>
       </c>
@@ -3273,7 +3301,7 @@
       <c r="K63" s="59"/>
       <c r="L63" s="59"/>
     </row>
-    <row r="64" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26" t="s">
         <v>30</v>
       </c>
@@ -3283,7 +3311,7 @@
       <c r="K64" s="59"/>
       <c r="L64" s="59"/>
     </row>
-    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26" t="s">
         <v>31</v>
       </c>
@@ -3293,7 +3321,7 @@
       <c r="K65" s="59"/>
       <c r="L65" s="59"/>
     </row>
-    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26" t="s">
         <v>32</v>
       </c>
@@ -3303,14 +3331,14 @@
       <c r="K66" s="59"/>
       <c r="L66" s="59"/>
     </row>
-    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H67" s="59"/>
       <c r="I67" s="59"/>
       <c r="J67" s="59"/>
       <c r="K67" s="59"/>
       <c r="L67" s="59"/>
     </row>
-    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
       <c r="D70" s="39"/>
@@ -3329,7 +3357,7 @@
       <c r="Q70" s="39"/>
       <c r="R70" s="39"/>
     </row>
-    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
       <c r="D71" s="39"/>
@@ -3343,7 +3371,7 @@
       <c r="Q71" s="39"/>
       <c r="R71" s="39"/>
     </row>
-    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>
@@ -3357,7 +3385,7 @@
       <c r="Q72" s="39"/>
       <c r="R72" s="39"/>
     </row>
-    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
@@ -3371,7 +3399,7 @@
       <c r="Q73" s="39"/>
       <c r="R73" s="39"/>
     </row>
-    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
@@ -3385,7 +3413,7 @@
       <c r="Q74" s="39"/>
       <c r="R74" s="39"/>
     </row>
-    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
@@ -3399,7 +3427,7 @@
       <c r="Q75" s="39"/>
       <c r="R75" s="39"/>
     </row>
-    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
       <c r="D76" s="39"/>
@@ -3413,7 +3441,7 @@
       <c r="Q76" s="39"/>
       <c r="R76" s="39"/>
     </row>
-    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
@@ -3427,14 +3455,14 @@
       <c r="Q77" s="39"/>
       <c r="R77" s="39"/>
     </row>
-    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
       <c r="P78" s="39"/>
       <c r="Q78" s="39"/>
       <c r="R78" s="39"/>
     </row>
-    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="82"/>
       <c r="B86" s="82"/>
       <c r="C86" s="82"/>
@@ -3454,7 +3482,7 @@
       <c r="Q86" s="82"/>
       <c r="R86" s="82"/>
     </row>
-    <row r="123" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
       <c r="F123" s="39"/>
@@ -3468,65 +3496,65 @@
       <c r="N123" s="39"/>
       <c r="O123" s="39"/>
     </row>
-    <row r="124" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T124" s="40"/>
     </row>
-    <row r="125" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H125" s="38"/>
       <c r="T125" s="40"/>
     </row>
-    <row r="126" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H126" s="40"/>
       <c r="T126" s="40"/>
     </row>
-    <row r="127" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H127" s="40"/>
       <c r="T127" s="40"/>
     </row>
-    <row r="128" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H128" s="38"/>
       <c r="T128" s="40"/>
     </row>
-    <row r="129" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H129" s="38"/>
       <c r="T129" s="38"/>
     </row>
-    <row r="130" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D130" s="40"/>
       <c r="H130" s="40"/>
       <c r="T130" s="38"/>
     </row>
-    <row r="131" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H131" s="40"/>
       <c r="T131" s="38"/>
     </row>
-    <row r="132" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H132" s="40"/>
       <c r="T132" s="38"/>
     </row>
-    <row r="133" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H133" s="40"/>
       <c r="T133" s="38"/>
     </row>
-    <row r="134" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H134" s="38"/>
       <c r="T134" s="38"/>
     </row>
-    <row r="135" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H135" s="38"/>
       <c r="T135" s="38"/>
     </row>
-    <row r="136" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H136" s="38"/>
     </row>
-    <row r="137" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H137" s="38"/>
     </row>
-    <row r="138" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H138" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A86:R86"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="H5:M5"/>
@@ -3536,6 +3564,7 @@
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="Q40:S40"/>
     <mergeCell ref="H20:J20"/>
+    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3548,29 +3577,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" customWidth="1"/>
-    <col min="4" max="4" width="4.6328125" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" customWidth="1"/>
-    <col min="7" max="7" width="5.453125" customWidth="1"/>
-    <col min="8" max="8" width="6.54296875" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" customWidth="1"/>
-    <col min="10" max="10" width="6.1796875" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" customWidth="1"/>
-    <col min="14" max="14" width="6.54296875" customWidth="1"/>
-    <col min="15" max="15" width="5.54296875" customWidth="1"/>
-    <col min="16" max="17" width="6.453125" customWidth="1"/>
-    <col min="18" max="18" width="4.90625" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" customWidth="1"/>
+    <col min="11" max="11" width="5.21875" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" customWidth="1"/>
+    <col min="16" max="17" width="6.44140625" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" customWidth="1"/>
     <col min="19" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3593,7 +3622,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3614,7 +3643,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3637,7 +3666,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3658,7 +3687,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="83" t="s">
         <v>2</v>
       </c>
@@ -3685,7 +3714,7 @@
       <c r="R5" s="84"/>
       <c r="S5" s="84"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -3736,7 +3765,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3789,7 +3818,7 @@
       </c>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3842,7 +3871,7 @@
       </c>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3895,7 +3924,7 @@
       </c>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3948,7 +3977,7 @@
       </c>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -4001,7 +4030,7 @@
       </c>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <f t="shared" ref="B12:F12" si="0">SUM(B7:B11)</f>
@@ -4037,7 +4066,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="83" t="s">
         <v>15</v>
       </c>
@@ -4064,7 +4093,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -4101,7 +4130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -4151,7 +4180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -4201,7 +4230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -4251,7 +4280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -4301,7 +4330,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -4350,7 +4379,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4368,7 +4397,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -4394,7 +4423,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4415,7 +4444,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>5</v>
@@ -4452,7 +4481,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -4494,7 +4523,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -4536,7 +4565,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -4578,7 +4607,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -4620,7 +4649,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -4662,7 +4691,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4700,7 +4729,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4730,7 +4759,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
@@ -4756,7 +4785,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4777,7 +4806,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
@@ -4800,7 +4829,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>26</v>
       </c>
@@ -4823,7 +4852,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>23</v>
       </c>
@@ -4846,7 +4875,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>27</v>
       </c>
@@ -4869,7 +4898,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>28</v>
       </c>
@@ -4892,7 +4921,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>29</v>
       </c>
@@ -4915,7 +4944,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>30</v>
       </c>
@@ -4938,7 +4967,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>31</v>
       </c>
@@ -4961,7 +4990,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>32</v>
       </c>

--- a/ORscheduling_Complete (1).xlsx
+++ b/ORscheduling_Complete (1).xlsx
@@ -1,95 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igiannakopoulos\Desktop\MBA\Exercise - Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E3D9B3-81AB-4B60-8426-4AF8B1B4E739}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B60D27-C6ED-48BB-A2B3-84220E9B9294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Room Scheduling" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Operating Room Scheduling (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$41:$F$51</definedName>
-    <definedName name="solver_adj" localSheetId="1">Sheet2!$B$24:$F$28</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$41:$F$51</definedName>
+    <definedName name="solver_adj" localSheetId="2">Sheet2!$B$24:$F$28</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs0" localSheetId="0" hidden="1">'Operating Room Scheduling'!$H$41:$H$45</definedName>
+    <definedName name="solver_lhs0" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$H$41:$H$45</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$41:$F$51</definedName>
-    <definedName name="solver_lhs1" localSheetId="1">Sheet2!$B$24:$F$28</definedName>
-    <definedName name="solver_lhs10" localSheetId="1">Sheet2!$S$19</definedName>
-    <definedName name="solver_lhs11" localSheetId="1">Sheet2!$S$19</definedName>
-    <definedName name="solver_lhs12" localSheetId="1">Sheet2!$S$19</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$41:$F$51</definedName>
+    <definedName name="solver_lhs1" localSheetId="2">Sheet2!$B$24:$F$28</definedName>
+    <definedName name="solver_lhs10" localSheetId="2">Sheet2!$S$19</definedName>
+    <definedName name="solver_lhs11" localSheetId="2">Sheet2!$S$19</definedName>
+    <definedName name="solver_lhs12" localSheetId="2">Sheet2!$S$19</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$41:$F$51</definedName>
-    <definedName name="solver_lhs2" localSheetId="1">Sheet2!$B$24:$F$28</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$41:$F$51</definedName>
+    <definedName name="solver_lhs2" localSheetId="2">Sheet2!$B$24:$F$28</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$41:$F$51</definedName>
-    <definedName name="solver_lhs3" localSheetId="1">Sheet2!$B$24:$F$28</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$41:$F$51</definedName>
+    <definedName name="solver_lhs3" localSheetId="2">Sheet2!$B$24:$F$28</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$53:$F$53</definedName>
-    <definedName name="solver_lhs4" localSheetId="1">Sheet2!$B$24:$F$28</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$53:$F$53</definedName>
+    <definedName name="solver_lhs4" localSheetId="2">Sheet2!$B$24:$F$28</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Operating Room Scheduling'!$H$41:$H$51</definedName>
-    <definedName name="solver_lhs5" localSheetId="1">Sheet2!$B$29:$F$29</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$H$41:$H$51</definedName>
+    <definedName name="solver_lhs5" localSheetId="2">Sheet2!$B$29:$F$29</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Operating Room Scheduling'!$H$41:$H$51</definedName>
-    <definedName name="solver_lhs6" localSheetId="1">Sheet2!$H$24:$H$28</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$H$41:$H$51</definedName>
+    <definedName name="solver_lhs6" localSheetId="2">Sheet2!$H$24:$H$28</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Operating Room Scheduling'!$L$41:$L$51</definedName>
-    <definedName name="solver_lhs7" localSheetId="1">Sheet2!$H$24:$H$28</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$L$41:$L$51</definedName>
+    <definedName name="solver_lhs7" localSheetId="2">Sheet2!$H$24:$H$28</definedName>
     <definedName name="solver_lhs8" localSheetId="0">'Operating Room Scheduling'!$L$41:$L$45</definedName>
-    <definedName name="solver_lhs8" localSheetId="1">Sheet2!$L$24:$L$28</definedName>
-    <definedName name="solver_lhs9" localSheetId="1">Sheet2!$S$19</definedName>
+    <definedName name="solver_lhs8" localSheetId="1">'Operating Room Scheduling (2)'!$L$41:$L$45</definedName>
+    <definedName name="solver_lhs8" localSheetId="2">Sheet2!$L$24:$L$28</definedName>
+    <definedName name="solver_lhs9" localSheetId="2">Sheet2!$S$19</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">7</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$56</definedName>
-    <definedName name="solver_opt" localSheetId="1">Sheet2!$B$31</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$56</definedName>
+    <definedName name="solver_opt" localSheetId="2">Sheet2!$B$31</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel0" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel0" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs0" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$7:$F$11</definedName>
+    <definedName name="solver_rhs0" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$7:$F$11</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$7:$F$17</definedName>
-    <definedName name="solver_rhs1" localSheetId="1">Sheet2!$B$7:$F$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$7:$F$17</definedName>
+    <definedName name="solver_rhs1" localSheetId="2">Sheet2!$B$7:$F$11</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Operating Room Scheduling'!$N$7:$R$17</definedName>
-    <definedName name="solver_rhs2" localSheetId="1">Sheet2!$N$7:$R$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$N$7:$R$17</definedName>
+    <definedName name="solver_rhs2" localSheetId="2">Sheet2!$N$7:$R$11</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Operating Room Scheduling'!$H$7:$L$17</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$H$7:$L$17</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$3</definedName>
-    <definedName name="solver_rhs4" localSheetId="1">Sheet2!$H$7:$L$11</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$3</definedName>
+    <definedName name="solver_rhs4" localSheetId="2">Sheet2!$H$7:$L$11</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Operating Room Scheduling'!$C$22:$C$32</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$C$22:$C$32</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$22:$B$32</definedName>
-    <definedName name="solver_rhs6" localSheetId="1">Sheet2!$C$15:$C$19</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$22:$B$32</definedName>
+    <definedName name="solver_rhs6" localSheetId="2">Sheet2!$C$15:$C$19</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Operating Room Scheduling'!$H$22:$H$32</definedName>
-    <definedName name="solver_rhs7" localSheetId="1">Sheet2!$B$15:$B$19</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$H$22:$H$32</definedName>
+    <definedName name="solver_rhs7" localSheetId="2">Sheet2!$B$15:$B$19</definedName>
     <definedName name="solver_rhs8" localSheetId="0">'Operating Room Scheduling'!$H$22:$H$26</definedName>
-    <definedName name="solver_rhs8" localSheetId="1">Sheet2!$H$15:$H$19</definedName>
+    <definedName name="solver_rhs8" localSheetId="1">'Operating Room Scheduling (2)'!$H$22:$H$26</definedName>
+    <definedName name="solver_rhs8" localSheetId="2">Sheet2!$H$15:$H$19</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -107,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="173">
   <si>
     <t>OR Scheduling</t>
   </si>
@@ -262,14 +316,377 @@
     <t>Weekly total (hours)</t>
   </si>
   <si>
-    <t>% each clinic sets as target</t>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X31</t>
+  </si>
+  <si>
+    <t>X41</t>
+  </si>
+  <si>
+    <t>X51</t>
+  </si>
+  <si>
+    <t>X111</t>
+  </si>
+  <si>
+    <t>X21</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>X22</t>
+  </si>
+  <si>
+    <t>X32</t>
+  </si>
+  <si>
+    <t>X42</t>
+  </si>
+  <si>
+    <t>X52</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>X15</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>X17</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>X19</t>
+  </si>
+  <si>
+    <t>X110</t>
+  </si>
+  <si>
+    <t>X23</t>
+  </si>
+  <si>
+    <t>X24</t>
+  </si>
+  <si>
+    <t>X25</t>
+  </si>
+  <si>
+    <t>X26</t>
+  </si>
+  <si>
+    <t>X27</t>
+  </si>
+  <si>
+    <t>X28</t>
+  </si>
+  <si>
+    <t>X29</t>
+  </si>
+  <si>
+    <t>X210</t>
+  </si>
+  <si>
+    <t>X211</t>
+  </si>
+  <si>
+    <t>X33</t>
+  </si>
+  <si>
+    <t>X34</t>
+  </si>
+  <si>
+    <t>X35</t>
+  </si>
+  <si>
+    <t>X36</t>
+  </si>
+  <si>
+    <t>X37</t>
+  </si>
+  <si>
+    <t>X38</t>
+  </si>
+  <si>
+    <t>X39</t>
+  </si>
+  <si>
+    <t>X310</t>
+  </si>
+  <si>
+    <t>X311</t>
+  </si>
+  <si>
+    <t>X43</t>
+  </si>
+  <si>
+    <t>X53</t>
+  </si>
+  <si>
+    <t>X44</t>
+  </si>
+  <si>
+    <t>X54</t>
+  </si>
+  <si>
+    <t>X45</t>
+  </si>
+  <si>
+    <t>X55</t>
+  </si>
+  <si>
+    <t>X46</t>
+  </si>
+  <si>
+    <t>X56</t>
+  </si>
+  <si>
+    <t>X47</t>
+  </si>
+  <si>
+    <t>X57</t>
+  </si>
+  <si>
+    <t>X48</t>
+  </si>
+  <si>
+    <t>X58</t>
+  </si>
+  <si>
+    <t>X49</t>
+  </si>
+  <si>
+    <t>X59</t>
+  </si>
+  <si>
+    <t>X410</t>
+  </si>
+  <si>
+    <t>X411</t>
+  </si>
+  <si>
+    <t>X510</t>
+  </si>
+  <si>
+    <t>X511</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>a21</t>
+  </si>
+  <si>
+    <t>a31</t>
+  </si>
+  <si>
+    <t>a41</t>
+  </si>
+  <si>
+    <t>a51</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>a22</t>
+  </si>
+  <si>
+    <t>a32</t>
+  </si>
+  <si>
+    <t>a42</t>
+  </si>
+  <si>
+    <t>a52</t>
+  </si>
+  <si>
+    <t>a13</t>
+  </si>
+  <si>
+    <t>a23</t>
+  </si>
+  <si>
+    <t>a33</t>
+  </si>
+  <si>
+    <t>a43</t>
+  </si>
+  <si>
+    <t>a53</t>
+  </si>
+  <si>
+    <t>a14</t>
+  </si>
+  <si>
+    <t>a24</t>
+  </si>
+  <si>
+    <t>a34</t>
+  </si>
+  <si>
+    <t>a44</t>
+  </si>
+  <si>
+    <t>a54</t>
+  </si>
+  <si>
+    <t>a15</t>
+  </si>
+  <si>
+    <t>a25</t>
+  </si>
+  <si>
+    <t>a35</t>
+  </si>
+  <si>
+    <t>a45</t>
+  </si>
+  <si>
+    <t>a55</t>
+  </si>
+  <si>
+    <t>a16</t>
+  </si>
+  <si>
+    <t>a26</t>
+  </si>
+  <si>
+    <t>a36</t>
+  </si>
+  <si>
+    <t>a46</t>
+  </si>
+  <si>
+    <t>a56</t>
+  </si>
+  <si>
+    <t>a17</t>
+  </si>
+  <si>
+    <t>a27</t>
+  </si>
+  <si>
+    <t>a37</t>
+  </si>
+  <si>
+    <t>a47</t>
+  </si>
+  <si>
+    <t>a57</t>
+  </si>
+  <si>
+    <t>a18</t>
+  </si>
+  <si>
+    <t>a28</t>
+  </si>
+  <si>
+    <t>a38</t>
+  </si>
+  <si>
+    <t>a48</t>
+  </si>
+  <si>
+    <t>a58</t>
+  </si>
+  <si>
+    <t>a19</t>
+  </si>
+  <si>
+    <t>a29</t>
+  </si>
+  <si>
+    <t>a39</t>
+  </si>
+  <si>
+    <t>a49</t>
+  </si>
+  <si>
+    <t>a59</t>
+  </si>
+  <si>
+    <t>a110</t>
+  </si>
+  <si>
+    <t>a210</t>
+  </si>
+  <si>
+    <t>a310</t>
+  </si>
+  <si>
+    <t>a410</t>
+  </si>
+  <si>
+    <t>a510</t>
+  </si>
+  <si>
+    <t>a111</t>
+  </si>
+  <si>
+    <t>a211</t>
+  </si>
+  <si>
+    <t>a311</t>
+  </si>
+  <si>
+    <t>a411</t>
+  </si>
+  <si>
+    <t>a511</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -294,6 +711,18 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
     </font>
@@ -678,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -907,6 +1336,43 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -920,10 +1386,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,6 +1410,153 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>148299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1306286</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6989CA-9049-4598-90F0-98573F8D9D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8458200" y="7006299"/>
+          <a:ext cx="1328057" cy="647447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>582010</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D992BD68-EFDC-4B80-AF87-036185709ABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8463643" y="4381499"/>
+          <a:ext cx="4936296" cy="1660071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1139,34 +1757,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X138"/>
+  <dimension ref="A1:AB138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="6" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.453125" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="5" max="6" width="5.453125" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.44140625" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.453125" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" customWidth="1"/>
+    <col min="17" max="17" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.453125" customWidth="1"/>
     <col min="19" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1806,7 @@
       <c r="R1" s="29"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1212,7 +1829,7 @@
       <c r="R2" s="29"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1237,7 +1854,7 @@
       <c r="R3" s="29"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -1258,34 +1875,34 @@
       <c r="R4" s="29"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="83" t="s">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="83" t="s">
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1336,7 +1953,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>36</v>
       </c>
@@ -1394,7 +2011,7 @@
       </c>
       <c r="S7" s="72"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>14</v>
       </c>
@@ -1452,7 +2069,7 @@
       </c>
       <c r="S8" s="72"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>44</v>
       </c>
@@ -1489,28 +2106,23 @@
       </c>
       <c r="M9" s="74"/>
       <c r="N9" s="46">
-        <f>MAX($B$9:$F$9)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O9" s="41">
-        <f t="shared" ref="O9:R9" si="2">MAX($B$9:$F$9)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P9" s="41">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="41">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R9" s="47">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S9" s="72"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>37</v>
       </c>
@@ -1551,24 +2163,24 @@
         <v>2</v>
       </c>
       <c r="O10" s="41">
-        <f t="shared" ref="O10:R10" si="3">MAX($B$10:$F$10)</f>
+        <f t="shared" ref="O10:R10" si="2">MAX($B$10:$F$10)</f>
         <v>2</v>
       </c>
       <c r="P10" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q10" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="R10" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="S10" s="72"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>38</v>
       </c>
@@ -1609,24 +2221,24 @@
         <v>4</v>
       </c>
       <c r="O11" s="41">
-        <f t="shared" ref="O11:R11" si="4">MAX($B$11:$F$11)</f>
+        <f t="shared" ref="O11:R11" si="3">MAX($B$11:$F$11)</f>
         <v>4</v>
       </c>
       <c r="P11" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Q11" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="R11" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="S11" s="72"/>
     </row>
-    <row r="12" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>39</v>
       </c>
@@ -1663,28 +2275,23 @@
       </c>
       <c r="M12" s="74"/>
       <c r="N12" s="46">
-        <f>MAX($B$12:$F$12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" s="41">
-        <f t="shared" ref="O12:R12" si="5">MAX($B$12:$F$12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P12" s="41">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="41">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R12" s="47">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S12" s="72"/>
     </row>
-    <row r="13" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>40</v>
       </c>
@@ -1725,24 +2332,24 @@
         <v>4</v>
       </c>
       <c r="O13" s="41">
-        <f t="shared" ref="O13:R13" si="6">MAX($B$13:$F$13)</f>
+        <f t="shared" ref="O13:R13" si="4">MAX($B$13:$F$13)</f>
         <v>4</v>
       </c>
       <c r="P13" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q13" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="R13" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="S13" s="72"/>
     </row>
-    <row r="14" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -1783,24 +2390,24 @@
         <v>2</v>
       </c>
       <c r="O14" s="41">
-        <f t="shared" ref="O14:R14" si="7">MAX($B$14:$F$14)</f>
+        <f t="shared" ref="O14:R14" si="5">MAX($B$14:$F$14)</f>
         <v>2</v>
       </c>
       <c r="P14" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Q14" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="R14" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="S14" s="72"/>
     </row>
-    <row r="15" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>41</v>
       </c>
@@ -1841,24 +2448,24 @@
         <v>4</v>
       </c>
       <c r="O15" s="41">
-        <f t="shared" ref="O15:R15" si="8">MAX($B$15:$F$15)</f>
+        <f t="shared" ref="O15:R15" si="6">MAX($B$15:$F$15)</f>
         <v>4</v>
       </c>
       <c r="P15" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Q15" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="R15" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="S15" s="72"/>
     </row>
-    <row r="16" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>43</v>
       </c>
@@ -1899,24 +2506,24 @@
         <v>2</v>
       </c>
       <c r="O16" s="41">
-        <f t="shared" ref="O16:R16" si="9">MAX($B$16:$F$16)</f>
+        <f t="shared" ref="O16:R16" si="7">MAX($B$16:$F$16)</f>
         <v>2</v>
       </c>
       <c r="P16" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Q16" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R16" s="47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="S16" s="72"/>
     </row>
-    <row r="17" spans="1:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>42</v>
       </c>
@@ -1965,31 +2572,31 @@
         <v>1</v>
       </c>
       <c r="R17" s="50">
-        <f t="shared" ref="R17" si="10">MAX($B$17:$F$17)</f>
+        <f t="shared" ref="R17" si="8">MAX($B$17:$F$17)</f>
         <v>2</v>
       </c>
       <c r="S17" s="72"/>
     </row>
-    <row r="18" spans="1:21" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
       <c r="B18" s="41">
         <f>SUM(B7:B17)</f>
         <v>26</v>
       </c>
       <c r="C18" s="41">
-        <f t="shared" ref="C18:F18" si="11">SUM(C7:C17)</f>
+        <f t="shared" ref="C18:F18" si="9">SUM(C7:C17)</f>
         <v>24</v>
       </c>
       <c r="D18" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="E18" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="F18" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="G18" s="37"/>
@@ -1998,45 +2605,45 @@
         <v>13</v>
       </c>
       <c r="I18" s="42">
-        <f t="shared" ref="I18:L18" si="12">SUM(I7:I17)</f>
+        <f t="shared" ref="I18:L18" si="10">SUM(I7:I17)</f>
         <v>11</v>
       </c>
       <c r="J18" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="K18" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="L18" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="M18" s="37"/>
       <c r="N18" s="1">
         <f>SUM(N7:N17)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O18" s="37">
         <f>SUM(O7:O17)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P18" s="37">
         <f>SUM(P7:P17)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="37">
         <f>SUM(Q7:Q17)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R18" s="37">
         <f>SUM(R7:R17)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -2057,27 +2664,38 @@
       <c r="R19" s="39"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
+    <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="83" t="s">
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
       <c r="K20" s="73"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="102"/>
+      <c r="AB20" s="102"/>
+    </row>
+    <row r="21" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>17</v>
@@ -2090,21 +2708,28 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
       <c r="N21" s="39"/>
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="100"/>
+      <c r="R21" s="100"/>
+      <c r="S21" s="100"/>
+      <c r="T21" s="100"/>
+      <c r="U21" s="100"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+    </row>
+    <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -2129,36 +2754,45 @@
         <v/>
       </c>
       <c r="K22" s="36" t="str">
-        <f t="shared" ref="K22:N22" si="13">IF(C7&lt;I7,1,"")</f>
+        <f t="shared" ref="K22:N22" si="11">IF(C7&lt;I7,1,"")</f>
         <v/>
       </c>
       <c r="L22" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M22" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N22" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="100"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="102"/>
+      <c r="AA22" s="102"/>
+      <c r="AB22" s="102"/>
+    </row>
+    <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="54">
-        <f t="shared" ref="B23:B32" si="14">TRUNC(SUM(H8:L8))</f>
+        <f t="shared" ref="B23:B32" si="12">TRUNC(SUM(H8:L8))</f>
         <v>18</v>
       </c>
       <c r="C23" s="55">
-        <f t="shared" ref="C23:C32" si="15">TRUNC(SUM(N8:R8))</f>
+        <f t="shared" ref="C23:C32" si="13">TRUNC(SUM(N8:R8))</f>
         <v>40</v>
       </c>
       <c r="D23" s="39"/>
@@ -2166,97 +2800,109 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="62">
-        <f>(B8+C8+D8+E8+F8)*7*I23</f>
+        <f>(B8+C8+D8+E8+F8)*7*0.75</f>
         <v>126</v>
       </c>
-      <c r="I23" s="87">
-        <v>0.75</v>
-      </c>
+      <c r="I23" s="39"/>
       <c r="J23" s="36" t="str">
         <f>IF(B8&lt;H8,1,"")</f>
         <v/>
       </c>
       <c r="K23" s="36" t="str">
-        <f t="shared" ref="K23:N26" si="16">IF(C8&lt;I8,1,"")</f>
+        <f t="shared" ref="K23:N26" si="14">IF(C8&lt;I8,1,"")</f>
         <v/>
       </c>
       <c r="L23" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M23" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N23" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="2"/>
-      <c r="U23" s="29"/>
-    </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="100"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="102"/>
+    </row>
+    <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C24" s="55">
-        <f t="shared" si="15"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="62">
-        <f t="shared" ref="H24:H31" si="17">(B9+C9+D9+E9+F9)*7*I24</f>
+        <f>(B9+C9+D9+E9+F9)*7*0.6</f>
         <v>50.4</v>
       </c>
-      <c r="I24" s="87">
-        <v>0.6</v>
-      </c>
+      <c r="I24" s="39"/>
       <c r="J24" s="36" t="str">
         <f>IF(B9&lt;H9,1,"")</f>
         <v/>
       </c>
       <c r="K24" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L24" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M24" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N24" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="2"/>
-      <c r="U24" s="29"/>
-    </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q24" s="100"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="100"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="102"/>
+      <c r="Y24" s="102"/>
+      <c r="Z24" s="102"/>
+      <c r="AA24" s="102"/>
+      <c r="AB24" s="102"/>
+    </row>
+    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C25" s="55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="D25" s="39"/>
@@ -2264,48 +2910,54 @@
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="62">
-        <f t="shared" si="17"/>
+        <f>(B10+C10+D10+E10+F10)*7*0.7</f>
         <v>49</v>
       </c>
-      <c r="I25" s="87">
-        <v>0.7</v>
-      </c>
+      <c r="I25" s="39"/>
       <c r="J25" s="36" t="str">
         <f>IF(B10&lt;H10,1,"")</f>
         <v/>
       </c>
       <c r="K25" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L25" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M25" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N25" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="2"/>
-      <c r="U25" s="29"/>
-    </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="102"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="102"/>
+      <c r="Z25" s="102"/>
+      <c r="AA25" s="102"/>
+      <c r="AB25" s="102"/>
+    </row>
+    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="C26" s="55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="D26" s="39"/>
@@ -2313,178 +2965,223 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="62">
-        <f t="shared" si="17"/>
+        <f>(B11+C11+D11+E11+F11)*7*0.75</f>
         <v>105</v>
       </c>
-      <c r="I26" s="87">
-        <v>0.75</v>
-      </c>
+      <c r="I26" s="39"/>
       <c r="J26" s="36" t="str">
         <f>IF(B11&lt;H11,1,"")</f>
         <v/>
       </c>
       <c r="K26" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L26" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M26" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N26" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="2"/>
-      <c r="U26" s="29"/>
-    </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="102"/>
+    </row>
+    <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="C27" s="55">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>15</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="62">
-        <f t="shared" si="17"/>
+        <f>(B12+C12+D12+E12+F12)*7*0.8</f>
         <v>56</v>
       </c>
-      <c r="I27" s="87">
-        <v>0.8</v>
-      </c>
+      <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
       <c r="M27" s="39"/>
       <c r="N27" s="39"/>
       <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="2"/>
-      <c r="U27" s="29"/>
-    </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="102"/>
+      <c r="X27" s="102"/>
+      <c r="Y27" s="102"/>
+      <c r="Z27" s="102"/>
+      <c r="AA27" s="102"/>
+      <c r="AB27" s="102"/>
+    </row>
+    <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C28" s="55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="D28" s="60"/>
       <c r="G28" s="60"/>
       <c r="H28" s="62">
-        <f t="shared" si="17"/>
+        <f>(B13+C13+D13+E13+F13)*7*0.65</f>
         <v>54.6</v>
       </c>
-      <c r="I28" s="88">
-        <v>0.65</v>
-      </c>
-      <c r="S28" s="2"/>
-      <c r="U28" s="39"/>
-    </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="60"/>
+      <c r="L28" s="82"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="102"/>
+      <c r="AA28" s="102"/>
+      <c r="AB28" s="102"/>
+    </row>
+    <row r="29" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="C29" s="55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="D29" s="60"/>
       <c r="G29" s="60"/>
       <c r="H29" s="62">
-        <f t="shared" si="17"/>
+        <f>(B14+C14+D14+E14+F14)*7*0.5</f>
         <v>28</v>
       </c>
-      <c r="I29" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="S29" s="2"/>
-      <c r="U29" s="29"/>
-    </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="60"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="102"/>
+      <c r="AA29" s="102"/>
+      <c r="AB29" s="102"/>
+    </row>
+    <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="C30" s="55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="D30" s="60"/>
       <c r="G30" s="60"/>
       <c r="H30" s="62">
-        <f t="shared" si="17"/>
+        <f>(B15+C15+D15+E15+F15)*7*0.5</f>
         <v>56</v>
       </c>
-      <c r="I30" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="S30" s="2"/>
-      <c r="U30" s="29"/>
-    </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="60"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="102"/>
+      <c r="AB30" s="102"/>
+    </row>
+    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C31" s="55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="D31" s="60"/>
       <c r="G31" s="60"/>
       <c r="H31" s="62">
-        <f t="shared" si="17"/>
+        <f>(B16+C16+D16+E16+F16)*7*0.5</f>
         <v>35</v>
       </c>
-      <c r="I31" s="88">
-        <v>0.5</v>
-      </c>
-      <c r="S31" s="2"/>
-      <c r="U31" s="16"/>
-    </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="60"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="101"/>
+      <c r="Z31" s="101"/>
+      <c r="AA31" s="101"/>
+      <c r="AB31" s="101"/>
+    </row>
+    <row r="32" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C32" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D32" s="60"/>
@@ -2496,26 +3193,26 @@
       <c r="S32" s="2"/>
       <c r="U32" s="37"/>
     </row>
-    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S33" s="2"/>
       <c r="U33" s="37"/>
     </row>
-    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S34" s="2"/>
       <c r="U34" s="37"/>
     </row>
-    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S35" s="2"/>
       <c r="U35" s="37"/>
     </row>
-    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S36" s="2"/>
       <c r="U36" s="37"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
@@ -2537,7 +3234,7 @@
       <c r="R38" s="29"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -2557,7 +3254,7 @@
       <c r="R39" s="29"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>5</v>
@@ -2589,11 +3286,11 @@
         <v>45</v>
       </c>
       <c r="P40" s="29"/>
-      <c r="Q40" s="86" t="s">
+      <c r="Q40" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="R40" s="86"/>
-      <c r="S40" s="86"/>
+      <c r="R40" s="99"/>
+      <c r="S40" s="99"/>
       <c r="T40" s="79" t="s">
         <v>47</v>
       </c>
@@ -2604,7 +3301,7 @@
       </c>
       <c r="X40" s="79"/>
     </row>
-    <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>36</v>
       </c>
@@ -2612,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="65">
         <v>0</v>
@@ -2621,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="31">
@@ -2658,7 +3355,7 @@
       </c>
       <c r="X41" s="79"/>
     </row>
-    <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>14</v>
       </c>
@@ -2679,19 +3376,19 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="31">
-        <f t="shared" ref="H42:H51" si="18">TRUNC(SUM(B42:F42))</f>
+        <f t="shared" ref="H42:H51" si="15">TRUNC(SUM(B42:F42))</f>
         <v>18</v>
       </c>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
       <c r="L42" s="72">
-        <f t="shared" ref="L42:L51" si="19">7*H42</f>
+        <f t="shared" ref="L42:L51" si="16">7*H42</f>
         <v>126</v>
       </c>
       <c r="M42" s="29"/>
       <c r="N42" s="81">
-        <f t="shared" ref="N42:N51" si="20">L42/H23</f>
+        <f t="shared" ref="N42:N51" si="17">L42/H23</f>
         <v>1</v>
       </c>
       <c r="P42" s="29"/>
@@ -2701,18 +3398,18 @@
       </c>
       <c r="S42" s="77"/>
       <c r="T42" s="79">
-        <f t="shared" ref="T42:T51" si="21">TRUNC((L42*60)/R42)</f>
+        <f t="shared" ref="T42:T51" si="18">TRUNC((L42*60)/R42)</f>
         <v>100</v>
       </c>
       <c r="U42" s="79"/>
       <c r="V42" s="79"/>
       <c r="W42" s="79">
-        <f t="shared" ref="W42:W51" si="22">TRUNC(T42/5)</f>
+        <f t="shared" ref="W42:W51" si="19">TRUNC(T42/5)</f>
         <v>20</v>
       </c>
       <c r="X42" s="79"/>
     </row>
-    <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>44</v>
       </c>
@@ -2733,19 +3430,19 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
       <c r="L43" s="72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="M43" s="29"/>
       <c r="N43" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="P43" s="29"/>
@@ -2755,18 +3452,18 @@
       </c>
       <c r="S43" s="77"/>
       <c r="T43" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="U43" s="79"/>
       <c r="V43" s="79"/>
       <c r="W43" s="79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="X43" s="79"/>
     </row>
-    <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>37</v>
       </c>
@@ -2787,19 +3484,19 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
       <c r="M44" s="29"/>
       <c r="N44" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="P44" s="29"/>
@@ -2809,18 +3506,18 @@
       </c>
       <c r="S44" s="77"/>
       <c r="T44" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="U44" s="79"/>
       <c r="V44" s="79"/>
       <c r="W44" s="79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="X44" s="79"/>
     </row>
-    <row r="45" spans="1:24" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
         <v>38</v>
       </c>
@@ -2841,19 +3538,19 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>105</v>
       </c>
       <c r="M45" s="29"/>
       <c r="N45" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P45" s="29"/>
@@ -2863,18 +3560,18 @@
       </c>
       <c r="S45" s="77"/>
       <c r="T45" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
       <c r="U45" s="79"/>
       <c r="V45" s="79"/>
       <c r="W45" s="79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="X45" s="79"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
         <v>39</v>
       </c>
@@ -2895,19 +3592,19 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
       <c r="L46" s="72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>56</v>
       </c>
       <c r="M46" s="29"/>
       <c r="N46" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="O46" s="34"/>
@@ -2918,18 +3615,18 @@
       </c>
       <c r="S46" s="77"/>
       <c r="T46" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>56</v>
       </c>
       <c r="U46" s="79"/>
       <c r="V46" s="79"/>
       <c r="W46" s="79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="X46" s="79"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
         <v>40</v>
       </c>
@@ -2950,19 +3647,19 @@
       </c>
       <c r="G47" s="39"/>
       <c r="H47" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="I47" s="39"/>
       <c r="J47" s="39"/>
       <c r="K47" s="39"/>
       <c r="L47" s="72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
       <c r="M47" s="39"/>
       <c r="N47" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0.64102564102564097</v>
       </c>
       <c r="O47" s="39"/>
@@ -2973,23 +3670,23 @@
       </c>
       <c r="S47" s="77"/>
       <c r="T47" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>35</v>
       </c>
       <c r="U47" s="79"/>
       <c r="V47" s="79"/>
       <c r="W47" s="79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="X47" s="79"/>
     </row>
-    <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="32">
         <v>1</v>
@@ -2998,27 +3695,27 @@
         <v>1</v>
       </c>
       <c r="E48" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="39"/>
       <c r="H48" s="31">
-        <f t="shared" si="18"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="I48" s="39"/>
       <c r="J48" s="39"/>
       <c r="K48" s="39"/>
       <c r="L48" s="72">
-        <f t="shared" si="19"/>
-        <v>35</v>
+        <f t="shared" si="16"/>
+        <v>28</v>
       </c>
       <c r="M48" s="39"/>
       <c r="N48" s="81">
-        <f t="shared" si="20"/>
-        <v>1.25</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="O48" s="39"/>
       <c r="P48" s="39"/>
@@ -3028,18 +3725,18 @@
       </c>
       <c r="S48" s="77"/>
       <c r="T48" s="79">
-        <f t="shared" si="21"/>
-        <v>35</v>
+        <f t="shared" si="18"/>
+        <v>28</v>
       </c>
       <c r="U48" s="79"/>
       <c r="V48" s="79"/>
       <c r="W48" s="79">
-        <f t="shared" si="22"/>
-        <v>7</v>
+        <f t="shared" si="19"/>
+        <v>5</v>
       </c>
       <c r="X48" s="79"/>
     </row>
-    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>41</v>
       </c>
@@ -3059,15 +3756,15 @@
         <v>2</v>
       </c>
       <c r="H49" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="L49" s="72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>56</v>
       </c>
       <c r="N49" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Q49" s="75"/>
@@ -3076,18 +3773,18 @@
       </c>
       <c r="S49" s="79"/>
       <c r="T49" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>74</v>
       </c>
       <c r="U49" s="79"/>
       <c r="V49" s="79"/>
       <c r="W49" s="79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="X49" s="79"/>
     </row>
-    <row r="50" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>43</v>
       </c>
@@ -3101,22 +3798,22 @@
         <v>0</v>
       </c>
       <c r="E50" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="68">
         <v>1</v>
       </c>
       <c r="H50" s="31">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>2</v>
       </c>
       <c r="L50" s="72">
-        <f t="shared" si="19"/>
-        <v>7</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="N50" s="81">
-        <f t="shared" si="20"/>
-        <v>0.2</v>
+        <f t="shared" si="17"/>
+        <v>0.4</v>
       </c>
       <c r="Q50" s="75"/>
       <c r="R50" s="78">
@@ -3124,26 +3821,26 @@
       </c>
       <c r="S50" s="79"/>
       <c r="T50" s="79">
-        <f t="shared" si="21"/>
-        <v>9</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
       <c r="U50" s="79"/>
       <c r="V50" s="79"/>
       <c r="W50" s="79">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>3</v>
       </c>
       <c r="X50" s="79"/>
     </row>
-    <row r="51" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="70">
         <v>0</v>
@@ -3155,15 +3852,15 @@
         <v>0</v>
       </c>
       <c r="H51" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L51" s="72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="N51" s="81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="Q51" s="75"/>
@@ -3172,23 +3869,23 @@
       </c>
       <c r="S51" s="79"/>
       <c r="T51" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="U51" s="79"/>
       <c r="V51" s="79"/>
       <c r="W51" s="79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="X51" s="79"/>
     </row>
-    <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V52" s="79"/>
       <c r="W52" s="79"/>
       <c r="X52" s="79"/>
     </row>
-    <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
@@ -3216,7 +3913,7 @@
       <c r="W53" s="79"/>
       <c r="X53" s="79"/>
     </row>
-    <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V54" s="79"/>
       <c r="W54" s="79">
         <f>SUM(W41:W51)</f>
@@ -3224,24 +3921,24 @@
       </c>
       <c r="X54" s="79"/>
     </row>
-    <row r="55" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="80">
         <f>SUM(N41:N51)</f>
-        <v>9.0830891330891319</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9.033089133089133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H57" s="59"/>
       <c r="I57" s="59"/>
       <c r="J57" s="59"/>
       <c r="K57" s="59"/>
       <c r="L57" s="59"/>
     </row>
-    <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>25</v>
       </c>
@@ -3251,7 +3948,7 @@
       <c r="K58" s="59"/>
       <c r="L58" s="59"/>
     </row>
-    <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>26</v>
       </c>
@@ -3261,7 +3958,7 @@
       <c r="K59" s="59"/>
       <c r="L59" s="59"/>
     </row>
-    <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>23</v>
       </c>
@@ -3271,7 +3968,7 @@
       <c r="K60" s="59"/>
       <c r="L60" s="59"/>
     </row>
-    <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>27</v>
       </c>
@@ -3281,7 +3978,7 @@
       <c r="K61" s="59"/>
       <c r="L61" s="59"/>
     </row>
-    <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>28</v>
       </c>
@@ -3291,7 +3988,7 @@
       <c r="K62" s="59"/>
       <c r="L62" s="59"/>
     </row>
-    <row r="63" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>29</v>
       </c>
@@ -3301,7 +3998,7 @@
       <c r="K63" s="59"/>
       <c r="L63" s="59"/>
     </row>
-    <row r="64" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>30</v>
       </c>
@@ -3311,7 +4008,7 @@
       <c r="K64" s="59"/>
       <c r="L64" s="59"/>
     </row>
-    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>31</v>
       </c>
@@ -3321,7 +4018,7 @@
       <c r="K65" s="59"/>
       <c r="L65" s="59"/>
     </row>
-    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>32</v>
       </c>
@@ -3331,14 +4028,14 @@
       <c r="K66" s="59"/>
       <c r="L66" s="59"/>
     </row>
-    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H67" s="59"/>
       <c r="I67" s="59"/>
       <c r="J67" s="59"/>
       <c r="K67" s="59"/>
       <c r="L67" s="59"/>
     </row>
-    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
       <c r="D70" s="39"/>
@@ -3357,7 +4054,7 @@
       <c r="Q70" s="39"/>
       <c r="R70" s="39"/>
     </row>
-    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
       <c r="D71" s="39"/>
@@ -3371,7 +4068,7 @@
       <c r="Q71" s="39"/>
       <c r="R71" s="39"/>
     </row>
-    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>
@@ -3385,7 +4082,7 @@
       <c r="Q72" s="39"/>
       <c r="R72" s="39"/>
     </row>
-    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
@@ -3399,7 +4096,7 @@
       <c r="Q73" s="39"/>
       <c r="R73" s="39"/>
     </row>
-    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
@@ -3413,7 +4110,7 @@
       <c r="Q74" s="39"/>
       <c r="R74" s="39"/>
     </row>
-    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
@@ -3427,7 +4124,7 @@
       <c r="Q75" s="39"/>
       <c r="R75" s="39"/>
     </row>
-    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
       <c r="D76" s="39"/>
@@ -3441,7 +4138,7 @@
       <c r="Q76" s="39"/>
       <c r="R76" s="39"/>
     </row>
-    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
@@ -3455,34 +4152,34 @@
       <c r="Q77" s="39"/>
       <c r="R77" s="39"/>
     </row>
-    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
       <c r="P78" s="39"/>
       <c r="Q78" s="39"/>
       <c r="R78" s="39"/>
     </row>
-    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="82"/>
-      <c r="B86" s="82"/>
-      <c r="C86" s="82"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="82"/>
-      <c r="G86" s="82"/>
-      <c r="H86" s="82"/>
-      <c r="I86" s="82"/>
-      <c r="J86" s="82"/>
-      <c r="K86" s="82"/>
-      <c r="L86" s="82"/>
-      <c r="M86" s="82"/>
-      <c r="N86" s="82"/>
-      <c r="O86" s="82"/>
-      <c r="P86" s="82"/>
-      <c r="Q86" s="82"/>
-      <c r="R86" s="82"/>
-    </row>
-    <row r="123" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="95"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="95"/>
+      <c r="D86" s="95"/>
+      <c r="E86" s="95"/>
+      <c r="F86" s="95"/>
+      <c r="G86" s="95"/>
+      <c r="H86" s="95"/>
+      <c r="I86" s="95"/>
+      <c r="J86" s="95"/>
+      <c r="K86" s="95"/>
+      <c r="L86" s="95"/>
+      <c r="M86" s="95"/>
+      <c r="N86" s="95"/>
+      <c r="O86" s="95"/>
+      <c r="P86" s="95"/>
+      <c r="Q86" s="95"/>
+      <c r="R86" s="95"/>
+    </row>
+    <row r="123" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
       <c r="F123" s="39"/>
@@ -3496,65 +4193,65 @@
       <c r="N123" s="39"/>
       <c r="O123" s="39"/>
     </row>
-    <row r="124" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T124" s="40"/>
     </row>
-    <row r="125" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H125" s="38"/>
       <c r="T125" s="40"/>
     </row>
-    <row r="126" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H126" s="40"/>
       <c r="T126" s="40"/>
     </row>
-    <row r="127" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H127" s="40"/>
       <c r="T127" s="40"/>
     </row>
-    <row r="128" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H128" s="38"/>
       <c r="T128" s="40"/>
     </row>
-    <row r="129" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H129" s="38"/>
       <c r="T129" s="38"/>
     </row>
-    <row r="130" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D130" s="40"/>
       <c r="H130" s="40"/>
       <c r="T130" s="38"/>
     </row>
-    <row r="131" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H131" s="40"/>
       <c r="T131" s="38"/>
     </row>
-    <row r="132" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H132" s="40"/>
       <c r="T132" s="38"/>
     </row>
-    <row r="133" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H133" s="40"/>
       <c r="T133" s="38"/>
     </row>
-    <row r="134" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H134" s="38"/>
       <c r="T134" s="38"/>
     </row>
-    <row r="135" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H135" s="38"/>
       <c r="T135" s="38"/>
     </row>
-    <row r="136" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H136" s="38"/>
     </row>
-    <row r="137" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H137" s="38"/>
     </row>
-    <row r="138" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H138" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A86:R86"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="H5:M5"/>
@@ -3564,7 +4261,6 @@
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="Q40:S40"/>
     <mergeCell ref="H20:J20"/>
-    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3572,34 +4268,2465 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BB01EF-C506-42E8-A6C8-680D03894514}">
+  <dimension ref="A1:X133"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" style="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" style="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.453125" style="83" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="83" customWidth="1"/>
+    <col min="5" max="6" width="5.453125" style="83" customWidth="1"/>
+    <col min="7" max="7" width="8" style="83" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" style="83" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.08984375" style="83" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.453125" style="83" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="83" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.81640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" style="83" customWidth="1"/>
+    <col min="17" max="17" width="6.36328125" style="83" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.453125" style="83" customWidth="1"/>
+    <col min="19" max="26" width="11" style="83" customWidth="1"/>
+    <col min="27" max="16384" width="11.1796875" style="83"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3">
+        <v>16</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="82"/>
+      <c r="B6" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="82"/>
+      <c r="H7" s="51">
+        <v>0</v>
+      </c>
+      <c r="I7" s="52">
+        <v>0</v>
+      </c>
+      <c r="J7" s="52">
+        <v>0</v>
+      </c>
+      <c r="K7" s="52">
+        <v>0</v>
+      </c>
+      <c r="L7" s="53">
+        <v>0</v>
+      </c>
+      <c r="M7" s="74"/>
+      <c r="N7" s="43">
+        <f>MAX($B$7:$F$7)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="44">
+        <f t="shared" ref="O7:R7" si="0">MAX($B$7:$F$7)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="82"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="82"/>
+      <c r="H8" s="54">
+        <v>3</v>
+      </c>
+      <c r="I8" s="42">
+        <v>3</v>
+      </c>
+      <c r="J8" s="42">
+        <v>6</v>
+      </c>
+      <c r="K8" s="42">
+        <v>3</v>
+      </c>
+      <c r="L8" s="55">
+        <v>3</v>
+      </c>
+      <c r="M8" s="74"/>
+      <c r="N8" s="46">
+        <f>MAX($B$8:$F$8)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="41">
+        <f t="shared" ref="O8:R8" si="1">MAX($B$8:$F$8)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="82"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="82"/>
+      <c r="H9" s="54">
+        <v>0</v>
+      </c>
+      <c r="I9" s="42">
+        <v>0</v>
+      </c>
+      <c r="J9" s="42">
+        <v>0</v>
+      </c>
+      <c r="K9" s="42">
+        <v>2</v>
+      </c>
+      <c r="L9" s="55">
+        <v>0</v>
+      </c>
+      <c r="M9" s="74"/>
+      <c r="N9" s="46">
+        <f>MAX($B$9:$F$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="41">
+        <f t="shared" ref="O9:R9" si="2">MAX($B$9:$F$9)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="82"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="82"/>
+      <c r="H10" s="54">
+        <v>1</v>
+      </c>
+      <c r="I10" s="42">
+        <v>1</v>
+      </c>
+      <c r="J10" s="42">
+        <v>1</v>
+      </c>
+      <c r="K10" s="42">
+        <v>1</v>
+      </c>
+      <c r="L10" s="55">
+        <v>1</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="46">
+        <f>MAX($B$10:$F$10)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="41">
+        <f t="shared" ref="O10:R10" si="3">MAX($B$10:$F$10)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="82"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="82"/>
+      <c r="H11" s="54">
+        <v>3</v>
+      </c>
+      <c r="I11" s="42">
+        <v>3</v>
+      </c>
+      <c r="J11" s="42">
+        <v>3</v>
+      </c>
+      <c r="K11" s="42">
+        <v>3</v>
+      </c>
+      <c r="L11" s="55">
+        <v>3</v>
+      </c>
+      <c r="M11" s="74"/>
+      <c r="N11" s="46">
+        <f>MAX($B$11:$F$11)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="41">
+        <f t="shared" ref="O11:R11" si="4">MAX($B$11:$F$11)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="82"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="82"/>
+      <c r="H12" s="54">
+        <v>2</v>
+      </c>
+      <c r="I12" s="42">
+        <v>2</v>
+      </c>
+      <c r="J12" s="42">
+        <v>1</v>
+      </c>
+      <c r="K12" s="42">
+        <v>2</v>
+      </c>
+      <c r="L12" s="55">
+        <v>1</v>
+      </c>
+      <c r="M12" s="74"/>
+      <c r="N12" s="46">
+        <f>MAX($B$12:$F$12)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="41">
+        <f t="shared" ref="O12:R12" si="5">MAX($B$12:$F$12)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="82"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="82"/>
+      <c r="H13" s="54">
+        <v>1</v>
+      </c>
+      <c r="I13" s="42">
+        <v>1</v>
+      </c>
+      <c r="J13" s="42">
+        <v>0</v>
+      </c>
+      <c r="K13" s="42">
+        <v>1</v>
+      </c>
+      <c r="L13" s="55">
+        <v>2</v>
+      </c>
+      <c r="M13" s="74"/>
+      <c r="N13" s="46">
+        <f>MAX($B$13:$F$13)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="41">
+        <f t="shared" ref="O13:R13" si="6">MAX($B$13:$F$13)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="82"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="82"/>
+      <c r="H14" s="54">
+        <v>1</v>
+      </c>
+      <c r="I14" s="42">
+        <v>0</v>
+      </c>
+      <c r="J14" s="42">
+        <v>1</v>
+      </c>
+      <c r="K14" s="42">
+        <v>0</v>
+      </c>
+      <c r="L14" s="55">
+        <v>0</v>
+      </c>
+      <c r="M14" s="74"/>
+      <c r="N14" s="46">
+        <f>MAX($B$14:$F$14)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="41">
+        <f t="shared" ref="O14:R14" si="7">MAX($B$14:$F$14)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="82"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="54">
+        <v>2</v>
+      </c>
+      <c r="I15" s="42">
+        <v>1</v>
+      </c>
+      <c r="J15" s="42">
+        <v>2</v>
+      </c>
+      <c r="K15" s="42">
+        <v>1</v>
+      </c>
+      <c r="L15" s="55">
+        <v>2</v>
+      </c>
+      <c r="M15" s="74"/>
+      <c r="N15" s="46">
+        <f>MAX($B$15:$F$15)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="41">
+        <f t="shared" ref="O15:R15" si="8">MAX($B$15:$F$15)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="82"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="82"/>
+      <c r="H16" s="54">
+        <v>0</v>
+      </c>
+      <c r="I16" s="42">
+        <v>0</v>
+      </c>
+      <c r="J16" s="42">
+        <v>0</v>
+      </c>
+      <c r="K16" s="42">
+        <v>0</v>
+      </c>
+      <c r="L16" s="55">
+        <v>1</v>
+      </c>
+      <c r="M16" s="74"/>
+      <c r="N16" s="46">
+        <f>MAX($B$16:$F$16)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="41">
+        <f t="shared" ref="O16:R16" si="9">MAX($B$16:$F$16)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="82"/>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="82"/>
+      <c r="H17" s="56">
+        <v>0</v>
+      </c>
+      <c r="I17" s="57">
+        <v>0</v>
+      </c>
+      <c r="J17" s="57">
+        <v>0</v>
+      </c>
+      <c r="K17" s="57">
+        <v>0</v>
+      </c>
+      <c r="L17" s="58">
+        <v>0</v>
+      </c>
+      <c r="M17" s="74"/>
+      <c r="N17" s="48">
+        <v>1</v>
+      </c>
+      <c r="O17" s="49">
+        <v>1</v>
+      </c>
+      <c r="P17" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="49">
+        <v>1</v>
+      </c>
+      <c r="R17" s="50">
+        <f t="shared" ref="R17" si="10">MAX($B$17:$F$17)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="82"/>
+    </row>
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="82"/>
+      <c r="B18" s="41">
+        <f>SUM(B7:B17)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="41">
+        <f t="shared" ref="C18:F18" si="11">SUM(C7:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="82"/>
+      <c r="H18" s="42">
+        <f>SUM(H7:H17)</f>
+        <v>13</v>
+      </c>
+      <c r="I18" s="42">
+        <f t="shared" ref="I18:L18" si="12">SUM(I7:I17)</f>
+        <v>11</v>
+      </c>
+      <c r="J18" s="42">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="K18" s="42">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="L18" s="42">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82">
+        <f>SUM(N7:N17)</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="82">
+        <f>SUM(O7:O17)</f>
+        <v>1</v>
+      </c>
+      <c r="P18" s="82">
+        <f>SUM(P7:P17)</f>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="82">
+        <f>SUM(Q7:Q17)</f>
+        <v>1</v>
+      </c>
+      <c r="R18" s="82">
+        <f>SUM(R7:R17)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="82"/>
+      <c r="B21" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="51">
+        <f>TRUNC(SUM(H7:L7))</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="53">
+        <f>TRUNC(SUM(N7:R7))</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="61">
+        <v>14</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="82">
+        <f>7/H22</f>
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="82" t="str">
+        <f t="shared" ref="K22:N26" si="13">IF(C7&lt;I7,1,"")</f>
+        <v/>
+      </c>
+      <c r="L22" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M22" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="N22" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="54">
+        <f t="shared" ref="B23:B32" si="14">TRUNC(SUM(H8:L8))</f>
+        <v>18</v>
+      </c>
+      <c r="C23" s="55">
+        <f t="shared" ref="C23:C32" si="15">TRUNC(SUM(N8:R8))</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="62" t="e">
+        <f>(B8+C8+D8+E8+F8)*8*0.7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="82" t="e">
+        <f t="shared" ref="J23:J32" si="16">7/H23</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K23" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L23" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M23" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="N23" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="2"/>
+      <c r="U23" s="29"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="54">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C24" s="55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="62" t="e">
+        <f t="shared" ref="H24:H31" si="17">(B9+C9+D9+E9+F9)*8*0.7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="82" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K24" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L24"/>
+      <c r="M24" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="N24" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="2"/>
+      <c r="U24" s="29"/>
+    </row>
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="54">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C25" s="55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="62" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="82" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K25" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L25" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M25" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="N25" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="2"/>
+      <c r="U25" s="29"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="54">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="C26" s="55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="62" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="82" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L26" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M26" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="N26" s="82" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="2"/>
+      <c r="U26" s="29"/>
+    </row>
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="54">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="C27" s="55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="62" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I27" s="39"/>
+      <c r="J27" s="82" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="2"/>
+      <c r="U27" s="29"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="54">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C28" s="55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="60"/>
+      <c r="G28" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="62" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I28" s="60"/>
+      <c r="J28" s="82" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="U28" s="39"/>
+    </row>
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="54">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="C29" s="55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="G29" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="62" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" s="60"/>
+      <c r="J29" s="82" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="U29" s="29"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="54">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="C30" s="55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="60"/>
+      <c r="G30" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="62" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I30" s="60"/>
+      <c r="J30" s="82" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="U30" s="29"/>
+    </row>
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="54">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="C31" s="55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="60"/>
+      <c r="G31" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="62" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I31" s="60"/>
+      <c r="J31" s="82" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="U31" s="16"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="56">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="58">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="D32" s="60"/>
+      <c r="G32" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="63">
+        <v>7</v>
+      </c>
+      <c r="I32" s="60"/>
+      <c r="J32" s="82">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="U32" s="82"/>
+    </row>
+    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S33" s="2"/>
+      <c r="U33" s="82"/>
+    </row>
+    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S34" s="2"/>
+      <c r="U34" s="82"/>
+    </row>
+    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S35" s="2"/>
+      <c r="U35" s="82"/>
+    </row>
+    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S36" s="2"/>
+      <c r="U36" s="82"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="82"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="82"/>
+      <c r="B40" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="82"/>
+      <c r="H40" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="R40" s="99"/>
+      <c r="S40" s="99"/>
+      <c r="T40" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="U40" s="79"/>
+      <c r="V40" s="79"/>
+      <c r="W40" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="X40" s="79"/>
+    </row>
+    <row r="41" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="82"/>
+      <c r="H41" s="31">
+        <f>TRUNC(SUM(B41:F41))</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="82">
+        <f>7*H41</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="29"/>
+      <c r="N41" s="81">
+        <f>L41/H22</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="76">
+        <v>60</v>
+      </c>
+      <c r="S41" s="77"/>
+      <c r="T41" s="79">
+        <f>TRUNC((L41*60)/R41)</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="79"/>
+      <c r="V41" s="79"/>
+      <c r="W41" s="79">
+        <f>TRUNC(T41/5)</f>
+        <v>0</v>
+      </c>
+      <c r="X41" s="79"/>
+    </row>
+    <row r="42" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="82"/>
+      <c r="H42" s="31">
+        <f t="shared" ref="H42:H51" si="18">TRUNC(SUM(B42:F42))</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="82">
+        <f t="shared" ref="L42:L51" si="19">7*H42</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="29"/>
+      <c r="N42" s="81" t="e">
+        <f t="shared" ref="N42:N51" si="20">L42/H23</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="75"/>
+      <c r="R42" s="76">
+        <v>75</v>
+      </c>
+      <c r="S42" s="77"/>
+      <c r="T42" s="79">
+        <f t="shared" ref="T42:T51" si="21">TRUNC((L42*60)/R42)</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="79"/>
+      <c r="V42" s="79"/>
+      <c r="W42" s="79">
+        <f t="shared" ref="W42:W51" si="22">TRUNC(T42/5)</f>
+        <v>0</v>
+      </c>
+      <c r="X42" s="79"/>
+    </row>
+    <row r="43" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="82"/>
+      <c r="H43" s="31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="29"/>
+      <c r="N43" s="81" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="75"/>
+      <c r="R43" s="76">
+        <v>45</v>
+      </c>
+      <c r="S43" s="77"/>
+      <c r="T43" s="79">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="79"/>
+      <c r="V43" s="79"/>
+      <c r="W43" s="79">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="79"/>
+    </row>
+    <row r="44" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="82"/>
+      <c r="H44" s="31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="29"/>
+      <c r="N44" s="81" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="75"/>
+      <c r="R44" s="76">
+        <v>120</v>
+      </c>
+      <c r="S44" s="77"/>
+      <c r="T44" s="79">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="79"/>
+      <c r="V44" s="79"/>
+      <c r="W44" s="79">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="79"/>
+    </row>
+    <row r="45" spans="1:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="82"/>
+      <c r="H45" s="31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="29"/>
+      <c r="N45" s="81" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="75"/>
+      <c r="R45" s="76">
+        <v>150</v>
+      </c>
+      <c r="S45" s="77"/>
+      <c r="T45" s="79">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="79"/>
+      <c r="V45" s="79"/>
+      <c r="W45" s="79">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="79"/>
+    </row>
+    <row r="46" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="82"/>
+      <c r="H46" s="31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="29"/>
+      <c r="N46" s="81" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O46" s="82"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="75"/>
+      <c r="R46" s="76">
+        <v>60</v>
+      </c>
+      <c r="S46" s="77"/>
+      <c r="T46" s="79">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="79"/>
+      <c r="V46" s="79"/>
+      <c r="W46" s="79">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="79"/>
+    </row>
+    <row r="47" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" s="39"/>
+      <c r="H47" s="31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="39"/>
+      <c r="N47" s="81" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="75"/>
+      <c r="R47" s="78">
+        <v>60</v>
+      </c>
+      <c r="S47" s="77"/>
+      <c r="T47" s="79">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="79"/>
+      <c r="V47" s="79"/>
+      <c r="W47" s="79">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="79"/>
+    </row>
+    <row r="48" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="39"/>
+      <c r="H48" s="31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="39"/>
+      <c r="N48" s="81" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="75"/>
+      <c r="R48" s="78">
+        <v>60</v>
+      </c>
+      <c r="S48" s="77"/>
+      <c r="T48" s="79">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="79"/>
+      <c r="V48" s="79"/>
+      <c r="W48" s="79">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="79"/>
+    </row>
+    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" s="31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="81" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q49" s="75"/>
+      <c r="R49" s="78">
+        <v>45</v>
+      </c>
+      <c r="S49" s="79"/>
+      <c r="T49" s="79">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="79"/>
+      <c r="V49" s="79"/>
+      <c r="W49" s="79">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="79"/>
+    </row>
+    <row r="50" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" s="31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="81" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q50" s="75"/>
+      <c r="R50" s="78">
+        <v>45</v>
+      </c>
+      <c r="S50" s="79"/>
+      <c r="T50" s="79">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="79"/>
+      <c r="V50" s="79"/>
+      <c r="W50" s="79">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="79"/>
+    </row>
+    <row r="51" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="81">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="75"/>
+      <c r="R51" s="78">
+        <v>45</v>
+      </c>
+      <c r="S51" s="79"/>
+      <c r="T51" s="79">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="79"/>
+      <c r="V51" s="79"/>
+      <c r="W51" s="79">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="79"/>
+    </row>
+    <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V52" s="79"/>
+      <c r="W52" s="79"/>
+      <c r="X52" s="79"/>
+    </row>
+    <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="30">
+        <f>SUM(B41:B51)</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="30">
+        <f>SUM(C41:C51)</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="30">
+        <f>SUM(D41:D51)</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="30">
+        <f>SUM(E41:E51)</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="30">
+        <f>SUM(F41:F51)</f>
+        <v>0</v>
+      </c>
+      <c r="V53" s="79"/>
+      <c r="W53" s="79"/>
+      <c r="X53" s="79"/>
+    </row>
+    <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V54" s="79"/>
+      <c r="W54" s="79">
+        <f>SUM(W41:W51)</f>
+        <v>0</v>
+      </c>
+      <c r="X54" s="79"/>
+    </row>
+    <row r="55" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="84">
+        <f>SUM(L41:L51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+    </row>
+    <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+    </row>
+    <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+    </row>
+    <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+    </row>
+    <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+    </row>
+    <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="59"/>
+    </row>
+    <row r="63" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+    </row>
+    <row r="64" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
+    </row>
+    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+    </row>
+    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+    </row>
+    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="59"/>
+    </row>
+    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+    </row>
+    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="M71" s="39"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+    </row>
+    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+    </row>
+    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+    </row>
+    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="M74" s="39"/>
+      <c r="N74" s="39"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+    </row>
+    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+    </row>
+    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+    </row>
+    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="M77" s="39"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+    </row>
+    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+    </row>
+    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="95"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="95"/>
+      <c r="D86" s="95"/>
+      <c r="E86" s="95"/>
+      <c r="F86" s="95"/>
+      <c r="G86" s="95"/>
+      <c r="H86" s="95"/>
+      <c r="I86" s="95"/>
+      <c r="J86" s="95"/>
+      <c r="K86" s="95"/>
+      <c r="L86" s="95"/>
+      <c r="M86" s="95"/>
+      <c r="N86" s="95"/>
+      <c r="O86" s="95"/>
+      <c r="P86" s="95"/>
+      <c r="Q86" s="95"/>
+      <c r="R86" s="95"/>
+    </row>
+    <row r="123" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="39"/>
+      <c r="J123" s="39"/>
+      <c r="K123" s="39"/>
+      <c r="L123" s="39"/>
+      <c r="M123" s="39"/>
+      <c r="N123" s="39"/>
+      <c r="O123" s="39"/>
+    </row>
+    <row r="124" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T124" s="40"/>
+    </row>
+    <row r="125" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T125" s="40"/>
+    </row>
+    <row r="126" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H126" s="40"/>
+      <c r="T126" s="40"/>
+    </row>
+    <row r="127" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H127" s="40"/>
+      <c r="T127" s="40"/>
+    </row>
+    <row r="128" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T128" s="40"/>
+    </row>
+    <row r="130" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D130" s="40"/>
+      <c r="H130" s="40"/>
+    </row>
+    <row r="131" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H131" s="40"/>
+    </row>
+    <row r="132" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H132" s="40"/>
+    </row>
+    <row r="133" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H133" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="A86:R86"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="L20:M20"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" customWidth="1"/>
-    <col min="11" max="11" width="5.21875" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="5.44140625" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" customWidth="1"/>
-    <col min="16" max="17" width="6.44140625" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.453125" customWidth="1"/>
+    <col min="4" max="4" width="4.6328125" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="6.54296875" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" customWidth="1"/>
+    <col min="13" max="13" width="5.453125" customWidth="1"/>
+    <col min="14" max="14" width="6.54296875" customWidth="1"/>
+    <col min="15" max="15" width="5.54296875" customWidth="1"/>
+    <col min="16" max="17" width="6.453125" customWidth="1"/>
+    <col min="18" max="18" width="4.90625" customWidth="1"/>
     <col min="19" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3622,7 +6749,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3643,7 +6770,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3666,7 +6793,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3687,34 +6814,34 @@
       <c r="R4" s="1"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="83" t="s">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="83" t="s">
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -3765,7 +6892,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3818,7 +6945,7 @@
       </c>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3871,7 +6998,7 @@
       </c>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3924,7 +7051,7 @@
       </c>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3977,7 +7104,7 @@
       </c>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -4030,7 +7157,7 @@
       </c>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <f t="shared" ref="B12:F12" si="0">SUM(B7:B11)</f>
@@ -4066,22 +7193,22 @@
       <c r="R12" s="1"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="83" t="s">
+      <c r="H13" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="16" t="s">
@@ -4093,7 +7220,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -4130,7 +7257,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -4180,7 +7307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -4230,7 +7357,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -4280,7 +7407,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -4330,7 +7457,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -4379,7 +7506,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4397,7 +7524,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -4423,7 +7550,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4444,7 +7571,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>5</v>
@@ -4481,7 +7608,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -4523,7 +7650,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -4565,7 +7692,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -4607,7 +7734,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -4649,7 +7776,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -4691,7 +7818,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4729,7 +7856,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4759,7 +7886,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
@@ -4785,7 +7912,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4806,7 +7933,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
@@ -4829,7 +7956,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>26</v>
       </c>
@@ -4852,7 +7979,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>23</v>
       </c>
@@ -4875,7 +8002,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>27</v>
       </c>
@@ -4898,7 +8025,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>28</v>
       </c>
@@ -4921,7 +8048,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>29</v>
       </c>
@@ -4944,7 +8071,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>30</v>
       </c>
@@ -4967,7 +8094,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>31</v>
       </c>
@@ -4990,7 +8117,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>32</v>
       </c>

--- a/ORscheduling_Complete (1).xlsx
+++ b/ORscheduling_Complete (1).xlsx
@@ -1,149 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igiannakopoulos\Desktop\MBA\Exercise - Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B60D27-C6ED-48BB-A2B3-84220E9B9294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E3D9B3-81AB-4B60-8426-4AF8B1B4E739}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Room Scheduling" sheetId="1" r:id="rId1"/>
-    <sheet name="Operating Room Scheduling (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$41:$F$51</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$41:$F$51</definedName>
-    <definedName name="solver_adj" localSheetId="2">Sheet2!$B$24:$F$28</definedName>
+    <definedName name="solver_adj" localSheetId="1">Sheet2!$B$24:$F$28</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs0" localSheetId="0" hidden="1">'Operating Room Scheduling'!$H$41:$H$45</definedName>
-    <definedName name="solver_lhs0" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$H$41:$H$45</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$41:$F$51</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$41:$F$51</definedName>
-    <definedName name="solver_lhs1" localSheetId="2">Sheet2!$B$24:$F$28</definedName>
-    <definedName name="solver_lhs10" localSheetId="2">Sheet2!$S$19</definedName>
-    <definedName name="solver_lhs11" localSheetId="2">Sheet2!$S$19</definedName>
-    <definedName name="solver_lhs12" localSheetId="2">Sheet2!$S$19</definedName>
+    <definedName name="solver_lhs1" localSheetId="1">Sheet2!$B$24:$F$28</definedName>
+    <definedName name="solver_lhs10" localSheetId="1">Sheet2!$S$19</definedName>
+    <definedName name="solver_lhs11" localSheetId="1">Sheet2!$S$19</definedName>
+    <definedName name="solver_lhs12" localSheetId="1">Sheet2!$S$19</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$41:$F$51</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$41:$F$51</definedName>
-    <definedName name="solver_lhs2" localSheetId="2">Sheet2!$B$24:$F$28</definedName>
+    <definedName name="solver_lhs2" localSheetId="1">Sheet2!$B$24:$F$28</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$41:$F$51</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$41:$F$51</definedName>
-    <definedName name="solver_lhs3" localSheetId="2">Sheet2!$B$24:$F$28</definedName>
+    <definedName name="solver_lhs3" localSheetId="1">Sheet2!$B$24:$F$28</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$53:$F$53</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$53:$F$53</definedName>
-    <definedName name="solver_lhs4" localSheetId="2">Sheet2!$B$24:$F$28</definedName>
+    <definedName name="solver_lhs4" localSheetId="1">Sheet2!$B$24:$F$28</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Operating Room Scheduling'!$H$41:$H$51</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$H$41:$H$51</definedName>
-    <definedName name="solver_lhs5" localSheetId="2">Sheet2!$B$29:$F$29</definedName>
+    <definedName name="solver_lhs5" localSheetId="1">Sheet2!$B$29:$F$29</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Operating Room Scheduling'!$H$41:$H$51</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$H$41:$H$51</definedName>
-    <definedName name="solver_lhs6" localSheetId="2">Sheet2!$H$24:$H$28</definedName>
+    <definedName name="solver_lhs6" localSheetId="1">Sheet2!$H$24:$H$28</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Operating Room Scheduling'!$L$41:$L$51</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$L$41:$L$51</definedName>
-    <definedName name="solver_lhs7" localSheetId="2">Sheet2!$H$24:$H$28</definedName>
+    <definedName name="solver_lhs7" localSheetId="1">Sheet2!$H$24:$H$28</definedName>
     <definedName name="solver_lhs8" localSheetId="0">'Operating Room Scheduling'!$L$41:$L$45</definedName>
-    <definedName name="solver_lhs8" localSheetId="1">'Operating Room Scheduling (2)'!$L$41:$L$45</definedName>
-    <definedName name="solver_lhs8" localSheetId="2">Sheet2!$L$24:$L$28</definedName>
-    <definedName name="solver_lhs9" localSheetId="2">Sheet2!$S$19</definedName>
+    <definedName name="solver_lhs8" localSheetId="1">Sheet2!$L$24:$L$28</definedName>
+    <definedName name="solver_lhs9" localSheetId="1">Sheet2!$S$19</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">7</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">7</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$56</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$56</definedName>
-    <definedName name="solver_opt" localSheetId="2">Sheet2!$B$31</definedName>
+    <definedName name="solver_opt" localSheetId="1">Sheet2!$B$31</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel0" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel0" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel6" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs0" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$7:$F$11</definedName>
-    <definedName name="solver_rhs0" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$7:$F$11</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$7:$F$17</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$7:$F$17</definedName>
-    <definedName name="solver_rhs1" localSheetId="2">Sheet2!$B$7:$F$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="1">Sheet2!$B$7:$F$11</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Operating Room Scheduling'!$N$7:$R$17</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$N$7:$R$17</definedName>
-    <definedName name="solver_rhs2" localSheetId="2">Sheet2!$N$7:$R$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="1">Sheet2!$N$7:$R$11</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Operating Room Scheduling'!$H$7:$L$17</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$H$7:$L$17</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$3</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$3</definedName>
-    <definedName name="solver_rhs4" localSheetId="2">Sheet2!$H$7:$L$11</definedName>
+    <definedName name="solver_rhs4" localSheetId="1">Sheet2!$H$7:$L$11</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Operating Room Scheduling'!$C$22:$C$32</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$C$22:$C$32</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Operating Room Scheduling'!$B$22:$B$32</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$B$22:$B$32</definedName>
-    <definedName name="solver_rhs6" localSheetId="2">Sheet2!$C$15:$C$19</definedName>
+    <definedName name="solver_rhs6" localSheetId="1">Sheet2!$C$15:$C$19</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Operating Room Scheduling'!$H$22:$H$32</definedName>
-    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Operating Room Scheduling (2)'!$H$22:$H$32</definedName>
-    <definedName name="solver_rhs7" localSheetId="2">Sheet2!$B$15:$B$19</definedName>
+    <definedName name="solver_rhs7" localSheetId="1">Sheet2!$B$15:$B$19</definedName>
     <definedName name="solver_rhs8" localSheetId="0">'Operating Room Scheduling'!$H$22:$H$26</definedName>
-    <definedName name="solver_rhs8" localSheetId="1">'Operating Room Scheduling (2)'!$H$22:$H$26</definedName>
-    <definedName name="solver_rhs8" localSheetId="2">Sheet2!$H$15:$H$19</definedName>
+    <definedName name="solver_rhs8" localSheetId="1">Sheet2!$H$15:$H$19</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -161,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
   <si>
     <t>OR Scheduling</t>
   </si>
@@ -316,377 +262,14 @@
     <t>Weekly total (hours)</t>
   </si>
   <si>
-    <t>X11</t>
-  </si>
-  <si>
-    <t>X31</t>
-  </si>
-  <si>
-    <t>X41</t>
-  </si>
-  <si>
-    <t>X51</t>
-  </si>
-  <si>
-    <t>X111</t>
-  </si>
-  <si>
-    <t>X21</t>
-  </si>
-  <si>
-    <t>X12</t>
-  </si>
-  <si>
-    <t>X22</t>
-  </si>
-  <si>
-    <t>X32</t>
-  </si>
-  <si>
-    <t>X42</t>
-  </si>
-  <si>
-    <t>X52</t>
-  </si>
-  <si>
-    <t>X13</t>
-  </si>
-  <si>
-    <t>X14</t>
-  </si>
-  <si>
-    <t>X15</t>
-  </si>
-  <si>
-    <t>X16</t>
-  </si>
-  <si>
-    <t>X17</t>
-  </si>
-  <si>
-    <t>X18</t>
-  </si>
-  <si>
-    <t>X19</t>
-  </si>
-  <si>
-    <t>X110</t>
-  </si>
-  <si>
-    <t>X23</t>
-  </si>
-  <si>
-    <t>X24</t>
-  </si>
-  <si>
-    <t>X25</t>
-  </si>
-  <si>
-    <t>X26</t>
-  </si>
-  <si>
-    <t>X27</t>
-  </si>
-  <si>
-    <t>X28</t>
-  </si>
-  <si>
-    <t>X29</t>
-  </si>
-  <si>
-    <t>X210</t>
-  </si>
-  <si>
-    <t>X211</t>
-  </si>
-  <si>
-    <t>X33</t>
-  </si>
-  <si>
-    <t>X34</t>
-  </si>
-  <si>
-    <t>X35</t>
-  </si>
-  <si>
-    <t>X36</t>
-  </si>
-  <si>
-    <t>X37</t>
-  </si>
-  <si>
-    <t>X38</t>
-  </si>
-  <si>
-    <t>X39</t>
-  </si>
-  <si>
-    <t>X310</t>
-  </si>
-  <si>
-    <t>X311</t>
-  </si>
-  <si>
-    <t>X43</t>
-  </si>
-  <si>
-    <t>X53</t>
-  </si>
-  <si>
-    <t>X44</t>
-  </si>
-  <si>
-    <t>X54</t>
-  </si>
-  <si>
-    <t>X45</t>
-  </si>
-  <si>
-    <t>X55</t>
-  </si>
-  <si>
-    <t>X46</t>
-  </si>
-  <si>
-    <t>X56</t>
-  </si>
-  <si>
-    <t>X47</t>
-  </si>
-  <si>
-    <t>X57</t>
-  </si>
-  <si>
-    <t>X48</t>
-  </si>
-  <si>
-    <t>X58</t>
-  </si>
-  <si>
-    <t>X49</t>
-  </si>
-  <si>
-    <t>X59</t>
-  </si>
-  <si>
-    <t>X410</t>
-  </si>
-  <si>
-    <t>X411</t>
-  </si>
-  <si>
-    <t>X510</t>
-  </si>
-  <si>
-    <t>X511</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>a11</t>
-  </si>
-  <si>
-    <t>a21</t>
-  </si>
-  <si>
-    <t>a31</t>
-  </si>
-  <si>
-    <t>a41</t>
-  </si>
-  <si>
-    <t>a51</t>
-  </si>
-  <si>
-    <t>a12</t>
-  </si>
-  <si>
-    <t>a22</t>
-  </si>
-  <si>
-    <t>a32</t>
-  </si>
-  <si>
-    <t>a42</t>
-  </si>
-  <si>
-    <t>a52</t>
-  </si>
-  <si>
-    <t>a13</t>
-  </si>
-  <si>
-    <t>a23</t>
-  </si>
-  <si>
-    <t>a33</t>
-  </si>
-  <si>
-    <t>a43</t>
-  </si>
-  <si>
-    <t>a53</t>
-  </si>
-  <si>
-    <t>a14</t>
-  </si>
-  <si>
-    <t>a24</t>
-  </si>
-  <si>
-    <t>a34</t>
-  </si>
-  <si>
-    <t>a44</t>
-  </si>
-  <si>
-    <t>a54</t>
-  </si>
-  <si>
-    <t>a15</t>
-  </si>
-  <si>
-    <t>a25</t>
-  </si>
-  <si>
-    <t>a35</t>
-  </si>
-  <si>
-    <t>a45</t>
-  </si>
-  <si>
-    <t>a55</t>
-  </si>
-  <si>
-    <t>a16</t>
-  </si>
-  <si>
-    <t>a26</t>
-  </si>
-  <si>
-    <t>a36</t>
-  </si>
-  <si>
-    <t>a46</t>
-  </si>
-  <si>
-    <t>a56</t>
-  </si>
-  <si>
-    <t>a17</t>
-  </si>
-  <si>
-    <t>a27</t>
-  </si>
-  <si>
-    <t>a37</t>
-  </si>
-  <si>
-    <t>a47</t>
-  </si>
-  <si>
-    <t>a57</t>
-  </si>
-  <si>
-    <t>a18</t>
-  </si>
-  <si>
-    <t>a28</t>
-  </si>
-  <si>
-    <t>a38</t>
-  </si>
-  <si>
-    <t>a48</t>
-  </si>
-  <si>
-    <t>a58</t>
-  </si>
-  <si>
-    <t>a19</t>
-  </si>
-  <si>
-    <t>a29</t>
-  </si>
-  <si>
-    <t>a39</t>
-  </si>
-  <si>
-    <t>a49</t>
-  </si>
-  <si>
-    <t>a59</t>
-  </si>
-  <si>
-    <t>a110</t>
-  </si>
-  <si>
-    <t>a210</t>
-  </si>
-  <si>
-    <t>a310</t>
-  </si>
-  <si>
-    <t>a410</t>
-  </si>
-  <si>
-    <t>a510</t>
-  </si>
-  <si>
-    <t>a111</t>
-  </si>
-  <si>
-    <t>a211</t>
-  </si>
-  <si>
-    <t>a311</t>
-  </si>
-  <si>
-    <t>a411</t>
-  </si>
-  <si>
-    <t>a511</t>
+    <t>% each clinic sets as target</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -711,18 +294,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="161"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
     </font>
@@ -1107,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1336,43 +907,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1386,15 +920,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1410,153 +939,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>148299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1306286</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>11975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6989CA-9049-4598-90F0-98573F8D9D6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8458200" y="7006299"/>
-          <a:ext cx="1328057" cy="647447"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>582010</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>136070</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D992BD68-EFDC-4B80-AF87-036185709ABD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8463643" y="4381499"/>
-          <a:ext cx="4936296" cy="1660071"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1757,33 +1139,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB138"/>
+  <dimension ref="A1:X138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" customWidth="1"/>
-    <col min="5" max="6" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="6" width="5.44140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.453125" customWidth="1"/>
-    <col min="17" max="17" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" customWidth="1"/>
     <col min="19" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +1189,7 @@
       <c r="R1" s="29"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1829,7 +1212,7 @@
       <c r="R2" s="29"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1854,7 +1237,7 @@
       <c r="R3" s="29"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -1875,34 +1258,34 @@
       <c r="R4" s="29"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="96" t="s">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="96" t="s">
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1953,7 +1336,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>36</v>
       </c>
@@ -2011,7 +1394,7 @@
       </c>
       <c r="S7" s="72"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>14</v>
       </c>
@@ -2069,7 +1452,7 @@
       </c>
       <c r="S8" s="72"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>44</v>
       </c>
@@ -2106,23 +1489,28 @@
       </c>
       <c r="M9" s="74"/>
       <c r="N9" s="46">
-        <v>2</v>
+        <f>MAX($B$9:$F$9)</f>
+        <v>4</v>
       </c>
       <c r="O9" s="41">
-        <v>2</v>
+        <f t="shared" ref="O9:R9" si="2">MAX($B$9:$F$9)</f>
+        <v>4</v>
       </c>
       <c r="P9" s="41">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="Q9" s="41">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="R9" s="47">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="S9" s="72"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>37</v>
       </c>
@@ -2163,24 +1551,24 @@
         <v>2</v>
       </c>
       <c r="O10" s="41">
-        <f t="shared" ref="O10:R10" si="2">MAX($B$10:$F$10)</f>
+        <f t="shared" ref="O10:R10" si="3">MAX($B$10:$F$10)</f>
         <v>2</v>
       </c>
       <c r="P10" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q10" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="R10" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="S10" s="72"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="s">
         <v>38</v>
       </c>
@@ -2221,24 +1609,24 @@
         <v>4</v>
       </c>
       <c r="O11" s="41">
-        <f t="shared" ref="O11:R11" si="3">MAX($B$11:$F$11)</f>
+        <f t="shared" ref="O11:R11" si="4">MAX($B$11:$F$11)</f>
         <v>4</v>
       </c>
       <c r="P11" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="Q11" s="41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="R11" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="S11" s="72"/>
     </row>
-    <row r="12" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>39</v>
       </c>
@@ -2275,23 +1663,28 @@
       </c>
       <c r="M12" s="74"/>
       <c r="N12" s="46">
-        <v>3</v>
+        <f>MAX($B$12:$F$12)</f>
+        <v>2</v>
       </c>
       <c r="O12" s="41">
-        <v>3</v>
+        <f t="shared" ref="O12:R12" si="5">MAX($B$12:$F$12)</f>
+        <v>2</v>
       </c>
       <c r="P12" s="41">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="Q12" s="41">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="R12" s="47">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="S12" s="72"/>
     </row>
-    <row r="13" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>40</v>
       </c>
@@ -2332,24 +1725,24 @@
         <v>4</v>
       </c>
       <c r="O13" s="41">
-        <f t="shared" ref="O13:R13" si="4">MAX($B$13:$F$13)</f>
+        <f t="shared" ref="O13:R13" si="6">MAX($B$13:$F$13)</f>
         <v>4</v>
       </c>
       <c r="P13" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Q13" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="R13" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="S13" s="72"/>
     </row>
-    <row r="14" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -2390,24 +1783,24 @@
         <v>2</v>
       </c>
       <c r="O14" s="41">
-        <f t="shared" ref="O14:R14" si="5">MAX($B$14:$F$14)</f>
+        <f t="shared" ref="O14:R14" si="7">MAX($B$14:$F$14)</f>
         <v>2</v>
       </c>
       <c r="P14" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Q14" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R14" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="S14" s="72"/>
     </row>
-    <row r="15" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>41</v>
       </c>
@@ -2448,24 +1841,24 @@
         <v>4</v>
       </c>
       <c r="O15" s="41">
-        <f t="shared" ref="O15:R15" si="6">MAX($B$15:$F$15)</f>
+        <f t="shared" ref="O15:R15" si="8">MAX($B$15:$F$15)</f>
         <v>4</v>
       </c>
       <c r="P15" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Q15" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="R15" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S15" s="72"/>
     </row>
-    <row r="16" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>43</v>
       </c>
@@ -2506,24 +1899,24 @@
         <v>2</v>
       </c>
       <c r="O16" s="41">
-        <f t="shared" ref="O16:R16" si="7">MAX($B$16:$F$16)</f>
+        <f t="shared" ref="O16:R16" si="9">MAX($B$16:$F$16)</f>
         <v>2</v>
       </c>
       <c r="P16" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="Q16" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="R16" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="S16" s="72"/>
     </row>
-    <row r="17" spans="1:28" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>42</v>
       </c>
@@ -2572,31 +1965,31 @@
         <v>1</v>
       </c>
       <c r="R17" s="50">
-        <f t="shared" ref="R17" si="8">MAX($B$17:$F$17)</f>
+        <f t="shared" ref="R17" si="10">MAX($B$17:$F$17)</f>
         <v>2</v>
       </c>
       <c r="S17" s="72"/>
     </row>
-    <row r="18" spans="1:28" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="41">
         <f>SUM(B7:B17)</f>
         <v>26</v>
       </c>
       <c r="C18" s="41">
-        <f t="shared" ref="C18:F18" si="9">SUM(C7:C17)</f>
+        <f t="shared" ref="C18:F18" si="11">SUM(C7:C17)</f>
         <v>24</v>
       </c>
       <c r="D18" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E18" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="F18" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="G18" s="37"/>
@@ -2605,45 +1998,45 @@
         <v>13</v>
       </c>
       <c r="I18" s="42">
-        <f t="shared" ref="I18:L18" si="10">SUM(I7:I17)</f>
+        <f t="shared" ref="I18:L18" si="12">SUM(I7:I17)</f>
         <v>11</v>
       </c>
       <c r="J18" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="K18" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="L18" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="M18" s="37"/>
       <c r="N18" s="1">
         <f>SUM(N7:N17)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O18" s="37">
         <f>SUM(O7:O17)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P18" s="37">
         <f>SUM(P7:P17)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="37">
         <f>SUM(Q7:Q17)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R18" s="37">
         <f>SUM(R7:R17)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -2664,38 +2057,27 @@
       <c r="R19" s="39"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="96" t="s">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="96" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
       <c r="K20" s="73"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="102"/>
-      <c r="X20" s="102"/>
-      <c r="Y20" s="102"/>
-      <c r="Z20" s="102"/>
-      <c r="AA20" s="102"/>
-      <c r="AB20" s="102"/>
-    </row>
-    <row r="21" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>17</v>
@@ -2708,28 +2090,21 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="I21" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
       <c r="N21" s="39"/>
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="102"/>
-      <c r="X21" s="102"/>
-      <c r="Y21" s="102"/>
-      <c r="Z21" s="102"/>
-      <c r="AA21" s="102"/>
-      <c r="AB21" s="102"/>
-    </row>
-    <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -2754,45 +2129,36 @@
         <v/>
       </c>
       <c r="K22" s="36" t="str">
-        <f t="shared" ref="K22:N22" si="11">IF(C7&lt;I7,1,"")</f>
+        <f t="shared" ref="K22:N22" si="13">IF(C7&lt;I7,1,"")</f>
         <v/>
       </c>
       <c r="L22" s="36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M22" s="36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N22" s="36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="P22" s="29"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="100"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="100"/>
-      <c r="U22" s="100"/>
-      <c r="V22" s="101"/>
-      <c r="W22" s="102"/>
-      <c r="X22" s="102"/>
-      <c r="Y22" s="102"/>
-      <c r="Z22" s="102"/>
-      <c r="AA22" s="102"/>
-      <c r="AB22" s="102"/>
-    </row>
-    <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="54">
-        <f t="shared" ref="B23:B32" si="12">TRUNC(SUM(H8:L8))</f>
+        <f t="shared" ref="B23:B32" si="14">TRUNC(SUM(H8:L8))</f>
         <v>18</v>
       </c>
       <c r="C23" s="55">
-        <f t="shared" ref="C23:C32" si="13">TRUNC(SUM(N8:R8))</f>
+        <f t="shared" ref="C23:C32" si="15">TRUNC(SUM(N8:R8))</f>
         <v>40</v>
       </c>
       <c r="D23" s="39"/>
@@ -2800,109 +2166,97 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="62">
-        <f>(B8+C8+D8+E8+F8)*7*0.75</f>
+        <f>(B8+C8+D8+E8+F8)*7*I23</f>
         <v>126</v>
       </c>
-      <c r="I23" s="39"/>
+      <c r="I23" s="87">
+        <v>0.75</v>
+      </c>
       <c r="J23" s="36" t="str">
         <f>IF(B8&lt;H8,1,"")</f>
         <v/>
       </c>
       <c r="K23" s="36" t="str">
-        <f t="shared" ref="K23:N26" si="14">IF(C8&lt;I8,1,"")</f>
+        <f t="shared" ref="K23:N26" si="16">IF(C8&lt;I8,1,"")</f>
         <v/>
       </c>
       <c r="L23" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M23" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N23" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P23" s="29"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="100"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="102"/>
-      <c r="X23" s="102"/>
-      <c r="Y23" s="102"/>
-      <c r="Z23" s="102"/>
-      <c r="AA23" s="102"/>
-      <c r="AB23" s="102"/>
-    </row>
-    <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="2"/>
+      <c r="U23" s="29"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C24" s="55">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>20</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="62">
-        <f>(B9+C9+D9+E9+F9)*7*0.6</f>
+        <f t="shared" ref="H24:H31" si="17">(B9+C9+D9+E9+F9)*7*I24</f>
         <v>50.4</v>
       </c>
-      <c r="I24" s="39"/>
+      <c r="I24" s="87">
+        <v>0.6</v>
+      </c>
       <c r="J24" s="36" t="str">
         <f>IF(B9&lt;H9,1,"")</f>
         <v/>
       </c>
       <c r="K24" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L24" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M24" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N24" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P24" s="29"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="102"/>
-      <c r="X24" s="102"/>
-      <c r="Y24" s="102"/>
-      <c r="Z24" s="102"/>
-      <c r="AA24" s="102"/>
-      <c r="AB24" s="102"/>
-    </row>
-    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="2"/>
+      <c r="U24" s="29"/>
+    </row>
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C25" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="D25" s="39"/>
@@ -2910,54 +2264,48 @@
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="62">
-        <f>(B10+C10+D10+E10+F10)*7*0.7</f>
+        <f t="shared" si="17"/>
         <v>49</v>
       </c>
-      <c r="I25" s="39"/>
+      <c r="I25" s="87">
+        <v>0.7</v>
+      </c>
       <c r="J25" s="36" t="str">
         <f>IF(B10&lt;H10,1,"")</f>
         <v/>
       </c>
       <c r="K25" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L25" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M25" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N25" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P25" s="29"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="100"/>
-      <c r="U25" s="100"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="102"/>
-      <c r="X25" s="102"/>
-      <c r="Y25" s="102"/>
-      <c r="Z25" s="102"/>
-      <c r="AA25" s="102"/>
-      <c r="AB25" s="102"/>
-    </row>
-    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="2"/>
+      <c r="U25" s="29"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="C26" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="D26" s="39"/>
@@ -2965,223 +2313,178 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="62">
-        <f>(B11+C11+D11+E11+F11)*7*0.75</f>
+        <f t="shared" si="17"/>
         <v>105</v>
       </c>
-      <c r="I26" s="39"/>
+      <c r="I26" s="87">
+        <v>0.75</v>
+      </c>
       <c r="J26" s="36" t="str">
         <f>IF(B11&lt;H11,1,"")</f>
         <v/>
       </c>
       <c r="K26" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L26" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M26" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N26" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P26" s="29"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="100"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="102"/>
-      <c r="X26" s="102"/>
-      <c r="Y26" s="102"/>
-      <c r="Z26" s="102"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="102"/>
-    </row>
-    <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="2"/>
+      <c r="U26" s="29"/>
+    </row>
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="C27" s="55">
-        <f t="shared" si="13"/>
-        <v>15</v>
+        <f t="shared" si="15"/>
+        <v>10</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="62">
-        <f>(B12+C12+D12+E12+F12)*7*0.8</f>
+        <f t="shared" si="17"/>
         <v>56</v>
       </c>
-      <c r="I27" s="39"/>
+      <c r="I27" s="87">
+        <v>0.8</v>
+      </c>
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
       <c r="M27" s="39"/>
       <c r="N27" s="39"/>
       <c r="P27" s="39"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="100"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="102"/>
-      <c r="X27" s="102"/>
-      <c r="Y27" s="102"/>
-      <c r="Z27" s="102"/>
-      <c r="AA27" s="102"/>
-      <c r="AB27" s="102"/>
-    </row>
-    <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="2"/>
+      <c r="U27" s="29"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C28" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="D28" s="60"/>
       <c r="G28" s="60"/>
       <c r="H28" s="62">
-        <f>(B13+C13+D13+E13+F13)*7*0.65</f>
+        <f t="shared" si="17"/>
         <v>54.6</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="L28" s="82"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="100"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="102"/>
-      <c r="Y28" s="102"/>
-      <c r="Z28" s="102"/>
-      <c r="AA28" s="102"/>
-      <c r="AB28" s="102"/>
-    </row>
-    <row r="29" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="88">
+        <v>0.65</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="U28" s="39"/>
+    </row>
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C29" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="D29" s="60"/>
       <c r="G29" s="60"/>
       <c r="H29" s="62">
-        <f>(B14+C14+D14+E14+F14)*7*0.5</f>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
-      <c r="I29" s="60"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="100"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="102"/>
-      <c r="X29" s="102"/>
-      <c r="Y29" s="102"/>
-      <c r="Z29" s="102"/>
-      <c r="AA29" s="102"/>
-      <c r="AB29" s="102"/>
-    </row>
-    <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="U29" s="29"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="C30" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="D30" s="60"/>
       <c r="G30" s="60"/>
       <c r="H30" s="62">
-        <f>(B15+C15+D15+E15+F15)*7*0.5</f>
+        <f t="shared" si="17"/>
         <v>56</v>
       </c>
-      <c r="I30" s="60"/>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="100"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="100"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="102"/>
-      <c r="X30" s="102"/>
-      <c r="Y30" s="102"/>
-      <c r="Z30" s="102"/>
-      <c r="AA30" s="102"/>
-      <c r="AB30" s="102"/>
-    </row>
-    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="U30" s="29"/>
+    </row>
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C31" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="D31" s="60"/>
       <c r="G31" s="60"/>
       <c r="H31" s="62">
-        <f>(B16+C16+D16+E16+F16)*7*0.5</f>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
-      <c r="I31" s="60"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
-      <c r="AA31" s="101"/>
-      <c r="AB31" s="101"/>
-    </row>
-    <row r="32" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I31" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="U31" s="16"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C32" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="D32" s="60"/>
@@ -3193,26 +2496,26 @@
       <c r="S32" s="2"/>
       <c r="U32" s="37"/>
     </row>
-    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S33" s="2"/>
       <c r="U33" s="37"/>
     </row>
-    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S34" s="2"/>
       <c r="U34" s="37"/>
     </row>
-    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S35" s="2"/>
       <c r="U35" s="37"/>
     </row>
-    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S36" s="2"/>
       <c r="U36" s="37"/>
     </row>
-    <row r="37" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
@@ -3234,7 +2537,7 @@
       <c r="R38" s="29"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -3254,7 +2557,7 @@
       <c r="R39" s="29"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>5</v>
@@ -3286,11 +2589,11 @@
         <v>45</v>
       </c>
       <c r="P40" s="29"/>
-      <c r="Q40" s="99" t="s">
+      <c r="Q40" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="R40" s="99"/>
-      <c r="S40" s="99"/>
+      <c r="R40" s="86"/>
+      <c r="S40" s="86"/>
       <c r="T40" s="79" t="s">
         <v>47</v>
       </c>
@@ -3301,7 +2604,7 @@
       </c>
       <c r="X40" s="79"/>
     </row>
-    <row r="41" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>36</v>
       </c>
@@ -3309,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="65">
         <v>0</v>
@@ -3318,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="31">
@@ -3355,7 +2658,7 @@
       </c>
       <c r="X41" s="79"/>
     </row>
-    <row r="42" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>14</v>
       </c>
@@ -3376,19 +2679,19 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="31">
-        <f t="shared" ref="H42:H51" si="15">TRUNC(SUM(B42:F42))</f>
+        <f t="shared" ref="H42:H51" si="18">TRUNC(SUM(B42:F42))</f>
         <v>18</v>
       </c>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
       <c r="L42" s="72">
-        <f t="shared" ref="L42:L51" si="16">7*H42</f>
+        <f t="shared" ref="L42:L51" si="19">7*H42</f>
         <v>126</v>
       </c>
       <c r="M42" s="29"/>
       <c r="N42" s="81">
-        <f t="shared" ref="N42:N51" si="17">L42/H23</f>
+        <f t="shared" ref="N42:N51" si="20">L42/H23</f>
         <v>1</v>
       </c>
       <c r="P42" s="29"/>
@@ -3398,18 +2701,18 @@
       </c>
       <c r="S42" s="77"/>
       <c r="T42" s="79">
-        <f t="shared" ref="T42:T51" si="18">TRUNC((L42*60)/R42)</f>
+        <f t="shared" ref="T42:T51" si="21">TRUNC((L42*60)/R42)</f>
         <v>100</v>
       </c>
       <c r="U42" s="79"/>
       <c r="V42" s="79"/>
       <c r="W42" s="79">
-        <f t="shared" ref="W42:W51" si="19">TRUNC(T42/5)</f>
+        <f t="shared" ref="W42:W51" si="22">TRUNC(T42/5)</f>
         <v>20</v>
       </c>
       <c r="X42" s="79"/>
     </row>
-    <row r="43" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>44</v>
       </c>
@@ -3430,19 +2733,19 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
       <c r="L43" s="72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="M43" s="29"/>
       <c r="N43" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="P43" s="29"/>
@@ -3452,18 +2755,18 @@
       </c>
       <c r="S43" s="77"/>
       <c r="T43" s="79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="U43" s="79"/>
       <c r="V43" s="79"/>
       <c r="W43" s="79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="X43" s="79"/>
     </row>
-    <row r="44" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>37</v>
       </c>
@@ -3484,19 +2787,19 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>35</v>
       </c>
       <c r="M44" s="29"/>
       <c r="N44" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="P44" s="29"/>
@@ -3506,18 +2809,18 @@
       </c>
       <c r="S44" s="77"/>
       <c r="T44" s="79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
       <c r="U44" s="79"/>
       <c r="V44" s="79"/>
       <c r="W44" s="79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="X44" s="79"/>
     </row>
-    <row r="45" spans="1:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
         <v>38</v>
       </c>
@@ -3538,19 +2841,19 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
       <c r="L45" s="72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>105</v>
       </c>
       <c r="M45" s="29"/>
       <c r="N45" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P45" s="29"/>
@@ -3560,18 +2863,18 @@
       </c>
       <c r="S45" s="77"/>
       <c r="T45" s="79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>42</v>
       </c>
       <c r="U45" s="79"/>
       <c r="V45" s="79"/>
       <c r="W45" s="79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="X45" s="79"/>
     </row>
-    <row r="46" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
         <v>39</v>
       </c>
@@ -3592,19 +2895,19 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
       <c r="L46" s="72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>56</v>
       </c>
       <c r="M46" s="29"/>
       <c r="N46" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O46" s="34"/>
@@ -3615,18 +2918,18 @@
       </c>
       <c r="S46" s="77"/>
       <c r="T46" s="79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>56</v>
       </c>
       <c r="U46" s="79"/>
       <c r="V46" s="79"/>
       <c r="W46" s="79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="X46" s="79"/>
     </row>
-    <row r="47" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
         <v>40</v>
       </c>
@@ -3647,19 +2950,19 @@
       </c>
       <c r="G47" s="39"/>
       <c r="H47" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I47" s="39"/>
       <c r="J47" s="39"/>
       <c r="K47" s="39"/>
       <c r="L47" s="72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>35</v>
       </c>
       <c r="M47" s="39"/>
       <c r="N47" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.64102564102564097</v>
       </c>
       <c r="O47" s="39"/>
@@ -3670,23 +2973,23 @@
       </c>
       <c r="S47" s="77"/>
       <c r="T47" s="79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>35</v>
       </c>
       <c r="U47" s="79"/>
       <c r="V47" s="79"/>
       <c r="W47" s="79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="X47" s="79"/>
     </row>
-    <row r="48" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="32">
         <v>1</v>
@@ -3695,27 +2998,27 @@
         <v>1</v>
       </c>
       <c r="E48" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="39"/>
       <c r="H48" s="31">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f t="shared" si="18"/>
+        <v>5</v>
       </c>
       <c r="I48" s="39"/>
       <c r="J48" s="39"/>
       <c r="K48" s="39"/>
       <c r="L48" s="72">
-        <f t="shared" si="16"/>
-        <v>28</v>
+        <f t="shared" si="19"/>
+        <v>35</v>
       </c>
       <c r="M48" s="39"/>
       <c r="N48" s="81">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>1.25</v>
       </c>
       <c r="O48" s="39"/>
       <c r="P48" s="39"/>
@@ -3725,18 +3028,18 @@
       </c>
       <c r="S48" s="77"/>
       <c r="T48" s="79">
-        <f t="shared" si="18"/>
-        <v>28</v>
+        <f t="shared" si="21"/>
+        <v>35</v>
       </c>
       <c r="U48" s="79"/>
       <c r="V48" s="79"/>
       <c r="W48" s="79">
-        <f t="shared" si="19"/>
-        <v>5</v>
+        <f t="shared" si="22"/>
+        <v>7</v>
       </c>
       <c r="X48" s="79"/>
     </row>
-    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="38" t="s">
         <v>41</v>
       </c>
@@ -3756,15 +3059,15 @@
         <v>2</v>
       </c>
       <c r="H49" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="L49" s="72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>56</v>
       </c>
       <c r="N49" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Q49" s="75"/>
@@ -3773,18 +3076,18 @@
       </c>
       <c r="S49" s="79"/>
       <c r="T49" s="79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>74</v>
       </c>
       <c r="U49" s="79"/>
       <c r="V49" s="79"/>
       <c r="W49" s="79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="X49" s="79"/>
     </row>
-    <row r="50" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="38" t="s">
         <v>43</v>
       </c>
@@ -3798,22 +3101,22 @@
         <v>0</v>
       </c>
       <c r="E50" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="68">
         <v>1</v>
       </c>
       <c r="H50" s="31">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="L50" s="72">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>7</v>
       </c>
       <c r="N50" s="81">
-        <f t="shared" si="17"/>
-        <v>0.4</v>
+        <f t="shared" si="20"/>
+        <v>0.2</v>
       </c>
       <c r="Q50" s="75"/>
       <c r="R50" s="78">
@@ -3821,26 +3124,26 @@
       </c>
       <c r="S50" s="79"/>
       <c r="T50" s="79">
-        <f t="shared" si="18"/>
-        <v>18</v>
+        <f t="shared" si="21"/>
+        <v>9</v>
       </c>
       <c r="U50" s="79"/>
       <c r="V50" s="79"/>
       <c r="W50" s="79">
-        <f t="shared" si="19"/>
-        <v>3</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="X50" s="79"/>
     </row>
-    <row r="51" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="70">
         <v>0</v>
@@ -3852,15 +3155,15 @@
         <v>0</v>
       </c>
       <c r="H51" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="L51" s="72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="N51" s="81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Q51" s="75"/>
@@ -3869,23 +3172,23 @@
       </c>
       <c r="S51" s="79"/>
       <c r="T51" s="79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="U51" s="79"/>
       <c r="V51" s="79"/>
       <c r="W51" s="79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="X51" s="79"/>
     </row>
-    <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V52" s="79"/>
       <c r="W52" s="79"/>
       <c r="X52" s="79"/>
     </row>
-    <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
@@ -3913,7 +3216,7 @@
       <c r="W53" s="79"/>
       <c r="X53" s="79"/>
     </row>
-    <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V54" s="79"/>
       <c r="W54" s="79">
         <f>SUM(W41:W51)</f>
@@ -3921,24 +3224,24 @@
       </c>
       <c r="X54" s="79"/>
     </row>
-    <row r="55" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="80">
         <f>SUM(N41:N51)</f>
-        <v>9.033089133089133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.0830891330891319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H57" s="59"/>
       <c r="I57" s="59"/>
       <c r="J57" s="59"/>
       <c r="K57" s="59"/>
       <c r="L57" s="59"/>
     </row>
-    <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>25</v>
       </c>
@@ -3948,7 +3251,7 @@
       <c r="K58" s="59"/>
       <c r="L58" s="59"/>
     </row>
-    <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="26" t="s">
         <v>26</v>
       </c>
@@ -3958,7 +3261,7 @@
       <c r="K59" s="59"/>
       <c r="L59" s="59"/>
     </row>
-    <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="26" t="s">
         <v>23</v>
       </c>
@@ -3968,7 +3271,7 @@
       <c r="K60" s="59"/>
       <c r="L60" s="59"/>
     </row>
-    <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="26" t="s">
         <v>27</v>
       </c>
@@ -3978,7 +3281,7 @@
       <c r="K61" s="59"/>
       <c r="L61" s="59"/>
     </row>
-    <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="26" t="s">
         <v>28</v>
       </c>
@@ -3988,7 +3291,7 @@
       <c r="K62" s="59"/>
       <c r="L62" s="59"/>
     </row>
-    <row r="63" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="26" t="s">
         <v>29</v>
       </c>
@@ -3998,7 +3301,7 @@
       <c r="K63" s="59"/>
       <c r="L63" s="59"/>
     </row>
-    <row r="64" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26" t="s">
         <v>30</v>
       </c>
@@ -4008,7 +3311,7 @@
       <c r="K64" s="59"/>
       <c r="L64" s="59"/>
     </row>
-    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26" t="s">
         <v>31</v>
       </c>
@@ -4018,7 +3321,7 @@
       <c r="K65" s="59"/>
       <c r="L65" s="59"/>
     </row>
-    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26" t="s">
         <v>32</v>
       </c>
@@ -4028,14 +3331,14 @@
       <c r="K66" s="59"/>
       <c r="L66" s="59"/>
     </row>
-    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H67" s="59"/>
       <c r="I67" s="59"/>
       <c r="J67" s="59"/>
       <c r="K67" s="59"/>
       <c r="L67" s="59"/>
     </row>
-    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
       <c r="D70" s="39"/>
@@ -4054,7 +3357,7 @@
       <c r="Q70" s="39"/>
       <c r="R70" s="39"/>
     </row>
-    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
       <c r="D71" s="39"/>
@@ -4068,7 +3371,7 @@
       <c r="Q71" s="39"/>
       <c r="R71" s="39"/>
     </row>
-    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>
@@ -4082,7 +3385,7 @@
       <c r="Q72" s="39"/>
       <c r="R72" s="39"/>
     </row>
-    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
@@ -4096,7 +3399,7 @@
       <c r="Q73" s="39"/>
       <c r="R73" s="39"/>
     </row>
-    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
@@ -4110,7 +3413,7 @@
       <c r="Q74" s="39"/>
       <c r="R74" s="39"/>
     </row>
-    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
@@ -4124,7 +3427,7 @@
       <c r="Q75" s="39"/>
       <c r="R75" s="39"/>
     </row>
-    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
       <c r="D76" s="39"/>
@@ -4138,7 +3441,7 @@
       <c r="Q76" s="39"/>
       <c r="R76" s="39"/>
     </row>
-    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
@@ -4152,34 +3455,34 @@
       <c r="Q77" s="39"/>
       <c r="R77" s="39"/>
     </row>
-    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
       <c r="P78" s="39"/>
       <c r="Q78" s="39"/>
       <c r="R78" s="39"/>
     </row>
-    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="95"/>
-      <c r="B86" s="95"/>
-      <c r="C86" s="95"/>
-      <c r="D86" s="95"/>
-      <c r="E86" s="95"/>
-      <c r="F86" s="95"/>
-      <c r="G86" s="95"/>
-      <c r="H86" s="95"/>
-      <c r="I86" s="95"/>
-      <c r="J86" s="95"/>
-      <c r="K86" s="95"/>
-      <c r="L86" s="95"/>
-      <c r="M86" s="95"/>
-      <c r="N86" s="95"/>
-      <c r="O86" s="95"/>
-      <c r="P86" s="95"/>
-      <c r="Q86" s="95"/>
-      <c r="R86" s="95"/>
-    </row>
-    <row r="123" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="82"/>
+      <c r="B86" s="82"/>
+      <c r="C86" s="82"/>
+      <c r="D86" s="82"/>
+      <c r="E86" s="82"/>
+      <c r="F86" s="82"/>
+      <c r="G86" s="82"/>
+      <c r="H86" s="82"/>
+      <c r="I86" s="82"/>
+      <c r="J86" s="82"/>
+      <c r="K86" s="82"/>
+      <c r="L86" s="82"/>
+      <c r="M86" s="82"/>
+      <c r="N86" s="82"/>
+      <c r="O86" s="82"/>
+      <c r="P86" s="82"/>
+      <c r="Q86" s="82"/>
+      <c r="R86" s="82"/>
+    </row>
+    <row r="123" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
       <c r="F123" s="39"/>
@@ -4193,65 +3496,65 @@
       <c r="N123" s="39"/>
       <c r="O123" s="39"/>
     </row>
-    <row r="124" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T124" s="40"/>
     </row>
-    <row r="125" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H125" s="38"/>
       <c r="T125" s="40"/>
     </row>
-    <row r="126" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H126" s="40"/>
       <c r="T126" s="40"/>
     </row>
-    <row r="127" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H127" s="40"/>
       <c r="T127" s="40"/>
     </row>
-    <row r="128" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H128" s="38"/>
       <c r="T128" s="40"/>
     </row>
-    <row r="129" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H129" s="38"/>
       <c r="T129" s="38"/>
     </row>
-    <row r="130" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D130" s="40"/>
       <c r="H130" s="40"/>
       <c r="T130" s="38"/>
     </row>
-    <row r="131" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H131" s="40"/>
       <c r="T131" s="38"/>
     </row>
-    <row r="132" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H132" s="40"/>
       <c r="T132" s="38"/>
     </row>
-    <row r="133" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H133" s="40"/>
       <c r="T133" s="38"/>
     </row>
-    <row r="134" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H134" s="38"/>
       <c r="T134" s="38"/>
     </row>
-    <row r="135" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H135" s="38"/>
       <c r="T135" s="38"/>
     </row>
-    <row r="136" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H136" s="38"/>
     </row>
-    <row r="137" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H137" s="38"/>
     </row>
-    <row r="138" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H138" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A86:R86"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="H5:M5"/>
@@ -4261,6 +3564,7 @@
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="Q40:S40"/>
     <mergeCell ref="H20:J20"/>
+    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4268,2465 +3572,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BB01EF-C506-42E8-A6C8-680D03894514}">
-  <dimension ref="A1:X133"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29" style="83" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" style="83" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" style="83" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="83" customWidth="1"/>
-    <col min="5" max="6" width="5.453125" style="83" customWidth="1"/>
-    <col min="7" max="7" width="8" style="83" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="83" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="7.08984375" style="83" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" style="83" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" style="83" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="83" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.81640625" style="83" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.453125" style="83" customWidth="1"/>
-    <col min="17" max="17" width="6.36328125" style="83" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.453125" style="83" customWidth="1"/>
-    <col min="19" max="26" width="11" style="83" customWidth="1"/>
-    <col min="27" max="16384" width="11.1796875" style="83"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="3">
-        <v>16</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="R6" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="51">
-        <v>0</v>
-      </c>
-      <c r="I7" s="52">
-        <v>0</v>
-      </c>
-      <c r="J7" s="52">
-        <v>0</v>
-      </c>
-      <c r="K7" s="52">
-        <v>0</v>
-      </c>
-      <c r="L7" s="53">
-        <v>0</v>
-      </c>
-      <c r="M7" s="74"/>
-      <c r="N7" s="43">
-        <f>MAX($B$7:$F$7)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="44">
-        <f t="shared" ref="O7:R7" si="0">MAX($B$7:$F$7)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="82"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="54">
-        <v>3</v>
-      </c>
-      <c r="I8" s="42">
-        <v>3</v>
-      </c>
-      <c r="J8" s="42">
-        <v>6</v>
-      </c>
-      <c r="K8" s="42">
-        <v>3</v>
-      </c>
-      <c r="L8" s="55">
-        <v>3</v>
-      </c>
-      <c r="M8" s="74"/>
-      <c r="N8" s="46">
-        <f>MAX($B$8:$F$8)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="41">
-        <f t="shared" ref="O8:R8" si="1">MAX($B$8:$F$8)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="82"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="54">
-        <v>0</v>
-      </c>
-      <c r="I9" s="42">
-        <v>0</v>
-      </c>
-      <c r="J9" s="42">
-        <v>0</v>
-      </c>
-      <c r="K9" s="42">
-        <v>2</v>
-      </c>
-      <c r="L9" s="55">
-        <v>0</v>
-      </c>
-      <c r="M9" s="74"/>
-      <c r="N9" s="46">
-        <f>MAX($B$9:$F$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="41">
-        <f t="shared" ref="O9:R9" si="2">MAX($B$9:$F$9)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="82"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="54">
-        <v>1</v>
-      </c>
-      <c r="I10" s="42">
-        <v>1</v>
-      </c>
-      <c r="J10" s="42">
-        <v>1</v>
-      </c>
-      <c r="K10" s="42">
-        <v>1</v>
-      </c>
-      <c r="L10" s="55">
-        <v>1</v>
-      </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="46">
-        <f>MAX($B$10:$F$10)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="41">
-        <f t="shared" ref="O10:R10" si="3">MAX($B$10:$F$10)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="82"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="82"/>
-      <c r="H11" s="54">
-        <v>3</v>
-      </c>
-      <c r="I11" s="42">
-        <v>3</v>
-      </c>
-      <c r="J11" s="42">
-        <v>3</v>
-      </c>
-      <c r="K11" s="42">
-        <v>3</v>
-      </c>
-      <c r="L11" s="55">
-        <v>3</v>
-      </c>
-      <c r="M11" s="74"/>
-      <c r="N11" s="46">
-        <f>MAX($B$11:$F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="41">
-        <f t="shared" ref="O11:R11" si="4">MAX($B$11:$F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="82"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="54">
-        <v>2</v>
-      </c>
-      <c r="I12" s="42">
-        <v>2</v>
-      </c>
-      <c r="J12" s="42">
-        <v>1</v>
-      </c>
-      <c r="K12" s="42">
-        <v>2</v>
-      </c>
-      <c r="L12" s="55">
-        <v>1</v>
-      </c>
-      <c r="M12" s="74"/>
-      <c r="N12" s="46">
-        <f>MAX($B$12:$F$12)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="41">
-        <f t="shared" ref="O12:R12" si="5">MAX($B$12:$F$12)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="41">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="41">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="82"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="54">
-        <v>1</v>
-      </c>
-      <c r="I13" s="42">
-        <v>1</v>
-      </c>
-      <c r="J13" s="42">
-        <v>0</v>
-      </c>
-      <c r="K13" s="42">
-        <v>1</v>
-      </c>
-      <c r="L13" s="55">
-        <v>2</v>
-      </c>
-      <c r="M13" s="74"/>
-      <c r="N13" s="46">
-        <f>MAX($B$13:$F$13)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="41">
-        <f t="shared" ref="O13:R13" si="6">MAX($B$13:$F$13)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="82"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="54">
-        <v>1</v>
-      </c>
-      <c r="I14" s="42">
-        <v>0</v>
-      </c>
-      <c r="J14" s="42">
-        <v>1</v>
-      </c>
-      <c r="K14" s="42">
-        <v>0</v>
-      </c>
-      <c r="L14" s="55">
-        <v>0</v>
-      </c>
-      <c r="M14" s="74"/>
-      <c r="N14" s="46">
-        <f>MAX($B$14:$F$14)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="41">
-        <f t="shared" ref="O14:R14" si="7">MAX($B$14:$F$14)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="41">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="41">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="82"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="54">
-        <v>2</v>
-      </c>
-      <c r="I15" s="42">
-        <v>1</v>
-      </c>
-      <c r="J15" s="42">
-        <v>2</v>
-      </c>
-      <c r="K15" s="42">
-        <v>1</v>
-      </c>
-      <c r="L15" s="55">
-        <v>2</v>
-      </c>
-      <c r="M15" s="74"/>
-      <c r="N15" s="46">
-        <f>MAX($B$15:$F$15)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="41">
-        <f t="shared" ref="O15:R15" si="8">MAX($B$15:$F$15)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="82"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="G16" s="82"/>
-      <c r="H16" s="54">
-        <v>0</v>
-      </c>
-      <c r="I16" s="42">
-        <v>0</v>
-      </c>
-      <c r="J16" s="42">
-        <v>0</v>
-      </c>
-      <c r="K16" s="42">
-        <v>0</v>
-      </c>
-      <c r="L16" s="55">
-        <v>1</v>
-      </c>
-      <c r="M16" s="74"/>
-      <c r="N16" s="46">
-        <f>MAX($B$16:$F$16)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="41">
-        <f t="shared" ref="O16:R16" si="9">MAX($B$16:$F$16)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="47">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="82"/>
-    </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="82"/>
-      <c r="H17" s="56">
-        <v>0</v>
-      </c>
-      <c r="I17" s="57">
-        <v>0</v>
-      </c>
-      <c r="J17" s="57">
-        <v>0</v>
-      </c>
-      <c r="K17" s="57">
-        <v>0</v>
-      </c>
-      <c r="L17" s="58">
-        <v>0</v>
-      </c>
-      <c r="M17" s="74"/>
-      <c r="N17" s="48">
-        <v>1</v>
-      </c>
-      <c r="O17" s="49">
-        <v>1</v>
-      </c>
-      <c r="P17" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="49">
-        <v>1</v>
-      </c>
-      <c r="R17" s="50">
-        <f t="shared" ref="R17" si="10">MAX($B$17:$F$17)</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="82"/>
-    </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="41">
-        <f>SUM(B7:B17)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="41">
-        <f t="shared" ref="C18:F18" si="11">SUM(C7:C17)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="41">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="41">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="41">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="82"/>
-      <c r="H18" s="42">
-        <f>SUM(H7:H17)</f>
-        <v>13</v>
-      </c>
-      <c r="I18" s="42">
-        <f t="shared" ref="I18:L18" si="12">SUM(I7:I17)</f>
-        <v>11</v>
-      </c>
-      <c r="J18" s="42">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="K18" s="42">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="L18" s="42">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82">
-        <f>SUM(N7:N17)</f>
-        <v>1</v>
-      </c>
-      <c r="O18" s="82">
-        <f>SUM(O7:O17)</f>
-        <v>1</v>
-      </c>
-      <c r="P18" s="82">
-        <f>SUM(P7:P17)</f>
-        <v>1</v>
-      </c>
-      <c r="Q18" s="82">
-        <f>SUM(Q7:Q17)</f>
-        <v>1</v>
-      </c>
-      <c r="R18" s="82">
-        <f>SUM(R7:R17)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="51">
-        <f>TRUNC(SUM(H7:L7))</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="53">
-        <f>TRUNC(SUM(N7:R7))</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="61">
-        <v>14</v>
-      </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="82">
-        <f>7/H22</f>
-        <v>0.5</v>
-      </c>
-      <c r="K22" s="82" t="str">
-        <f t="shared" ref="K22:N26" si="13">IF(C7&lt;I7,1,"")</f>
-        <v/>
-      </c>
-      <c r="L22" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M22" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="N22" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="54">
-        <f t="shared" ref="B23:B32" si="14">TRUNC(SUM(H8:L8))</f>
-        <v>18</v>
-      </c>
-      <c r="C23" s="55">
-        <f t="shared" ref="C23:C32" si="15">TRUNC(SUM(N8:R8))</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="62" t="e">
-        <f>(B8+C8+D8+E8+F8)*8*0.7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="82" t="e">
-        <f t="shared" ref="J23:J32" si="16">7/H23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K23" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L23" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M23" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="N23" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="2"/>
-      <c r="U23" s="29"/>
-    </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="54">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="C24" s="55">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="62" t="e">
-        <f t="shared" ref="H24:H31" si="17">(B9+C9+D9+E9+F9)*8*0.7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="82" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K24" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L24"/>
-      <c r="M24" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="N24" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="2"/>
-      <c r="U24" s="29"/>
-    </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="54">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="C25" s="55">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="62" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="82" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K25" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L25" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M25" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="N25" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="2"/>
-      <c r="U25" s="29"/>
-    </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="54">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="C26" s="55">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" s="62" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="82" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K26" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L26" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M26" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="N26" s="82" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="2"/>
-      <c r="U26" s="29"/>
-    </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="54">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="C27" s="55">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="62" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="82" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="2"/>
-      <c r="U27" s="29"/>
-    </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="54">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="C28" s="55">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="60"/>
-      <c r="G28" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" s="62" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="82" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S28" s="2"/>
-      <c r="U28" s="39"/>
-    </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="54">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="C29" s="55">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="60"/>
-      <c r="G29" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="62" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="60"/>
-      <c r="J29" s="82" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S29" s="2"/>
-      <c r="U29" s="29"/>
-    </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="54">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="C30" s="55">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="60"/>
-      <c r="G30" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="62" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="60"/>
-      <c r="J30" s="82" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S30" s="2"/>
-      <c r="U30" s="29"/>
-    </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="54">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="C31" s="55">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="60"/>
-      <c r="G31" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="H31" s="62" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="60"/>
-      <c r="J31" s="82" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S31" s="2"/>
-      <c r="U31" s="16"/>
-    </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="56">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="58">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="D32" s="60"/>
-      <c r="G32" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="H32" s="63">
-        <v>7</v>
-      </c>
-      <c r="I32" s="60"/>
-      <c r="J32" s="82">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="S32" s="2"/>
-      <c r="U32" s="82"/>
-    </row>
-    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S33" s="2"/>
-      <c r="U33" s="82"/>
-    </row>
-    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S34" s="2"/>
-      <c r="U34" s="82"/>
-    </row>
-    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S35" s="2"/>
-      <c r="U35" s="82"/>
-    </row>
-    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S36" s="2"/>
-      <c r="U36" s="82"/>
-    </row>
-    <row r="37" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="S37" s="2"/>
-    </row>
-    <row r="38" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="2"/>
-    </row>
-    <row r="39" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="82"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="82"/>
-      <c r="H40" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="R40" s="99"/>
-      <c r="S40" s="99"/>
-      <c r="T40" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="U40" s="79"/>
-      <c r="V40" s="79"/>
-      <c r="W40" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="X40" s="79"/>
-    </row>
-    <row r="41" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" s="82"/>
-      <c r="H41" s="31">
-        <f>TRUNC(SUM(B41:F41))</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="82">
-        <f>7*H41</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="29"/>
-      <c r="N41" s="81">
-        <f>L41/H22</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="76">
-        <v>60</v>
-      </c>
-      <c r="S41" s="77"/>
-      <c r="T41" s="79">
-        <f>TRUNC((L41*60)/R41)</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="79"/>
-      <c r="V41" s="79"/>
-      <c r="W41" s="79">
-        <f>TRUNC(T41/5)</f>
-        <v>0</v>
-      </c>
-      <c r="X41" s="79"/>
-    </row>
-    <row r="42" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" s="82"/>
-      <c r="H42" s="31">
-        <f t="shared" ref="H42:H51" si="18">TRUNC(SUM(B42:F42))</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="82">
-        <f t="shared" ref="L42:L51" si="19">7*H42</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="29"/>
-      <c r="N42" s="81" t="e">
-        <f t="shared" ref="N42:N51" si="20">L42/H23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="76">
-        <v>75</v>
-      </c>
-      <c r="S42" s="77"/>
-      <c r="T42" s="79">
-        <f t="shared" ref="T42:T51" si="21">TRUNC((L42*60)/R42)</f>
-        <v>0</v>
-      </c>
-      <c r="U42" s="79"/>
-      <c r="V42" s="79"/>
-      <c r="W42" s="79">
-        <f t="shared" ref="W42:W51" si="22">TRUNC(T42/5)</f>
-        <v>0</v>
-      </c>
-      <c r="X42" s="79"/>
-    </row>
-    <row r="43" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" s="82"/>
-      <c r="H43" s="31">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="82">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="29"/>
-      <c r="N43" s="81" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="76">
-        <v>45</v>
-      </c>
-      <c r="S43" s="77"/>
-      <c r="T43" s="79">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="79"/>
-      <c r="V43" s="79"/>
-      <c r="W43" s="79">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X43" s="79"/>
-    </row>
-    <row r="44" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="G44" s="82"/>
-      <c r="H44" s="31">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="82">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="29"/>
-      <c r="N44" s="81" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="76">
-        <v>120</v>
-      </c>
-      <c r="S44" s="77"/>
-      <c r="T44" s="79">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="79"/>
-      <c r="V44" s="79"/>
-      <c r="W44" s="79">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="79"/>
-    </row>
-    <row r="45" spans="1:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" s="82"/>
-      <c r="H45" s="31">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="82">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="29"/>
-      <c r="N45" s="81" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="76">
-        <v>150</v>
-      </c>
-      <c r="S45" s="77"/>
-      <c r="T45" s="79">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U45" s="79"/>
-      <c r="V45" s="79"/>
-      <c r="W45" s="79">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X45" s="79"/>
-    </row>
-    <row r="46" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" s="91" t="s">
-        <v>95</v>
-      </c>
-      <c r="G46" s="82"/>
-      <c r="H46" s="31">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="82">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="29"/>
-      <c r="N46" s="81" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O46" s="82"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="76">
-        <v>60</v>
-      </c>
-      <c r="S46" s="77"/>
-      <c r="T46" s="79">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="79"/>
-      <c r="V46" s="79"/>
-      <c r="W46" s="79">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X46" s="79"/>
-    </row>
-    <row r="47" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="G47" s="39"/>
-      <c r="H47" s="31">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="82">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="39"/>
-      <c r="N47" s="81" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="78">
-        <v>60</v>
-      </c>
-      <c r="S47" s="77"/>
-      <c r="T47" s="79">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="79"/>
-      <c r="V47" s="79"/>
-      <c r="W47" s="79">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X47" s="79"/>
-    </row>
-    <row r="48" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="G48" s="39"/>
-      <c r="H48" s="31">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="82">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="39"/>
-      <c r="N48" s="81" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="75"/>
-      <c r="R48" s="78">
-        <v>60</v>
-      </c>
-      <c r="S48" s="77"/>
-      <c r="T48" s="79">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="79"/>
-      <c r="V48" s="79"/>
-      <c r="W48" s="79">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X48" s="79"/>
-    </row>
-    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="F49" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="H49" s="31">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="82">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="81" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="78">
-        <v>45</v>
-      </c>
-      <c r="S49" s="79"/>
-      <c r="T49" s="79">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="79"/>
-      <c r="V49" s="79"/>
-      <c r="W49" s="79">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X49" s="79"/>
-    </row>
-    <row r="50" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="F50" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="H50" s="31">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="82">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="81" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q50" s="75"/>
-      <c r="R50" s="78">
-        <v>45</v>
-      </c>
-      <c r="S50" s="79"/>
-      <c r="T50" s="79">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="79"/>
-      <c r="V50" s="79"/>
-      <c r="W50" s="79">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X50" s="79"/>
-    </row>
-    <row r="51" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="H51" s="31">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="82">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="81">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="75"/>
-      <c r="R51" s="78">
-        <v>45</v>
-      </c>
-      <c r="S51" s="79"/>
-      <c r="T51" s="79">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="79"/>
-      <c r="V51" s="79"/>
-      <c r="W51" s="79">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X51" s="79"/>
-    </row>
-    <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V52" s="79"/>
-      <c r="W52" s="79"/>
-      <c r="X52" s="79"/>
-    </row>
-    <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="30">
-        <f>SUM(B41:B51)</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="30">
-        <f>SUM(C41:C51)</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="30">
-        <f>SUM(D41:D51)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="30">
-        <f>SUM(E41:E51)</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="30">
-        <f>SUM(F41:F51)</f>
-        <v>0</v>
-      </c>
-      <c r="V53" s="79"/>
-      <c r="W53" s="79"/>
-      <c r="X53" s="79"/>
-    </row>
-    <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V54" s="79"/>
-      <c r="W54" s="79">
-        <f>SUM(W41:W51)</f>
-        <v>0</v>
-      </c>
-      <c r="X54" s="79"/>
-    </row>
-    <row r="55" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="84">
-        <f>SUM(L41:L51)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-    </row>
-    <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
-    </row>
-    <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-    </row>
-    <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
-    </row>
-    <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
-    </row>
-    <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="59"/>
-    </row>
-    <row r="63" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-    </row>
-    <row r="64" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-    </row>
-    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-    </row>
-    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-    </row>
-    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="59"/>
-    </row>
-    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="39"/>
-    </row>
-    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
-    </row>
-    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="39"/>
-    </row>
-    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-    </row>
-    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="M74" s="39"/>
-      <c r="N74" s="39"/>
-      <c r="O74" s="39"/>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="39"/>
-    </row>
-    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39"/>
-    </row>
-    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-    </row>
-    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="39"/>
-      <c r="O77" s="39"/>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
-    </row>
-    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
-    </row>
-    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="95"/>
-      <c r="B86" s="95"/>
-      <c r="C86" s="95"/>
-      <c r="D86" s="95"/>
-      <c r="E86" s="95"/>
-      <c r="F86" s="95"/>
-      <c r="G86" s="95"/>
-      <c r="H86" s="95"/>
-      <c r="I86" s="95"/>
-      <c r="J86" s="95"/>
-      <c r="K86" s="95"/>
-      <c r="L86" s="95"/>
-      <c r="M86" s="95"/>
-      <c r="N86" s="95"/>
-      <c r="O86" s="95"/>
-      <c r="P86" s="95"/>
-      <c r="Q86" s="95"/>
-      <c r="R86" s="95"/>
-    </row>
-    <row r="123" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D123" s="39"/>
-      <c r="E123" s="39"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="39"/>
-      <c r="H123" s="39"/>
-      <c r="I123" s="39"/>
-      <c r="J123" s="39"/>
-      <c r="K123" s="39"/>
-      <c r="L123" s="39"/>
-      <c r="M123" s="39"/>
-      <c r="N123" s="39"/>
-      <c r="O123" s="39"/>
-    </row>
-    <row r="124" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T124" s="40"/>
-    </row>
-    <row r="125" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T125" s="40"/>
-    </row>
-    <row r="126" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H126" s="40"/>
-      <c r="T126" s="40"/>
-    </row>
-    <row r="127" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H127" s="40"/>
-      <c r="T127" s="40"/>
-    </row>
-    <row r="128" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T128" s="40"/>
-    </row>
-    <row r="130" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D130" s="40"/>
-      <c r="H130" s="40"/>
-    </row>
-    <row r="131" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H131" s="40"/>
-    </row>
-    <row r="132" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H132" s="40"/>
-    </row>
-    <row r="133" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H133" s="40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="A86:R86"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="L20:M20"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" customWidth="1"/>
-    <col min="4" max="4" width="4.6328125" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" customWidth="1"/>
-    <col min="7" max="7" width="5.453125" customWidth="1"/>
-    <col min="8" max="8" width="6.54296875" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" customWidth="1"/>
-    <col min="10" max="10" width="6.1796875" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" customWidth="1"/>
-    <col min="14" max="14" width="6.54296875" customWidth="1"/>
-    <col min="15" max="15" width="5.54296875" customWidth="1"/>
-    <col min="16" max="17" width="6.453125" customWidth="1"/>
-    <col min="18" max="18" width="4.90625" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" customWidth="1"/>
+    <col min="11" max="11" width="5.21875" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="5.44140625" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" customWidth="1"/>
+    <col min="16" max="17" width="6.44140625" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" customWidth="1"/>
     <col min="19" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6749,7 +3622,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -6770,7 +3643,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -6793,7 +3666,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6814,34 +3687,34 @@
       <c r="R4" s="1"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="96" t="s">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="96" t="s">
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -6892,7 +3765,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -6945,7 +3818,7 @@
       </c>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -6998,7 +3871,7 @@
       </c>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -7051,7 +3924,7 @@
       </c>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -7104,7 +3977,7 @@
       </c>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -7157,7 +4030,7 @@
       </c>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <f t="shared" ref="B12:F12" si="0">SUM(B7:B11)</f>
@@ -7193,22 +4066,22 @@
       <c r="R12" s="1"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="96" t="s">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="96" t="s">
+      <c r="H13" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="16" t="s">
@@ -7220,7 +4093,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -7257,7 +4130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -7307,7 +4180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -7357,7 +4230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -7407,7 +4280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -7457,7 +4330,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -7506,7 +4379,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -7524,7 +4397,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -7550,7 +4423,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -7571,7 +4444,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>5</v>
@@ -7608,7 +4481,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -7650,7 +4523,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -7692,7 +4565,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -7734,7 +4607,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -7776,7 +4649,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -7818,7 +4691,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -7856,7 +4729,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7886,7 +4759,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
@@ -7912,7 +4785,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -7933,7 +4806,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
@@ -7956,7 +4829,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>26</v>
       </c>
@@ -7979,7 +4852,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>23</v>
       </c>
@@ -8002,7 +4875,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>27</v>
       </c>
@@ -8025,7 +4898,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>28</v>
       </c>
@@ -8048,7 +4921,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>29</v>
       </c>
@@ -8071,7 +4944,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>30</v>
       </c>
@@ -8094,7 +4967,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>31</v>
       </c>
@@ -8117,7 +4990,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>32</v>
       </c>

--- a/ORscheduling_Complete (1).xlsx
+++ b/ORscheduling_Complete (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igiannakopoulos\Desktop\MBA\Exercise - Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E3D9B3-81AB-4B60-8426-4AF8B1B4E739}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7C6B19-5E86-4DCF-88B7-0C57447CDD98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Room Scheduling" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="51">
   <si>
     <t>OR Scheduling</t>
   </si>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>Weekly total (hours)</t>
-  </si>
-  <si>
-    <t>% each clinic sets as target</t>
   </si>
 </sst>
 </file>
@@ -678,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -920,10 +917,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,32 +1134,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="6" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.453125" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="5" max="6" width="5.453125" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.44140625" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.453125" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" customWidth="1"/>
+    <col min="17" max="17" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.453125" customWidth="1"/>
     <col min="19" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1181,7 @@
       <c r="R1" s="29"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1212,7 +1204,7 @@
       <c r="R2" s="29"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1237,7 +1229,7 @@
       <c r="R3" s="29"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -1258,7 +1250,7 @@
       <c r="R4" s="29"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
         <v>2</v>
       </c>
@@ -1285,7 +1277,7 @@
       <c r="R5" s="84"/>
       <c r="S5" s="84"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1336,7 +1328,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>36</v>
       </c>
@@ -1394,7 +1386,7 @@
       </c>
       <c r="S7" s="72"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>14</v>
       </c>
@@ -1452,7 +1444,7 @@
       </c>
       <c r="S8" s="72"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>44</v>
       </c>
@@ -1510,7 +1502,7 @@
       </c>
       <c r="S9" s="72"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>37</v>
       </c>
@@ -1568,7 +1560,7 @@
       </c>
       <c r="S10" s="72"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>38</v>
       </c>
@@ -1626,7 +1618,7 @@
       </c>
       <c r="S11" s="72"/>
     </row>
-    <row r="12" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>39</v>
       </c>
@@ -1684,7 +1676,7 @@
       </c>
       <c r="S12" s="72"/>
     </row>
-    <row r="13" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>40</v>
       </c>
@@ -1742,7 +1734,7 @@
       </c>
       <c r="S13" s="72"/>
     </row>
-    <row r="14" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
@@ -1800,7 +1792,7 @@
       </c>
       <c r="S14" s="72"/>
     </row>
-    <row r="15" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>41</v>
       </c>
@@ -1858,7 +1850,7 @@
       </c>
       <c r="S15" s="72"/>
     </row>
-    <row r="16" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>43</v>
       </c>
@@ -1916,7 +1908,7 @@
       </c>
       <c r="S16" s="72"/>
     </row>
-    <row r="17" spans="1:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>42</v>
       </c>
@@ -1970,7 +1962,7 @@
       </c>
       <c r="S17" s="72"/>
     </row>
-    <row r="18" spans="1:21" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
       <c r="B18" s="41">
         <f>SUM(B7:B17)</f>
@@ -2036,7 +2028,7 @@
       </c>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -2057,7 +2049,7 @@
       <c r="R19" s="39"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83" t="s">
         <v>15</v>
       </c>
@@ -2077,7 +2069,7 @@
       <c r="M20" s="85"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>17</v>
@@ -2090,11 +2082,9 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
       <c r="N21" s="39"/>
@@ -2104,7 +2094,7 @@
       <c r="R21" s="39"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -2149,7 +2139,7 @@
       <c r="R22" s="29"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -2166,12 +2156,10 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="62">
-        <f>(B8+C8+D8+E8+F8)*7*I23</f>
-        <v>126</v>
-      </c>
-      <c r="I23" s="87">
-        <v>0.75</v>
-      </c>
+        <f>(B8+C8+D8+E8+F8)*8*0.7</f>
+        <v>134.39999999999998</v>
+      </c>
+      <c r="I23" s="39"/>
       <c r="J23" s="36" t="str">
         <f>IF(B8&lt;H8,1,"")</f>
         <v/>
@@ -2198,7 +2186,7 @@
       <c r="S23" s="2"/>
       <c r="U23" s="29"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -2215,12 +2203,10 @@
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="62">
-        <f t="shared" ref="H24:H31" si="17">(B9+C9+D9+E9+F9)*7*I24</f>
-        <v>50.4</v>
-      </c>
-      <c r="I24" s="87">
-        <v>0.6</v>
-      </c>
+        <f t="shared" ref="H24:H31" si="17">(B9+C9+D9+E9+F9)*8*0.7</f>
+        <v>67.199999999999989</v>
+      </c>
+      <c r="I24" s="39"/>
       <c r="J24" s="36" t="str">
         <f>IF(B9&lt;H9,1,"")</f>
         <v/>
@@ -2247,7 +2233,7 @@
       <c r="S24" s="2"/>
       <c r="U24" s="29"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -2265,11 +2251,9 @@
       <c r="G25" s="39"/>
       <c r="H25" s="62">
         <f t="shared" si="17"/>
-        <v>49</v>
-      </c>
-      <c r="I25" s="87">
-        <v>0.7</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="I25" s="39"/>
       <c r="J25" s="36" t="str">
         <f>IF(B10&lt;H10,1,"")</f>
         <v/>
@@ -2296,7 +2280,7 @@
       <c r="S25" s="2"/>
       <c r="U25" s="29"/>
     </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -2314,11 +2298,9 @@
       <c r="G26" s="39"/>
       <c r="H26" s="62">
         <f t="shared" si="17"/>
-        <v>105</v>
-      </c>
-      <c r="I26" s="87">
-        <v>0.75</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="I26" s="39"/>
       <c r="J26" s="36" t="str">
         <f>IF(B11&lt;H11,1,"")</f>
         <v/>
@@ -2345,7 +2327,7 @@
       <c r="S26" s="2"/>
       <c r="U26" s="29"/>
     </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
         <v>39</v>
       </c>
@@ -2365,9 +2347,7 @@
         <f t="shared" si="17"/>
         <v>56</v>
       </c>
-      <c r="I27" s="87">
-        <v>0.8</v>
-      </c>
+      <c r="I27" s="39"/>
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
@@ -2379,7 +2359,7 @@
       <c r="S27" s="2"/>
       <c r="U27" s="29"/>
     </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -2395,15 +2375,13 @@
       <c r="G28" s="60"/>
       <c r="H28" s="62">
         <f t="shared" si="17"/>
-        <v>54.6</v>
-      </c>
-      <c r="I28" s="88">
-        <v>0.65</v>
-      </c>
+        <v>67.199999999999989</v>
+      </c>
+      <c r="I28" s="60"/>
       <c r="S28" s="2"/>
       <c r="U28" s="39"/>
     </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2419,15 +2397,13 @@
       <c r="G29" s="60"/>
       <c r="H29" s="62">
         <f t="shared" si="17"/>
-        <v>28</v>
-      </c>
-      <c r="I29" s="88">
-        <v>0.5</v>
-      </c>
+        <v>44.8</v>
+      </c>
+      <c r="I29" s="60"/>
       <c r="S29" s="2"/>
       <c r="U29" s="29"/>
     </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2443,15 +2419,13 @@
       <c r="G30" s="60"/>
       <c r="H30" s="62">
         <f t="shared" si="17"/>
-        <v>56</v>
-      </c>
-      <c r="I30" s="88">
-        <v>0.5</v>
-      </c>
+        <v>89.6</v>
+      </c>
+      <c r="I30" s="60"/>
       <c r="S30" s="2"/>
       <c r="U30" s="29"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -2467,15 +2441,13 @@
       <c r="G31" s="60"/>
       <c r="H31" s="62">
         <f t="shared" si="17"/>
-        <v>35</v>
-      </c>
-      <c r="I31" s="88">
-        <v>0.5</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="I31" s="60"/>
       <c r="S31" s="2"/>
       <c r="U31" s="16"/>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2496,26 +2468,26 @@
       <c r="S32" s="2"/>
       <c r="U32" s="37"/>
     </row>
-    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S33" s="2"/>
       <c r="U33" s="37"/>
     </row>
-    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S34" s="2"/>
       <c r="U34" s="37"/>
     </row>
-    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S35" s="2"/>
       <c r="U35" s="37"/>
     </row>
-    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S36" s="2"/>
       <c r="U36" s="37"/>
     </row>
-    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
@@ -2537,7 +2509,7 @@
       <c r="R38" s="29"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -2557,7 +2529,7 @@
       <c r="R39" s="29"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>5</v>
@@ -2604,7 +2576,7 @@
       </c>
       <c r="X40" s="79"/>
     </row>
-    <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>36</v>
       </c>
@@ -2658,7 +2630,7 @@
       </c>
       <c r="X41" s="79"/>
     </row>
-    <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>14</v>
       </c>
@@ -2692,7 +2664,7 @@
       <c r="M42" s="29"/>
       <c r="N42" s="81">
         <f t="shared" ref="N42:N51" si="20">L42/H23</f>
-        <v>1</v>
+        <v>0.93750000000000011</v>
       </c>
       <c r="P42" s="29"/>
       <c r="Q42" s="75"/>
@@ -2712,7 +2684,7 @@
       </c>
       <c r="X42" s="79"/>
     </row>
-    <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>44</v>
       </c>
@@ -2746,7 +2718,7 @@
       <c r="M43" s="29"/>
       <c r="N43" s="81">
         <f t="shared" si="20"/>
-        <v>0.27777777777777779</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="P43" s="29"/>
       <c r="Q43" s="75"/>
@@ -2766,7 +2738,7 @@
       </c>
       <c r="X43" s="79"/>
     </row>
-    <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>37</v>
       </c>
@@ -2800,7 +2772,7 @@
       <c r="M44" s="29"/>
       <c r="N44" s="81">
         <f t="shared" si="20"/>
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="P44" s="29"/>
       <c r="Q44" s="75"/>
@@ -2820,7 +2792,7 @@
       </c>
       <c r="X44" s="79"/>
     </row>
-    <row r="45" spans="1:24" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
         <v>38</v>
       </c>
@@ -2854,7 +2826,7 @@
       <c r="M45" s="29"/>
       <c r="N45" s="81">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="P45" s="29"/>
       <c r="Q45" s="75"/>
@@ -2874,7 +2846,7 @@
       </c>
       <c r="X45" s="79"/>
     </row>
-    <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
         <v>39</v>
       </c>
@@ -2929,7 +2901,7 @@
       </c>
       <c r="X46" s="79"/>
     </row>
-    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
         <v>40</v>
       </c>
@@ -2963,7 +2935,7 @@
       <c r="M47" s="39"/>
       <c r="N47" s="81">
         <f t="shared" si="20"/>
-        <v>0.64102564102564097</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="O47" s="39"/>
       <c r="P47" s="39"/>
@@ -2984,7 +2956,7 @@
       </c>
       <c r="X47" s="79"/>
     </row>
-    <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
         <v>13</v>
       </c>
@@ -3018,7 +2990,7 @@
       <c r="M48" s="39"/>
       <c r="N48" s="81">
         <f t="shared" si="20"/>
-        <v>1.25</v>
+        <v>0.78125</v>
       </c>
       <c r="O48" s="39"/>
       <c r="P48" s="39"/>
@@ -3039,7 +3011,7 @@
       </c>
       <c r="X48" s="79"/>
     </row>
-    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>41</v>
       </c>
@@ -3068,7 +3040,7 @@
       </c>
       <c r="N49" s="81">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="Q49" s="75"/>
       <c r="R49" s="78">
@@ -3087,7 +3059,7 @@
       </c>
       <c r="X49" s="79"/>
     </row>
-    <row r="50" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>43</v>
       </c>
@@ -3116,7 +3088,7 @@
       </c>
       <c r="N50" s="81">
         <f t="shared" si="20"/>
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="Q50" s="75"/>
       <c r="R50" s="78">
@@ -3135,7 +3107,7 @@
       </c>
       <c r="X50" s="79"/>
     </row>
-    <row r="51" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
         <v>42</v>
       </c>
@@ -3183,12 +3155,12 @@
       </c>
       <c r="X51" s="79"/>
     </row>
-    <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V52" s="79"/>
       <c r="W52" s="79"/>
       <c r="X52" s="79"/>
     </row>
-    <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
@@ -3216,7 +3188,7 @@
       <c r="W53" s="79"/>
       <c r="X53" s="79"/>
     </row>
-    <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V54" s="79"/>
       <c r="W54" s="79">
         <f>SUM(W41:W51)</f>
@@ -3224,24 +3196,24 @@
       </c>
       <c r="X54" s="79"/>
     </row>
-    <row r="55" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="80">
         <f>SUM(N41:N51)</f>
-        <v>9.0830891330891319</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.760416666666667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H57" s="59"/>
       <c r="I57" s="59"/>
       <c r="J57" s="59"/>
       <c r="K57" s="59"/>
       <c r="L57" s="59"/>
     </row>
-    <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>25</v>
       </c>
@@ -3251,7 +3223,7 @@
       <c r="K58" s="59"/>
       <c r="L58" s="59"/>
     </row>
-    <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>26</v>
       </c>
@@ -3261,7 +3233,7 @@
       <c r="K59" s="59"/>
       <c r="L59" s="59"/>
     </row>
-    <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>23</v>
       </c>
@@ -3271,7 +3243,7 @@
       <c r="K60" s="59"/>
       <c r="L60" s="59"/>
     </row>
-    <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>27</v>
       </c>
@@ -3281,7 +3253,7 @@
       <c r="K61" s="59"/>
       <c r="L61" s="59"/>
     </row>
-    <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>28</v>
       </c>
@@ -3291,7 +3263,7 @@
       <c r="K62" s="59"/>
       <c r="L62" s="59"/>
     </row>
-    <row r="63" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>29</v>
       </c>
@@ -3301,7 +3273,7 @@
       <c r="K63" s="59"/>
       <c r="L63" s="59"/>
     </row>
-    <row r="64" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>30</v>
       </c>
@@ -3311,7 +3283,7 @@
       <c r="K64" s="59"/>
       <c r="L64" s="59"/>
     </row>
-    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>31</v>
       </c>
@@ -3321,7 +3293,7 @@
       <c r="K65" s="59"/>
       <c r="L65" s="59"/>
     </row>
-    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>32</v>
       </c>
@@ -3331,14 +3303,14 @@
       <c r="K66" s="59"/>
       <c r="L66" s="59"/>
     </row>
-    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H67" s="59"/>
       <c r="I67" s="59"/>
       <c r="J67" s="59"/>
       <c r="K67" s="59"/>
       <c r="L67" s="59"/>
     </row>
-    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
       <c r="D70" s="39"/>
@@ -3357,7 +3329,7 @@
       <c r="Q70" s="39"/>
       <c r="R70" s="39"/>
     </row>
-    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
       <c r="D71" s="39"/>
@@ -3371,7 +3343,7 @@
       <c r="Q71" s="39"/>
       <c r="R71" s="39"/>
     </row>
-    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>
@@ -3385,7 +3357,7 @@
       <c r="Q72" s="39"/>
       <c r="R72" s="39"/>
     </row>
-    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
@@ -3399,7 +3371,7 @@
       <c r="Q73" s="39"/>
       <c r="R73" s="39"/>
     </row>
-    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
@@ -3413,7 +3385,7 @@
       <c r="Q74" s="39"/>
       <c r="R74" s="39"/>
     </row>
-    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
@@ -3427,7 +3399,7 @@
       <c r="Q75" s="39"/>
       <c r="R75" s="39"/>
     </row>
-    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
       <c r="D76" s="39"/>
@@ -3441,7 +3413,7 @@
       <c r="Q76" s="39"/>
       <c r="R76" s="39"/>
     </row>
-    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
@@ -3455,14 +3427,14 @@
       <c r="Q77" s="39"/>
       <c r="R77" s="39"/>
     </row>
-    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
       <c r="P78" s="39"/>
       <c r="Q78" s="39"/>
       <c r="R78" s="39"/>
     </row>
-    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="82"/>
       <c r="B86" s="82"/>
       <c r="C86" s="82"/>
@@ -3482,7 +3454,7 @@
       <c r="Q86" s="82"/>
       <c r="R86" s="82"/>
     </row>
-    <row r="123" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D123" s="39"/>
       <c r="E123" s="39"/>
       <c r="F123" s="39"/>
@@ -3496,65 +3468,65 @@
       <c r="N123" s="39"/>
       <c r="O123" s="39"/>
     </row>
-    <row r="124" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T124" s="40"/>
     </row>
-    <row r="125" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H125" s="38"/>
       <c r="T125" s="40"/>
     </row>
-    <row r="126" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H126" s="40"/>
       <c r="T126" s="40"/>
     </row>
-    <row r="127" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H127" s="40"/>
       <c r="T127" s="40"/>
     </row>
-    <row r="128" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H128" s="38"/>
       <c r="T128" s="40"/>
     </row>
-    <row r="129" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H129" s="38"/>
       <c r="T129" s="38"/>
     </row>
-    <row r="130" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D130" s="40"/>
       <c r="H130" s="40"/>
       <c r="T130" s="38"/>
     </row>
-    <row r="131" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H131" s="40"/>
       <c r="T131" s="38"/>
     </row>
-    <row r="132" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H132" s="40"/>
       <c r="T132" s="38"/>
     </row>
-    <row r="133" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H133" s="40"/>
       <c r="T133" s="38"/>
     </row>
-    <row r="134" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H134" s="38"/>
       <c r="T134" s="38"/>
     </row>
-    <row r="135" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H135" s="38"/>
       <c r="T135" s="38"/>
     </row>
-    <row r="136" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H136" s="38"/>
     </row>
-    <row r="137" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H137" s="38"/>
     </row>
-    <row r="138" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H138" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A86:R86"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="H5:M5"/>
@@ -3564,7 +3536,6 @@
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="Q40:S40"/>
     <mergeCell ref="H20:J20"/>
-    <mergeCell ref="I21:K21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3577,29 +3548,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" customWidth="1"/>
-    <col min="11" max="11" width="5.21875" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="5.44140625" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" customWidth="1"/>
-    <col min="16" max="17" width="6.44140625" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.453125" customWidth="1"/>
+    <col min="4" max="4" width="4.6328125" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="6.54296875" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" customWidth="1"/>
+    <col min="13" max="13" width="5.453125" customWidth="1"/>
+    <col min="14" max="14" width="6.54296875" customWidth="1"/>
+    <col min="15" max="15" width="5.54296875" customWidth="1"/>
+    <col min="16" max="17" width="6.453125" customWidth="1"/>
+    <col min="18" max="18" width="4.90625" customWidth="1"/>
     <col min="19" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3622,7 +3593,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3643,7 +3614,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3666,7 +3637,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3687,7 +3658,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
         <v>2</v>
       </c>
@@ -3714,7 +3685,7 @@
       <c r="R5" s="84"/>
       <c r="S5" s="84"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -3765,7 +3736,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3818,7 +3789,7 @@
       </c>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3871,7 +3842,7 @@
       </c>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3924,7 +3895,7 @@
       </c>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3977,7 +3948,7 @@
       </c>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -4030,7 +4001,7 @@
       </c>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <f t="shared" ref="B12:F12" si="0">SUM(B7:B11)</f>
@@ -4066,7 +4037,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="83" t="s">
         <v>15</v>
       </c>
@@ -4093,7 +4064,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -4130,7 +4101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -4180,7 +4151,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -4230,7 +4201,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -4280,7 +4251,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -4330,7 +4301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -4379,7 +4350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4397,7 +4368,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -4423,7 +4394,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4444,7 +4415,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>5</v>
@@ -4481,7 +4452,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -4523,7 +4494,7 @@
       <c r="R24" s="1"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -4565,7 +4536,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -4607,7 +4578,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -4649,7 +4620,7 @@
       <c r="R27" s="1"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -4691,7 +4662,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -4729,7 +4700,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4759,7 +4730,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
@@ -4785,7 +4756,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4806,7 +4777,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
@@ -4829,7 +4800,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
         <v>26</v>
       </c>
@@ -4852,7 +4823,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>23</v>
       </c>
@@ -4875,7 +4846,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>27</v>
       </c>
@@ -4898,7 +4869,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>28</v>
       </c>
@@ -4921,7 +4892,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>29</v>
       </c>
@@ -4944,7 +4915,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>30</v>
       </c>
@@ -4967,7 +4938,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>31</v>
       </c>
@@ -4990,7 +4961,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>32</v>
       </c>

--- a/ORscheduling_Complete (1).xlsx
+++ b/ORscheduling_Complete (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igiannakopoulos\Desktop\MBA\Exercise - Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igiannakopoulos\Desktop\MBA\New\Thesis\ThesisSch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E3D9B3-81AB-4B60-8426-4AF8B1B4E739}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17FA0B9-9ED5-4AB3-A9B2-C54A24733270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Operating Room Scheduling" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -774,19 +774,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -883,10 +871,6 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -920,6 +904,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1142,7 +1130,7 @@
   <dimension ref="A1:X138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection sqref="A1:X138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1154,8 +1142,7 @@
     <col min="5" max="6" width="5.44140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.44140625" customWidth="1"/>
     <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -1166,8 +1153,8 @@
     <col min="19" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="29"/>
@@ -1188,8 +1175,13 @@
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+    </row>
+    <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1211,8 +1203,13 @@
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
       <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+    </row>
+    <row r="3" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1236,8 +1233,13 @@
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -1257,1263 +1259,1403 @@
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="83" t="s">
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+    </row>
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="83" t="s">
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="77"/>
+      <c r="B6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
+      <c r="M6" s="77"/>
+      <c r="N6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="77" t="s">
         <v>9</v>
       </c>
       <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+    </row>
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="39">
         <v>1</v>
       </c>
-      <c r="C7" s="44">
-        <v>2</v>
-      </c>
-      <c r="D7" s="44">
+      <c r="C7" s="40">
+        <v>2</v>
+      </c>
+      <c r="D7" s="40">
         <v>1</v>
       </c>
-      <c r="E7" s="44">
-        <v>2</v>
-      </c>
-      <c r="F7" s="45">
+      <c r="E7" s="40">
+        <v>2</v>
+      </c>
+      <c r="F7" s="41">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="51">
-        <v>0</v>
-      </c>
-      <c r="I7" s="52">
-        <v>0</v>
-      </c>
-      <c r="J7" s="52">
-        <v>0</v>
-      </c>
-      <c r="K7" s="52">
-        <v>0</v>
-      </c>
-      <c r="L7" s="53">
-        <v>0</v>
-      </c>
-      <c r="M7" s="74"/>
-      <c r="N7" s="43">
-        <f>MAX($B$7:$F$7)</f>
-        <v>2</v>
-      </c>
-      <c r="O7" s="44">
-        <f t="shared" ref="O7:R7" si="0">MAX($B$7:$F$7)</f>
-        <v>2</v>
-      </c>
-      <c r="P7" s="44">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q7" s="44">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R7" s="45">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S7" s="72"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="77"/>
+      <c r="H7" s="47">
+        <v>0</v>
+      </c>
+      <c r="I7" s="48">
+        <v>0</v>
+      </c>
+      <c r="J7" s="48">
+        <v>0</v>
+      </c>
+      <c r="K7" s="48">
+        <v>0</v>
+      </c>
+      <c r="L7" s="49">
+        <v>0</v>
+      </c>
+      <c r="M7" s="68"/>
+      <c r="N7" s="39">
+        <v>2</v>
+      </c>
+      <c r="O7" s="40">
+        <v>2</v>
+      </c>
+      <c r="P7" s="40">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="40">
+        <v>2</v>
+      </c>
+      <c r="R7" s="41">
+        <v>2</v>
+      </c>
+      <c r="S7" s="77"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="42">
         <v>4</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="37">
         <v>4</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="37">
         <v>8</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="37">
         <v>4</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="43">
         <v>4</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="54">
+      <c r="G8" s="77"/>
+      <c r="H8" s="50">
         <v>3</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="38">
         <v>3</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="38">
         <v>6</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="38">
         <v>3</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8" s="51">
         <v>3</v>
       </c>
-      <c r="M8" s="74"/>
-      <c r="N8" s="46">
-        <f>MAX($B$8:$F$8)</f>
+      <c r="M8" s="68"/>
+      <c r="N8" s="42">
         <v>8</v>
       </c>
-      <c r="O8" s="41">
-        <f t="shared" ref="O8:R8" si="1">MAX($B$8:$F$8)</f>
+      <c r="O8" s="37">
         <v>8</v>
       </c>
-      <c r="P8" s="41">
-        <f t="shared" si="1"/>
+      <c r="P8" s="37">
         <v>8</v>
       </c>
-      <c r="Q8" s="41">
-        <f t="shared" si="1"/>
+      <c r="Q8" s="37">
         <v>8</v>
       </c>
-      <c r="R8" s="47">
-        <f t="shared" si="1"/>
+      <c r="R8" s="43">
         <v>8</v>
       </c>
-      <c r="S8" s="72"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="77"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+    </row>
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="46">
-        <v>2</v>
-      </c>
-      <c r="C9" s="41">
-        <v>2</v>
-      </c>
-      <c r="D9" s="41">
-        <v>2</v>
-      </c>
-      <c r="E9" s="41">
+      <c r="B9" s="42">
+        <v>2</v>
+      </c>
+      <c r="C9" s="37">
+        <v>2</v>
+      </c>
+      <c r="D9" s="37">
+        <v>2</v>
+      </c>
+      <c r="E9" s="37">
         <v>4</v>
       </c>
-      <c r="F9" s="47">
-        <v>2</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="54">
-        <v>0</v>
-      </c>
-      <c r="I9" s="42">
-        <v>0</v>
-      </c>
-      <c r="J9" s="42">
-        <v>0</v>
-      </c>
-      <c r="K9" s="42">
-        <v>2</v>
-      </c>
-      <c r="L9" s="55">
-        <v>0</v>
-      </c>
-      <c r="M9" s="74"/>
-      <c r="N9" s="46">
-        <f>MAX($B$9:$F$9)</f>
+      <c r="F9" s="43">
+        <v>2</v>
+      </c>
+      <c r="G9" s="77"/>
+      <c r="H9" s="50">
+        <v>0</v>
+      </c>
+      <c r="I9" s="38">
+        <v>0</v>
+      </c>
+      <c r="J9" s="38">
+        <v>0</v>
+      </c>
+      <c r="K9" s="38">
+        <v>2</v>
+      </c>
+      <c r="L9" s="51">
+        <v>0</v>
+      </c>
+      <c r="M9" s="68"/>
+      <c r="N9" s="42">
         <v>4</v>
       </c>
-      <c r="O9" s="41">
-        <f t="shared" ref="O9:R9" si="2">MAX($B$9:$F$9)</f>
+      <c r="O9" s="37">
         <v>4</v>
       </c>
-      <c r="P9" s="41">
-        <f t="shared" si="2"/>
+      <c r="P9" s="37">
         <v>4</v>
       </c>
-      <c r="Q9" s="41">
-        <f t="shared" si="2"/>
+      <c r="Q9" s="37">
         <v>4</v>
       </c>
-      <c r="R9" s="47">
-        <f t="shared" si="2"/>
+      <c r="R9" s="43">
         <v>4</v>
       </c>
-      <c r="S9" s="72"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="77"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+    </row>
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="46">
-        <v>2</v>
-      </c>
-      <c r="C10" s="41">
-        <v>2</v>
-      </c>
-      <c r="D10" s="41">
-        <v>2</v>
-      </c>
-      <c r="E10" s="41">
-        <v>2</v>
-      </c>
-      <c r="F10" s="47">
-        <v>2</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="54">
+      <c r="B10" s="42">
+        <v>2</v>
+      </c>
+      <c r="C10" s="37">
+        <v>2</v>
+      </c>
+      <c r="D10" s="37">
+        <v>2</v>
+      </c>
+      <c r="E10" s="37">
+        <v>2</v>
+      </c>
+      <c r="F10" s="43">
+        <v>2</v>
+      </c>
+      <c r="G10" s="77"/>
+      <c r="H10" s="50">
         <v>1</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="38">
         <v>1</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="38">
         <v>1</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="38">
         <v>1</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10" s="51">
         <v>1</v>
       </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="46">
-        <f>MAX($B$10:$F$10)</f>
-        <v>2</v>
-      </c>
-      <c r="O10" s="41">
-        <f t="shared" ref="O10:R10" si="3">MAX($B$10:$F$10)</f>
-        <v>2</v>
-      </c>
-      <c r="P10" s="41">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Q10" s="41">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="R10" s="47">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S10" s="72"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="M10" s="68"/>
+      <c r="N10" s="42">
+        <v>2</v>
+      </c>
+      <c r="O10" s="37">
+        <v>2</v>
+      </c>
+      <c r="P10" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="37">
+        <v>2</v>
+      </c>
+      <c r="R10" s="43">
+        <v>2</v>
+      </c>
+      <c r="S10" s="77"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+    </row>
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="42">
         <v>4</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="37">
         <v>4</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="37">
         <v>4</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="37">
         <v>4</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="43">
         <v>4</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="54">
+      <c r="G11" s="77"/>
+      <c r="H11" s="50">
         <v>3</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="38">
         <v>3</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="38">
         <v>3</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="38">
         <v>3</v>
       </c>
-      <c r="L11" s="55">
+      <c r="L11" s="51">
         <v>3</v>
       </c>
-      <c r="M11" s="74"/>
-      <c r="N11" s="46">
-        <f>MAX($B$11:$F$11)</f>
+      <c r="M11" s="68"/>
+      <c r="N11" s="42">
         <v>4</v>
       </c>
-      <c r="O11" s="41">
-        <f t="shared" ref="O11:R11" si="4">MAX($B$11:$F$11)</f>
+      <c r="O11" s="37">
         <v>4</v>
       </c>
-      <c r="P11" s="41">
-        <f t="shared" si="4"/>
+      <c r="P11" s="37">
         <v>4</v>
       </c>
-      <c r="Q11" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q11" s="37">
         <v>4</v>
       </c>
-      <c r="R11" s="47">
-        <f t="shared" si="4"/>
+      <c r="R11" s="43">
         <v>4</v>
       </c>
-      <c r="S11" s="72"/>
-    </row>
-    <row r="12" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="77"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+    </row>
+    <row r="12" spans="1:24" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="46">
-        <v>2</v>
-      </c>
-      <c r="C12" s="41">
-        <v>2</v>
-      </c>
-      <c r="D12" s="41">
-        <v>2</v>
-      </c>
-      <c r="E12" s="41">
-        <v>2</v>
-      </c>
-      <c r="F12" s="47">
-        <v>2</v>
-      </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="54">
-        <v>2</v>
-      </c>
-      <c r="I12" s="42">
-        <v>2</v>
-      </c>
-      <c r="J12" s="42">
+      <c r="B12" s="42">
+        <v>2</v>
+      </c>
+      <c r="C12" s="37">
+        <v>2</v>
+      </c>
+      <c r="D12" s="37">
+        <v>2</v>
+      </c>
+      <c r="E12" s="37">
+        <v>2</v>
+      </c>
+      <c r="F12" s="43">
+        <v>2</v>
+      </c>
+      <c r="G12" s="77"/>
+      <c r="H12" s="50">
+        <v>2</v>
+      </c>
+      <c r="I12" s="38">
+        <v>2</v>
+      </c>
+      <c r="J12" s="38">
         <v>1</v>
       </c>
-      <c r="K12" s="42">
-        <v>2</v>
-      </c>
-      <c r="L12" s="55">
+      <c r="K12" s="38">
+        <v>2</v>
+      </c>
+      <c r="L12" s="51">
         <v>1</v>
       </c>
-      <c r="M12" s="74"/>
-      <c r="N12" s="46">
-        <f>MAX($B$12:$F$12)</f>
-        <v>2</v>
-      </c>
-      <c r="O12" s="41">
-        <f t="shared" ref="O12:R12" si="5">MAX($B$12:$F$12)</f>
-        <v>2</v>
-      </c>
-      <c r="P12" s="41">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Q12" s="41">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="R12" s="47">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="S12" s="72"/>
-    </row>
-    <row r="13" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="M12" s="68"/>
+      <c r="N12" s="42">
+        <v>2</v>
+      </c>
+      <c r="O12" s="37">
+        <v>2</v>
+      </c>
+      <c r="P12" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="37">
+        <v>2</v>
+      </c>
+      <c r="R12" s="43">
+        <v>2</v>
+      </c>
+      <c r="S12" s="77"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+    </row>
+    <row r="13" spans="1:24" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="46">
-        <v>2</v>
-      </c>
-      <c r="C13" s="41">
-        <v>2</v>
-      </c>
-      <c r="D13" s="41">
-        <v>2</v>
-      </c>
-      <c r="E13" s="41">
-        <v>2</v>
-      </c>
-      <c r="F13" s="47">
+      <c r="B13" s="42">
+        <v>2</v>
+      </c>
+      <c r="C13" s="37">
+        <v>2</v>
+      </c>
+      <c r="D13" s="37">
+        <v>2</v>
+      </c>
+      <c r="E13" s="37">
+        <v>2</v>
+      </c>
+      <c r="F13" s="43">
         <v>4</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="54">
+      <c r="G13" s="77"/>
+      <c r="H13" s="50">
         <v>1</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="38">
         <v>1</v>
       </c>
-      <c r="J13" s="42">
-        <v>0</v>
-      </c>
-      <c r="K13" s="42">
+      <c r="J13" s="38">
+        <v>0</v>
+      </c>
+      <c r="K13" s="38">
         <v>1</v>
       </c>
-      <c r="L13" s="55">
-        <v>2</v>
-      </c>
-      <c r="M13" s="74"/>
-      <c r="N13" s="46">
-        <f>MAX($B$13:$F$13)</f>
+      <c r="L13" s="51">
+        <v>2</v>
+      </c>
+      <c r="M13" s="68"/>
+      <c r="N13" s="42">
         <v>4</v>
       </c>
-      <c r="O13" s="41">
-        <f t="shared" ref="O13:R13" si="6">MAX($B$13:$F$13)</f>
+      <c r="O13" s="37">
         <v>4</v>
       </c>
-      <c r="P13" s="41">
-        <f t="shared" si="6"/>
+      <c r="P13" s="37">
         <v>4</v>
       </c>
-      <c r="Q13" s="41">
-        <f t="shared" si="6"/>
+      <c r="Q13" s="37">
         <v>4</v>
       </c>
-      <c r="R13" s="47">
-        <f t="shared" si="6"/>
+      <c r="R13" s="43">
         <v>4</v>
       </c>
-      <c r="S13" s="72"/>
-    </row>
-    <row r="14" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="S13" s="77"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+    </row>
+    <row r="14" spans="1:24" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="46">
-        <v>2</v>
-      </c>
-      <c r="C14" s="41">
+      <c r="B14" s="42">
+        <v>2</v>
+      </c>
+      <c r="C14" s="37">
         <v>1</v>
       </c>
-      <c r="D14" s="41">
-        <v>2</v>
-      </c>
-      <c r="E14" s="41">
+      <c r="D14" s="37">
+        <v>2</v>
+      </c>
+      <c r="E14" s="37">
         <v>1</v>
       </c>
-      <c r="F14" s="47">
-        <v>2</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="54">
+      <c r="F14" s="43">
+        <v>2</v>
+      </c>
+      <c r="G14" s="77"/>
+      <c r="H14" s="50">
         <v>1</v>
       </c>
-      <c r="I14" s="42">
-        <v>0</v>
-      </c>
-      <c r="J14" s="42">
+      <c r="I14" s="38">
+        <v>0</v>
+      </c>
+      <c r="J14" s="38">
         <v>1</v>
       </c>
-      <c r="K14" s="42">
-        <v>0</v>
-      </c>
-      <c r="L14" s="55">
-        <v>0</v>
-      </c>
-      <c r="M14" s="74"/>
-      <c r="N14" s="46">
-        <f>MAX($B$14:$F$14)</f>
-        <v>2</v>
-      </c>
-      <c r="O14" s="41">
-        <f t="shared" ref="O14:R14" si="7">MAX($B$14:$F$14)</f>
-        <v>2</v>
-      </c>
-      <c r="P14" s="41">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Q14" s="41">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="R14" s="47">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S14" s="72"/>
-    </row>
-    <row r="15" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="K14" s="38">
+        <v>0</v>
+      </c>
+      <c r="L14" s="51">
+        <v>0</v>
+      </c>
+      <c r="M14" s="68"/>
+      <c r="N14" s="42">
+        <v>2</v>
+      </c>
+      <c r="O14" s="37">
+        <v>2</v>
+      </c>
+      <c r="P14" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="37">
+        <v>2</v>
+      </c>
+      <c r="R14" s="43">
+        <v>2</v>
+      </c>
+      <c r="S14" s="77"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+    </row>
+    <row r="15" spans="1:24" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="42">
         <v>4</v>
       </c>
-      <c r="C15" s="41">
-        <v>2</v>
-      </c>
-      <c r="D15" s="41">
+      <c r="C15" s="37">
+        <v>2</v>
+      </c>
+      <c r="D15" s="37">
         <v>4</v>
       </c>
-      <c r="E15" s="41">
-        <v>2</v>
-      </c>
-      <c r="F15" s="47">
+      <c r="E15" s="37">
+        <v>2</v>
+      </c>
+      <c r="F15" s="43">
         <v>4</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="54">
-        <v>2</v>
-      </c>
-      <c r="I15" s="42">
+      <c r="G15" s="77"/>
+      <c r="H15" s="50">
+        <v>2</v>
+      </c>
+      <c r="I15" s="38">
         <v>1</v>
       </c>
-      <c r="J15" s="42">
-        <v>2</v>
-      </c>
-      <c r="K15" s="42">
+      <c r="J15" s="38">
+        <v>2</v>
+      </c>
+      <c r="K15" s="38">
         <v>1</v>
       </c>
-      <c r="L15" s="55">
-        <v>2</v>
-      </c>
-      <c r="M15" s="74"/>
-      <c r="N15" s="46">
-        <f>MAX($B$15:$F$15)</f>
+      <c r="L15" s="51">
+        <v>2</v>
+      </c>
+      <c r="M15" s="68"/>
+      <c r="N15" s="42">
         <v>4</v>
       </c>
-      <c r="O15" s="41">
-        <f t="shared" ref="O15:R15" si="8">MAX($B$15:$F$15)</f>
+      <c r="O15" s="37">
         <v>4</v>
       </c>
-      <c r="P15" s="41">
-        <f t="shared" si="8"/>
+      <c r="P15" s="37">
         <v>4</v>
       </c>
-      <c r="Q15" s="41">
-        <f t="shared" si="8"/>
+      <c r="Q15" s="37">
         <v>4</v>
       </c>
-      <c r="R15" s="47">
-        <f t="shared" si="8"/>
+      <c r="R15" s="43">
         <v>4</v>
       </c>
-      <c r="S15" s="72"/>
-    </row>
-    <row r="16" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="S15" s="77"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+    </row>
+    <row r="16" spans="1:24" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="46">
-        <v>2</v>
-      </c>
-      <c r="C16" s="41">
-        <v>2</v>
-      </c>
-      <c r="D16" s="41">
-        <v>2</v>
-      </c>
-      <c r="E16" s="41">
-        <v>2</v>
-      </c>
-      <c r="F16" s="47">
-        <v>2</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="54">
-        <v>0</v>
-      </c>
-      <c r="I16" s="42">
-        <v>0</v>
-      </c>
-      <c r="J16" s="42">
-        <v>0</v>
-      </c>
-      <c r="K16" s="42">
-        <v>0</v>
-      </c>
-      <c r="L16" s="55">
+      <c r="B16" s="42">
+        <v>2</v>
+      </c>
+      <c r="C16" s="37">
+        <v>2</v>
+      </c>
+      <c r="D16" s="37">
+        <v>2</v>
+      </c>
+      <c r="E16" s="37">
+        <v>2</v>
+      </c>
+      <c r="F16" s="43">
+        <v>2</v>
+      </c>
+      <c r="G16" s="77"/>
+      <c r="H16" s="50">
+        <v>0</v>
+      </c>
+      <c r="I16" s="38">
+        <v>0</v>
+      </c>
+      <c r="J16" s="38">
+        <v>0</v>
+      </c>
+      <c r="K16" s="38">
+        <v>0</v>
+      </c>
+      <c r="L16" s="51">
         <v>1</v>
       </c>
-      <c r="M16" s="74"/>
-      <c r="N16" s="46">
-        <f>MAX($B$16:$F$16)</f>
-        <v>2</v>
-      </c>
-      <c r="O16" s="41">
-        <f t="shared" ref="O16:R16" si="9">MAX($B$16:$F$16)</f>
-        <v>2</v>
-      </c>
-      <c r="P16" s="41">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="Q16" s="41">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="R16" s="47">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="S16" s="72"/>
-    </row>
-    <row r="17" spans="1:21" s="38" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="M16" s="68"/>
+      <c r="N16" s="42">
+        <v>2</v>
+      </c>
+      <c r="O16" s="37">
+        <v>2</v>
+      </c>
+      <c r="P16" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="37">
+        <v>2</v>
+      </c>
+      <c r="R16" s="43">
+        <v>2</v>
+      </c>
+      <c r="S16" s="77"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+    </row>
+    <row r="17" spans="1:24" s="34" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="48">
+      <c r="B17" s="44">
         <v>1</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="45">
         <v>1</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="45">
         <v>1</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="45">
         <v>1</v>
       </c>
-      <c r="F17" s="50">
-        <v>2</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="56">
-        <v>0</v>
-      </c>
-      <c r="I17" s="57">
-        <v>0</v>
-      </c>
-      <c r="J17" s="57">
-        <v>0</v>
-      </c>
-      <c r="K17" s="57">
-        <v>0</v>
-      </c>
-      <c r="L17" s="58">
-        <v>0</v>
-      </c>
-      <c r="M17" s="74"/>
-      <c r="N17" s="48">
+      <c r="F17" s="46">
+        <v>2</v>
+      </c>
+      <c r="G17" s="77"/>
+      <c r="H17" s="52">
+        <v>0</v>
+      </c>
+      <c r="I17" s="53">
+        <v>0</v>
+      </c>
+      <c r="J17" s="53">
+        <v>0</v>
+      </c>
+      <c r="K17" s="53">
+        <v>0</v>
+      </c>
+      <c r="L17" s="54">
+        <v>0</v>
+      </c>
+      <c r="M17" s="68"/>
+      <c r="N17" s="44">
         <v>1</v>
       </c>
-      <c r="O17" s="49">
+      <c r="O17" s="45">
         <v>1</v>
       </c>
-      <c r="P17" s="49">
+      <c r="P17" s="45">
         <v>1</v>
       </c>
-      <c r="Q17" s="49">
+      <c r="Q17" s="45">
         <v>1</v>
       </c>
-      <c r="R17" s="50">
-        <f t="shared" ref="R17" si="10">MAX($B$17:$F$17)</f>
-        <v>2</v>
-      </c>
-      <c r="S17" s="72"/>
-    </row>
-    <row r="18" spans="1:21" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="41">
-        <f>SUM(B7:B17)</f>
+      <c r="R17" s="46">
+        <v>2</v>
+      </c>
+      <c r="S17" s="77"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+    </row>
+    <row r="18" spans="1:24" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
+      <c r="B18" s="37">
         <v>26</v>
       </c>
-      <c r="C18" s="41">
-        <f t="shared" ref="C18:F18" si="11">SUM(C7:C17)</f>
+      <c r="C18" s="37">
         <v>24</v>
       </c>
-      <c r="D18" s="41">
-        <f t="shared" si="11"/>
+      <c r="D18" s="37">
         <v>30</v>
       </c>
-      <c r="E18" s="41">
-        <f t="shared" si="11"/>
+      <c r="E18" s="37">
         <v>26</v>
       </c>
-      <c r="F18" s="41">
-        <f t="shared" si="11"/>
+      <c r="F18" s="37">
         <v>29</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="42">
-        <f>SUM(H7:H17)</f>
+      <c r="G18" s="77"/>
+      <c r="H18" s="38">
         <v>13</v>
       </c>
-      <c r="I18" s="42">
-        <f t="shared" ref="I18:L18" si="12">SUM(I7:I17)</f>
+      <c r="I18" s="38">
         <v>11</v>
       </c>
-      <c r="J18" s="42">
-        <f t="shared" si="12"/>
+      <c r="J18" s="38">
         <v>14</v>
       </c>
-      <c r="K18" s="42">
-        <f t="shared" si="12"/>
+      <c r="K18" s="38">
         <v>13</v>
       </c>
-      <c r="L18" s="42">
-        <f t="shared" si="12"/>
+      <c r="L18" s="38">
         <v>13</v>
       </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="1">
-        <f>SUM(N7:N17)</f>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77">
         <v>35</v>
       </c>
-      <c r="O18" s="37">
-        <f>SUM(O7:O17)</f>
+      <c r="O18" s="77">
         <v>35</v>
       </c>
-      <c r="P18" s="37">
-        <f>SUM(P7:P17)</f>
+      <c r="P18" s="77">
         <v>35</v>
       </c>
-      <c r="Q18" s="37">
-        <f>SUM(Q7:Q17)</f>
+      <c r="Q18" s="77">
         <v>35</v>
       </c>
-      <c r="R18" s="37">
-        <f>SUM(R7:R17)</f>
+      <c r="R18" s="77">
         <v>36</v>
       </c>
       <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+    </row>
+    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
       <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+    </row>
+    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="83" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
       <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+    </row>
+    <row r="21" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="77"/>
+      <c r="B21" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="82" t="s">
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
       <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+    </row>
+    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="51">
-        <f>TRUNC(SUM(H7:L7))</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="53">
-        <f>TRUNC(SUM(N7:R7))</f>
+      <c r="B22" s="47">
+        <v>0</v>
+      </c>
+      <c r="C22" s="49">
         <v>10</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="61">
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="57">
         <v>14</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="36" t="str">
-        <f>IF(B7&lt;H7,1,"")</f>
-        <v/>
-      </c>
-      <c r="K22" s="36" t="str">
-        <f t="shared" ref="K22:N22" si="13">IF(C7&lt;I7,1,"")</f>
-        <v/>
-      </c>
-      <c r="L22" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M22" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="N22" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="78"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
       <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+    </row>
+    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="54">
-        <f t="shared" ref="B23:B32" si="14">TRUNC(SUM(H8:L8))</f>
+      <c r="B23" s="50">
         <v>18</v>
       </c>
-      <c r="C23" s="55">
-        <f t="shared" ref="C23:C32" si="15">TRUNC(SUM(N8:R8))</f>
+      <c r="C23" s="51">
         <v>40</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="62">
-        <f>(B8+C8+D8+E8+F8)*7*I23</f>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="58">
         <v>126</v>
       </c>
-      <c r="I23" s="87">
+      <c r="I23" s="83">
         <v>0.75</v>
       </c>
-      <c r="J23" s="36" t="str">
-        <f>IF(B8&lt;H8,1,"")</f>
-        <v/>
-      </c>
-      <c r="K23" s="36" t="str">
-        <f t="shared" ref="K23:N26" si="16">IF(C8&lt;I8,1,"")</f>
-        <v/>
-      </c>
-      <c r="L23" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M23" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="N23" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="78"/>
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
       <c r="R23" s="29"/>
       <c r="S23" s="2"/>
+      <c r="T23" s="78"/>
       <c r="U23" s="29"/>
-    </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+    </row>
+    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="54">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="C24" s="55">
-        <f t="shared" si="15"/>
+      <c r="B24" s="50">
+        <v>2</v>
+      </c>
+      <c r="C24" s="51">
         <v>20</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="62">
-        <f t="shared" ref="H24:H31" si="17">(B9+C9+D9+E9+F9)*7*I24</f>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="58">
         <v>50.4</v>
       </c>
-      <c r="I24" s="87">
+      <c r="I24" s="83">
         <v>0.6</v>
       </c>
-      <c r="J24" s="36" t="str">
-        <f>IF(B9&lt;H9,1,"")</f>
-        <v/>
-      </c>
-      <c r="K24" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="L24" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M24" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="N24" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="78"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
       <c r="S24" s="2"/>
+      <c r="T24" s="78"/>
       <c r="U24" s="29"/>
-    </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+    </row>
+    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="54">
-        <f t="shared" si="14"/>
+      <c r="B25" s="50">
         <v>5</v>
       </c>
-      <c r="C25" s="55">
-        <f t="shared" si="15"/>
+      <c r="C25" s="51">
         <v>10</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="62">
-        <f t="shared" si="17"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="58">
         <v>49</v>
       </c>
-      <c r="I25" s="87">
+      <c r="I25" s="83">
         <v>0.7</v>
       </c>
-      <c r="J25" s="36" t="str">
-        <f>IF(B10&lt;H10,1,"")</f>
-        <v/>
-      </c>
-      <c r="K25" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="L25" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M25" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="N25" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="78"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="2"/>
+      <c r="T25" s="78"/>
       <c r="U25" s="29"/>
-    </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+    </row>
+    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="54">
-        <f t="shared" si="14"/>
+      <c r="B26" s="50">
         <v>15</v>
       </c>
-      <c r="C26" s="55">
-        <f t="shared" si="15"/>
+      <c r="C26" s="51">
         <v>20</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="62">
-        <f t="shared" si="17"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="58">
         <v>105</v>
       </c>
-      <c r="I26" s="87">
+      <c r="I26" s="83">
         <v>0.75</v>
       </c>
-      <c r="J26" s="36" t="str">
-        <f>IF(B11&lt;H11,1,"")</f>
-        <v/>
-      </c>
-      <c r="K26" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="L26" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M26" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="N26" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="78"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
       <c r="S26" s="2"/>
+      <c r="T26" s="78"/>
       <c r="U26" s="29"/>
-    </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+    </row>
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="54">
-        <f t="shared" si="14"/>
+      <c r="B27" s="50">
         <v>8</v>
       </c>
-      <c r="C27" s="55">
-        <f t="shared" si="15"/>
+      <c r="C27" s="51">
         <v>10</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="62">
-        <f t="shared" si="17"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="58">
         <v>56</v>
       </c>
-      <c r="I27" s="87">
+      <c r="I27" s="83">
         <v>0.8</v>
       </c>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
       <c r="S27" s="2"/>
+      <c r="T27" s="78"/>
       <c r="U27" s="29"/>
-    </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+    </row>
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="54">
-        <f t="shared" si="14"/>
+      <c r="B28" s="50">
         <v>5</v>
       </c>
-      <c r="C28" s="55">
-        <f t="shared" si="15"/>
+      <c r="C28" s="51">
         <v>20</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="62">
-        <f t="shared" si="17"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="58">
         <v>54.6</v>
       </c>
-      <c r="I28" s="88">
+      <c r="I28" s="84">
         <v>0.65</v>
       </c>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
       <c r="S28" s="2"/>
-      <c r="U28" s="39"/>
-    </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="T28" s="78"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+    </row>
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="54">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="C29" s="55">
-        <f t="shared" si="15"/>
+      <c r="B29" s="50">
+        <v>2</v>
+      </c>
+      <c r="C29" s="51">
         <v>10</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="62">
-        <f t="shared" si="17"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="58">
         <v>28</v>
       </c>
-      <c r="I29" s="88">
+      <c r="I29" s="84">
         <v>0.5</v>
       </c>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
       <c r="S29" s="2"/>
+      <c r="T29" s="78"/>
       <c r="U29" s="29"/>
-    </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+    </row>
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="54">
-        <f t="shared" si="14"/>
+      <c r="B30" s="50">
         <v>8</v>
       </c>
-      <c r="C30" s="55">
-        <f t="shared" si="15"/>
+      <c r="C30" s="51">
         <v>20</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="62">
-        <f t="shared" si="17"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="58">
         <v>56</v>
       </c>
-      <c r="I30" s="88">
+      <c r="I30" s="84">
         <v>0.5</v>
       </c>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
       <c r="S30" s="2"/>
+      <c r="T30" s="78"/>
       <c r="U30" s="29"/>
-    </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+    </row>
+    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="54">
-        <f t="shared" si="14"/>
+      <c r="B31" s="50">
         <v>1</v>
       </c>
-      <c r="C31" s="55">
-        <f t="shared" si="15"/>
+      <c r="C31" s="51">
         <v>10</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="62">
-        <f t="shared" si="17"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="58">
         <v>35</v>
       </c>
-      <c r="I31" s="88">
+      <c r="I31" s="84">
         <v>0.5</v>
       </c>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
       <c r="S31" s="2"/>
+      <c r="T31" s="78"/>
       <c r="U31" s="16"/>
-    </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="78"/>
+    </row>
+    <row r="32" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="56">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="C32" s="58">
-        <f t="shared" si="15"/>
+      <c r="B32" s="52">
+        <v>0</v>
+      </c>
+      <c r="C32" s="54">
         <v>6</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="63">
+      <c r="D32" s="56"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="59">
         <v>7</v>
       </c>
-      <c r="I32" s="60"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
       <c r="S32" s="2"/>
-      <c r="U32" s="37"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
     </row>
     <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
       <c r="S33" s="2"/>
-      <c r="U33" s="37"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="77"/>
+      <c r="V33" s="78"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="78"/>
     </row>
     <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="78"/>
       <c r="S34" s="2"/>
-      <c r="U34" s="37"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="77"/>
+      <c r="V34" s="78"/>
+      <c r="W34" s="78"/>
+      <c r="X34" s="78"/>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="78"/>
       <c r="S35" s="2"/>
-      <c r="U35" s="37"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="78"/>
+      <c r="W35" s="78"/>
+      <c r="X35" s="78"/>
     </row>
     <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="78"/>
+      <c r="R36" s="78"/>
       <c r="S36" s="2"/>
-      <c r="U36" s="37"/>
+      <c r="T36" s="78"/>
+      <c r="U36" s="77"/>
+      <c r="V36" s="78"/>
+      <c r="W36" s="78"/>
+      <c r="X36" s="78"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="78"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="78"/>
       <c r="S37" s="2"/>
+      <c r="T37" s="78"/>
+      <c r="U37" s="78"/>
+      <c r="V37" s="78"/>
+      <c r="W37" s="78"/>
+      <c r="X37" s="78"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -2532,13 +2674,19 @@
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
       <c r="N38" s="29"/>
+      <c r="O38" s="78"/>
       <c r="P38" s="29"/>
       <c r="Q38" s="29"/>
       <c r="R38" s="29"/>
       <c r="S38" s="2"/>
+      <c r="T38" s="78"/>
+      <c r="U38" s="78"/>
+      <c r="V38" s="78"/>
+      <c r="W38" s="78"/>
+      <c r="X38" s="78"/>
     </row>
     <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
@@ -2552,29 +2700,35 @@
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
+      <c r="O39" s="78"/>
       <c r="P39" s="29"/>
       <c r="Q39" s="29"/>
       <c r="R39" s="29"/>
       <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
+      <c r="T39" s="78"/>
+      <c r="U39" s="78"/>
+      <c r="V39" s="78"/>
+      <c r="W39" s="78"/>
+      <c r="X39" s="78"/>
+    </row>
+    <row r="40" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="77"/>
+      <c r="B40" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="77"/>
       <c r="H40" s="16" t="s">
         <v>49</v>
       </c>
@@ -2588,81 +2742,78 @@
       <c r="N40" s="29" t="s">
         <v>45</v>
       </c>
+      <c r="O40" s="78"/>
       <c r="P40" s="29"/>
-      <c r="Q40" s="86" t="s">
+      <c r="Q40" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="R40" s="86"/>
-      <c r="S40" s="86"/>
-      <c r="T40" s="79" t="s">
+      <c r="R40" s="80"/>
+      <c r="S40" s="80"/>
+      <c r="T40" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="U40" s="79"/>
-      <c r="V40" s="79"/>
-      <c r="W40" s="79" t="s">
+      <c r="U40" s="73"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="X40" s="79"/>
+      <c r="X40" s="73"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="64">
-        <v>0</v>
-      </c>
-      <c r="C41" s="65">
+      <c r="B41" s="60">
+        <v>0</v>
+      </c>
+      <c r="C41" s="61">
         <v>1</v>
       </c>
-      <c r="D41" s="65">
-        <v>0</v>
-      </c>
-      <c r="E41" s="65">
-        <v>0</v>
-      </c>
-      <c r="F41" s="66">
+      <c r="D41" s="61">
+        <v>0</v>
+      </c>
+      <c r="E41" s="61">
+        <v>0</v>
+      </c>
+      <c r="F41" s="62">
         <v>1</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="77"/>
       <c r="H41" s="31">
-        <f>TRUNC(SUM(B41:F41))</f>
         <v>2</v>
       </c>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
       <c r="K41" s="29"/>
-      <c r="L41" s="1">
-        <f>7*H41</f>
+      <c r="L41" s="77">
         <v>14</v>
       </c>
       <c r="M41" s="29"/>
-      <c r="N41" s="81">
-        <f>L41/H22</f>
+      <c r="N41" s="75">
         <v>1</v>
       </c>
+      <c r="O41" s="78"/>
       <c r="P41" s="29"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="76">
+      <c r="Q41" s="69"/>
+      <c r="R41" s="70">
         <v>60</v>
       </c>
-      <c r="S41" s="77"/>
-      <c r="T41" s="79">
-        <f>TRUNC((L41*60)/R41)</f>
+      <c r="S41" s="71"/>
+      <c r="T41" s="73">
         <v>14</v>
       </c>
-      <c r="U41" s="79"/>
-      <c r="V41" s="79"/>
-      <c r="W41" s="79">
-        <f>TRUNC(T41/5)</f>
-        <v>2</v>
-      </c>
-      <c r="X41" s="79"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73">
+        <v>2</v>
+      </c>
+      <c r="X41" s="73"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="67">
+      <c r="B42" s="63">
         <v>3</v>
       </c>
       <c r="C42" s="32">
@@ -2674,49 +2825,45 @@
       <c r="E42" s="32">
         <v>3</v>
       </c>
-      <c r="F42" s="68">
+      <c r="F42" s="64">
         <v>3</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="77"/>
       <c r="H42" s="31">
-        <f t="shared" ref="H42:H51" si="18">TRUNC(SUM(B42:F42))</f>
         <v>18</v>
       </c>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
-      <c r="L42" s="72">
-        <f t="shared" ref="L42:L51" si="19">7*H42</f>
+      <c r="L42" s="77">
         <v>126</v>
       </c>
       <c r="M42" s="29"/>
-      <c r="N42" s="81">
-        <f t="shared" ref="N42:N51" si="20">L42/H23</f>
+      <c r="N42" s="75">
         <v>1</v>
       </c>
+      <c r="O42" s="78"/>
       <c r="P42" s="29"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="76">
+      <c r="Q42" s="69"/>
+      <c r="R42" s="70">
         <v>75</v>
       </c>
-      <c r="S42" s="77"/>
-      <c r="T42" s="79">
-        <f t="shared" ref="T42:T51" si="21">TRUNC((L42*60)/R42)</f>
+      <c r="S42" s="71"/>
+      <c r="T42" s="73">
         <v>100</v>
       </c>
-      <c r="U42" s="79"/>
-      <c r="V42" s="79"/>
-      <c r="W42" s="79">
-        <f t="shared" ref="W42:W51" si="22">TRUNC(T42/5)</f>
+      <c r="U42" s="73"/>
+      <c r="V42" s="73"/>
+      <c r="W42" s="73">
         <v>20</v>
       </c>
-      <c r="X42" s="79"/>
+      <c r="X42" s="73"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="67">
+      <c r="B43" s="63">
         <v>0</v>
       </c>
       <c r="C43" s="32">
@@ -2728,49 +2875,45 @@
       <c r="E43" s="32">
         <v>2</v>
       </c>
-      <c r="F43" s="68">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1"/>
+      <c r="F43" s="64">
+        <v>0</v>
+      </c>
+      <c r="G43" s="77"/>
       <c r="H43" s="31">
-        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
-      <c r="L43" s="72">
-        <f t="shared" si="19"/>
+      <c r="L43" s="77">
         <v>14</v>
       </c>
       <c r="M43" s="29"/>
-      <c r="N43" s="81">
-        <f t="shared" si="20"/>
-        <v>0.27777777777777779</v>
-      </c>
+      <c r="N43" s="75">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O43" s="78"/>
       <c r="P43" s="29"/>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="76">
+      <c r="Q43" s="69"/>
+      <c r="R43" s="70">
         <v>45</v>
       </c>
-      <c r="S43" s="77"/>
-      <c r="T43" s="79">
-        <f t="shared" si="21"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="73">
         <v>18</v>
       </c>
-      <c r="U43" s="79"/>
-      <c r="V43" s="79"/>
-      <c r="W43" s="79">
-        <f t="shared" si="22"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="73"/>
+      <c r="W43" s="73">
         <v>3</v>
       </c>
-      <c r="X43" s="79"/>
+      <c r="X43" s="73"/>
     </row>
     <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="67">
+      <c r="B44" s="63">
         <v>1</v>
       </c>
       <c r="C44" s="32">
@@ -2782,49 +2925,45 @@
       <c r="E44" s="32">
         <v>1</v>
       </c>
-      <c r="F44" s="68">
+      <c r="F44" s="64">
         <v>1</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="77"/>
       <c r="H44" s="31">
-        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
-      <c r="L44" s="72">
-        <f t="shared" si="19"/>
+      <c r="L44" s="77">
         <v>35</v>
       </c>
       <c r="M44" s="29"/>
-      <c r="N44" s="81">
-        <f t="shared" si="20"/>
-        <v>0.7142857142857143</v>
-      </c>
+      <c r="N44" s="75">
+        <v>0.71</v>
+      </c>
+      <c r="O44" s="78"/>
       <c r="P44" s="29"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="76">
+      <c r="Q44" s="69"/>
+      <c r="R44" s="70">
         <v>120</v>
       </c>
-      <c r="S44" s="77"/>
-      <c r="T44" s="79">
-        <f t="shared" si="21"/>
+      <c r="S44" s="71"/>
+      <c r="T44" s="73">
         <v>17</v>
       </c>
-      <c r="U44" s="79"/>
-      <c r="V44" s="79"/>
-      <c r="W44" s="79">
-        <f t="shared" si="22"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="73"/>
+      <c r="W44" s="73">
         <v>3</v>
       </c>
-      <c r="X44" s="79"/>
+      <c r="X44" s="73"/>
     </row>
     <row r="45" spans="1:24" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="67">
+      <c r="B45" s="63">
         <v>3</v>
       </c>
       <c r="C45" s="32">
@@ -2836,49 +2975,45 @@
       <c r="E45" s="32">
         <v>3</v>
       </c>
-      <c r="F45" s="68">
+      <c r="F45" s="64">
         <v>3</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="77"/>
       <c r="H45" s="31">
-        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
-      <c r="L45" s="72">
-        <f t="shared" si="19"/>
+      <c r="L45" s="77">
         <v>105</v>
       </c>
       <c r="M45" s="29"/>
-      <c r="N45" s="81">
-        <f t="shared" si="20"/>
+      <c r="N45" s="75">
         <v>1</v>
       </c>
+      <c r="O45" s="78"/>
       <c r="P45" s="29"/>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="76">
+      <c r="Q45" s="69"/>
+      <c r="R45" s="70">
         <v>150</v>
       </c>
-      <c r="S45" s="77"/>
-      <c r="T45" s="79">
-        <f t="shared" si="21"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="73">
         <v>42</v>
       </c>
-      <c r="U45" s="79"/>
-      <c r="V45" s="79"/>
-      <c r="W45" s="79">
-        <f t="shared" si="22"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73">
         <v>8</v>
       </c>
-      <c r="X45" s="79"/>
+      <c r="X45" s="73"/>
     </row>
     <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="67">
+      <c r="B46" s="63">
         <v>2</v>
       </c>
       <c r="C46" s="32">
@@ -2890,50 +3025,45 @@
       <c r="E46" s="32">
         <v>2</v>
       </c>
-      <c r="F46" s="68">
+      <c r="F46" s="64">
         <v>1</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="77"/>
       <c r="H46" s="31">
-        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
       <c r="K46" s="29"/>
-      <c r="L46" s="72">
-        <f t="shared" si="19"/>
+      <c r="L46" s="77">
         <v>56</v>
       </c>
       <c r="M46" s="29"/>
-      <c r="N46" s="81">
-        <f t="shared" si="20"/>
+      <c r="N46" s="75">
         <v>1</v>
       </c>
-      <c r="O46" s="34"/>
+      <c r="O46" s="77"/>
       <c r="P46" s="29"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="76">
+      <c r="Q46" s="69"/>
+      <c r="R46" s="70">
         <v>60</v>
       </c>
-      <c r="S46" s="77"/>
-      <c r="T46" s="79">
-        <f t="shared" si="21"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="73">
         <v>56</v>
       </c>
-      <c r="U46" s="79"/>
-      <c r="V46" s="79"/>
-      <c r="W46" s="79">
-        <f t="shared" si="22"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="73">
         <v>11</v>
       </c>
-      <c r="X46" s="79"/>
+      <c r="X46" s="73"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="67">
+      <c r="B47" s="63">
         <v>1</v>
       </c>
       <c r="C47" s="32">
@@ -2945,50 +3075,45 @@
       <c r="E47" s="32">
         <v>1</v>
       </c>
-      <c r="F47" s="68">
-        <v>2</v>
-      </c>
-      <c r="G47" s="39"/>
+      <c r="F47" s="64">
+        <v>2</v>
+      </c>
+      <c r="G47" s="35"/>
       <c r="H47" s="31">
-        <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="72">
-        <f t="shared" si="19"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="77">
         <v>35</v>
       </c>
-      <c r="M47" s="39"/>
-      <c r="N47" s="81">
-        <f t="shared" si="20"/>
-        <v>0.64102564102564097</v>
-      </c>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="78">
+      <c r="M47" s="35"/>
+      <c r="N47" s="75">
+        <v>0.64</v>
+      </c>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="69"/>
+      <c r="R47" s="72">
         <v>60</v>
       </c>
-      <c r="S47" s="77"/>
-      <c r="T47" s="79">
-        <f t="shared" si="21"/>
+      <c r="S47" s="71"/>
+      <c r="T47" s="73">
         <v>35</v>
       </c>
-      <c r="U47" s="79"/>
-      <c r="V47" s="79"/>
-      <c r="W47" s="79">
-        <f t="shared" si="22"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73">
         <v>7</v>
       </c>
-      <c r="X47" s="79"/>
+      <c r="X47" s="73"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="67">
+      <c r="B48" s="63">
         <v>2</v>
       </c>
       <c r="C48" s="32">
@@ -3000,50 +3125,45 @@
       <c r="E48" s="32">
         <v>1</v>
       </c>
-      <c r="F48" s="68">
-        <v>0</v>
-      </c>
-      <c r="G48" s="39"/>
+      <c r="F48" s="64">
+        <v>0</v>
+      </c>
+      <c r="G48" s="35"/>
       <c r="H48" s="31">
-        <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="72">
-        <f t="shared" si="19"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="77">
         <v>35</v>
       </c>
-      <c r="M48" s="39"/>
-      <c r="N48" s="81">
-        <f t="shared" si="20"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="75">
         <v>1.25</v>
       </c>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="75"/>
-      <c r="R48" s="78">
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="72">
         <v>60</v>
       </c>
-      <c r="S48" s="77"/>
-      <c r="T48" s="79">
-        <f t="shared" si="21"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="73">
         <v>35</v>
       </c>
-      <c r="U48" s="79"/>
-      <c r="V48" s="79"/>
-      <c r="W48" s="79">
-        <f t="shared" si="22"/>
+      <c r="U48" s="73"/>
+      <c r="V48" s="73"/>
+      <c r="W48" s="73">
         <v>7</v>
       </c>
-      <c r="X48" s="79"/>
+      <c r="X48" s="73"/>
     </row>
     <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="67">
+      <c r="B49" s="63">
         <v>2</v>
       </c>
       <c r="C49" s="32">
@@ -3055,43 +3175,45 @@
       <c r="E49" s="32">
         <v>1</v>
       </c>
-      <c r="F49" s="68">
-        <v>2</v>
-      </c>
+      <c r="F49" s="64">
+        <v>2</v>
+      </c>
+      <c r="G49" s="78"/>
       <c r="H49" s="31">
-        <f t="shared" si="18"/>
         <v>8</v>
       </c>
-      <c r="L49" s="72">
-        <f t="shared" si="19"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="77">
         <v>56</v>
       </c>
-      <c r="N49" s="81">
-        <f t="shared" si="20"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="75">
         <v>1</v>
       </c>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="78">
+      <c r="O49" s="78"/>
+      <c r="P49" s="78"/>
+      <c r="Q49" s="69"/>
+      <c r="R49" s="72">
         <v>45</v>
       </c>
-      <c r="S49" s="79"/>
-      <c r="T49" s="79">
-        <f t="shared" si="21"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73">
         <v>74</v>
       </c>
-      <c r="U49" s="79"/>
-      <c r="V49" s="79"/>
-      <c r="W49" s="79">
-        <f t="shared" si="22"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="73"/>
+      <c r="W49" s="73">
         <v>14</v>
       </c>
-      <c r="X49" s="79"/>
+      <c r="X49" s="73"/>
     </row>
     <row r="50" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="67">
+      <c r="B50" s="63">
         <v>0</v>
       </c>
       <c r="C50" s="32">
@@ -3103,469 +3225,2389 @@
       <c r="E50" s="32">
         <v>0</v>
       </c>
-      <c r="F50" s="68">
+      <c r="F50" s="64">
         <v>1</v>
       </c>
+      <c r="G50" s="78"/>
       <c r="H50" s="31">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="L50" s="72">
-        <f t="shared" si="19"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="77">
         <v>7</v>
       </c>
-      <c r="N50" s="81">
-        <f t="shared" si="20"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="75">
         <v>0.2</v>
       </c>
-      <c r="Q50" s="75"/>
-      <c r="R50" s="78">
+      <c r="O50" s="78"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="69"/>
+      <c r="R50" s="72">
         <v>45</v>
       </c>
-      <c r="S50" s="79"/>
-      <c r="T50" s="79">
-        <f t="shared" si="21"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73">
         <v>9</v>
       </c>
-      <c r="U50" s="79"/>
-      <c r="V50" s="79"/>
-      <c r="W50" s="79">
-        <f t="shared" si="22"/>
+      <c r="U50" s="73"/>
+      <c r="V50" s="73"/>
+      <c r="W50" s="73">
         <v>1</v>
       </c>
-      <c r="X50" s="79"/>
+      <c r="X50" s="73"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="69">
-        <v>0</v>
-      </c>
-      <c r="C51" s="70">
+      <c r="B51" s="65">
+        <v>0</v>
+      </c>
+      <c r="C51" s="66">
         <v>1</v>
       </c>
-      <c r="D51" s="70">
-        <v>0</v>
-      </c>
-      <c r="E51" s="70">
-        <v>0</v>
-      </c>
-      <c r="F51" s="71">
-        <v>0</v>
-      </c>
+      <c r="D51" s="66">
+        <v>0</v>
+      </c>
+      <c r="E51" s="66">
+        <v>0</v>
+      </c>
+      <c r="F51" s="67">
+        <v>0</v>
+      </c>
+      <c r="G51" s="78"/>
       <c r="H51" s="31">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="L51" s="72">
-        <f t="shared" si="19"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="77">
         <v>7</v>
       </c>
-      <c r="N51" s="81">
-        <f t="shared" si="20"/>
+      <c r="M51" s="78"/>
+      <c r="N51" s="75">
         <v>1</v>
       </c>
-      <c r="Q51" s="75"/>
-      <c r="R51" s="78">
+      <c r="O51" s="78"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="72">
         <v>45</v>
       </c>
-      <c r="S51" s="79"/>
-      <c r="T51" s="79">
-        <f t="shared" si="21"/>
+      <c r="S51" s="73"/>
+      <c r="T51" s="73">
         <v>9</v>
       </c>
-      <c r="U51" s="79"/>
-      <c r="V51" s="79"/>
-      <c r="W51" s="79">
-        <f t="shared" si="22"/>
+      <c r="U51" s="73"/>
+      <c r="V51" s="73"/>
+      <c r="W51" s="73">
         <v>1</v>
       </c>
-      <c r="X51" s="79"/>
+      <c r="X51" s="73"/>
     </row>
     <row r="52" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V52" s="79"/>
-      <c r="W52" s="79"/>
-      <c r="X52" s="79"/>
+      <c r="A52" s="78"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="78"/>
+      <c r="N52" s="78"/>
+      <c r="O52" s="78"/>
+      <c r="P52" s="78"/>
+      <c r="Q52" s="78"/>
+      <c r="R52" s="78"/>
+      <c r="S52" s="78"/>
+      <c r="T52" s="78"/>
+      <c r="U52" s="78"/>
+      <c r="V52" s="73"/>
+      <c r="W52" s="73"/>
+      <c r="X52" s="73"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="77" t="s">
         <v>23</v>
       </c>
       <c r="B53" s="30">
-        <f>SUM(B41:B51)</f>
         <v>14</v>
       </c>
       <c r="C53" s="30">
-        <f>SUM(C41:C51)</f>
         <v>14</v>
       </c>
       <c r="D53" s="30">
-        <f>SUM(D41:D51)</f>
         <v>14</v>
       </c>
       <c r="E53" s="30">
-        <f>SUM(E41:E51)</f>
         <v>14</v>
       </c>
       <c r="F53" s="30">
-        <f>SUM(F41:F51)</f>
         <v>14</v>
       </c>
-      <c r="V53" s="79"/>
-      <c r="W53" s="79"/>
-      <c r="X53" s="79"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="78"/>
+      <c r="N53" s="78"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="78"/>
+      <c r="R53" s="78"/>
+      <c r="S53" s="78"/>
+      <c r="T53" s="78"/>
+      <c r="U53" s="78"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="73"/>
+      <c r="X53" s="73"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V54" s="79"/>
-      <c r="W54" s="79">
-        <f>SUM(W41:W51)</f>
+      <c r="A54" s="78"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="78"/>
+      <c r="M54" s="78"/>
+      <c r="N54" s="78"/>
+      <c r="O54" s="78"/>
+      <c r="P54" s="78"/>
+      <c r="Q54" s="78"/>
+      <c r="R54" s="78"/>
+      <c r="S54" s="78"/>
+      <c r="T54" s="78"/>
+      <c r="U54" s="78"/>
+      <c r="V54" s="73"/>
+      <c r="W54" s="73">
         <v>77</v>
       </c>
-      <c r="X54" s="79"/>
-    </row>
-    <row r="55" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="X54" s="73"/>
+    </row>
+    <row r="55" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="78"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="78"/>
+      <c r="L55" s="78"/>
+      <c r="M55" s="78"/>
+      <c r="N55" s="78"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="78"/>
+      <c r="R55" s="78"/>
+      <c r="S55" s="78"/>
+      <c r="T55" s="78"/>
+      <c r="U55" s="78"/>
+      <c r="V55" s="78"/>
+      <c r="W55" s="78"/>
+      <c r="X55" s="78"/>
+    </row>
     <row r="56" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="80">
-        <f>SUM(N41:N51)</f>
-        <v>9.0830891330891319</v>
-      </c>
+      <c r="B56" s="74">
+        <v>9.08</v>
+      </c>
+      <c r="C56" s="78"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="78"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="78"/>
+      <c r="L56" s="78"/>
+      <c r="M56" s="78"/>
+      <c r="N56" s="78"/>
+      <c r="O56" s="78"/>
+      <c r="P56" s="78"/>
+      <c r="Q56" s="78"/>
+      <c r="R56" s="78"/>
+      <c r="S56" s="78"/>
+      <c r="T56" s="78"/>
+      <c r="U56" s="78"/>
+      <c r="V56" s="78"/>
+      <c r="W56" s="78"/>
+      <c r="X56" s="78"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
+      <c r="A57" s="78"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="78"/>
+      <c r="N57" s="78"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="78"/>
+      <c r="Q57" s="78"/>
+      <c r="R57" s="78"/>
+      <c r="S57" s="78"/>
+      <c r="T57" s="78"/>
+      <c r="U57" s="78"/>
+      <c r="V57" s="78"/>
+      <c r="W57" s="78"/>
+      <c r="X57" s="78"/>
     </row>
     <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="78"/>
+      <c r="N58" s="78"/>
+      <c r="O58" s="78"/>
+      <c r="P58" s="78"/>
+      <c r="Q58" s="78"/>
+      <c r="R58" s="78"/>
+      <c r="S58" s="78"/>
+      <c r="T58" s="78"/>
+      <c r="U58" s="78"/>
+      <c r="V58" s="78"/>
+      <c r="W58" s="78"/>
+      <c r="X58" s="78"/>
     </row>
     <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="78"/>
+      <c r="N59" s="78"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="78"/>
+      <c r="R59" s="78"/>
+      <c r="S59" s="78"/>
+      <c r="T59" s="78"/>
+      <c r="U59" s="78"/>
+      <c r="V59" s="78"/>
+      <c r="W59" s="78"/>
+      <c r="X59" s="78"/>
     </row>
     <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="78"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="78"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="78"/>
+      <c r="S60" s="78"/>
+      <c r="T60" s="78"/>
+      <c r="U60" s="78"/>
+      <c r="V60" s="78"/>
+      <c r="W60" s="78"/>
+      <c r="X60" s="78"/>
     </row>
     <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="78"/>
+      <c r="N61" s="78"/>
+      <c r="O61" s="78"/>
+      <c r="P61" s="78"/>
+      <c r="Q61" s="78"/>
+      <c r="R61" s="78"/>
+      <c r="S61" s="78"/>
+      <c r="T61" s="78"/>
+      <c r="U61" s="78"/>
+      <c r="V61" s="78"/>
+      <c r="W61" s="78"/>
+      <c r="X61" s="78"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="59"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="78"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="78"/>
+      <c r="N62" s="78"/>
+      <c r="O62" s="78"/>
+      <c r="P62" s="78"/>
+      <c r="Q62" s="78"/>
+      <c r="R62" s="78"/>
+      <c r="S62" s="78"/>
+      <c r="T62" s="78"/>
+      <c r="U62" s="78"/>
+      <c r="V62" s="78"/>
+      <c r="W62" s="78"/>
+      <c r="X62" s="78"/>
     </row>
     <row r="63" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="78"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="78"/>
+      <c r="N63" s="78"/>
+      <c r="O63" s="78"/>
+      <c r="P63" s="78"/>
+      <c r="Q63" s="78"/>
+      <c r="R63" s="78"/>
+      <c r="S63" s="78"/>
+      <c r="T63" s="78"/>
+      <c r="U63" s="78"/>
+      <c r="V63" s="78"/>
+      <c r="W63" s="78"/>
+      <c r="X63" s="78"/>
     </row>
     <row r="64" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-    </row>
-    <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="78"/>
+      <c r="N64" s="78"/>
+      <c r="O64" s="78"/>
+      <c r="P64" s="78"/>
+      <c r="Q64" s="78"/>
+      <c r="R64" s="78"/>
+      <c r="S64" s="78"/>
+      <c r="T64" s="78"/>
+      <c r="U64" s="78"/>
+      <c r="V64" s="78"/>
+      <c r="W64" s="78"/>
+      <c r="X64" s="78"/>
+    </row>
+    <row r="65" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-    </row>
-    <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="78"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="78"/>
+      <c r="N65" s="78"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="78"/>
+      <c r="R65" s="78"/>
+      <c r="S65" s="78"/>
+      <c r="T65" s="78"/>
+      <c r="U65" s="78"/>
+      <c r="V65" s="78"/>
+      <c r="W65" s="78"/>
+      <c r="X65" s="78"/>
+    </row>
+    <row r="66" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-    </row>
-    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="59"/>
-    </row>
-    <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="39"/>
-    </row>
-    <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
-    </row>
-    <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="39"/>
-    </row>
-    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-    </row>
-    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="M74" s="39"/>
-      <c r="N74" s="39"/>
-      <c r="O74" s="39"/>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="39"/>
-    </row>
-    <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39"/>
-    </row>
-    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-    </row>
-    <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="39"/>
-      <c r="O77" s="39"/>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
-    </row>
-    <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
-    </row>
-    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="82"/>
-      <c r="B86" s="82"/>
-      <c r="C86" s="82"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="82"/>
-      <c r="G86" s="82"/>
-      <c r="H86" s="82"/>
-      <c r="I86" s="82"/>
-      <c r="J86" s="82"/>
-      <c r="K86" s="82"/>
-      <c r="L86" s="82"/>
-      <c r="M86" s="82"/>
-      <c r="N86" s="82"/>
-      <c r="O86" s="82"/>
-      <c r="P86" s="82"/>
-      <c r="Q86" s="82"/>
-      <c r="R86" s="82"/>
-    </row>
-    <row r="123" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D123" s="39"/>
-      <c r="E123" s="39"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="39"/>
-      <c r="H123" s="39"/>
-      <c r="I123" s="39"/>
-      <c r="J123" s="39"/>
-      <c r="K123" s="39"/>
-      <c r="L123" s="39"/>
-      <c r="M123" s="39"/>
-      <c r="N123" s="39"/>
-      <c r="O123" s="39"/>
-    </row>
-    <row r="124" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T124" s="40"/>
-    </row>
-    <row r="125" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H125" s="38"/>
-      <c r="T125" s="40"/>
-    </row>
-    <row r="126" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H126" s="40"/>
-      <c r="T126" s="40"/>
-    </row>
-    <row r="127" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H127" s="40"/>
-      <c r="T127" s="40"/>
-    </row>
-    <row r="128" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H128" s="38"/>
-      <c r="T128" s="40"/>
-    </row>
-    <row r="129" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H129" s="38"/>
-      <c r="T129" s="38"/>
-    </row>
-    <row r="130" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D130" s="40"/>
-      <c r="H130" s="40"/>
-      <c r="T130" s="38"/>
-    </row>
-    <row r="131" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H131" s="40"/>
-      <c r="T131" s="38"/>
-    </row>
-    <row r="132" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H132" s="40"/>
-      <c r="T132" s="38"/>
-    </row>
-    <row r="133" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H133" s="40"/>
-      <c r="T133" s="38"/>
-    </row>
-    <row r="134" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H134" s="38"/>
-      <c r="T134" s="38"/>
-    </row>
-    <row r="135" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H135" s="38"/>
-      <c r="T135" s="38"/>
-    </row>
-    <row r="136" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H136" s="38"/>
-    </row>
-    <row r="137" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H137" s="38"/>
-    </row>
-    <row r="138" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H138" s="38"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="78"/>
+      <c r="N66" s="78"/>
+      <c r="O66" s="78"/>
+      <c r="P66" s="78"/>
+      <c r="Q66" s="78"/>
+      <c r="R66" s="78"/>
+      <c r="S66" s="78"/>
+      <c r="T66" s="78"/>
+      <c r="U66" s="78"/>
+      <c r="V66" s="78"/>
+      <c r="W66" s="78"/>
+      <c r="X66" s="78"/>
+    </row>
+    <row r="67" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="78"/>
+      <c r="N67" s="78"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="78"/>
+      <c r="Q67" s="78"/>
+      <c r="R67" s="78"/>
+      <c r="S67" s="78"/>
+      <c r="T67" s="78"/>
+      <c r="U67" s="78"/>
+      <c r="V67" s="78"/>
+      <c r="W67" s="78"/>
+      <c r="X67" s="78"/>
+    </row>
+    <row r="68" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="78"/>
+      <c r="L68" s="78"/>
+      <c r="M68" s="78"/>
+      <c r="N68" s="78"/>
+      <c r="O68" s="78"/>
+      <c r="P68" s="78"/>
+      <c r="Q68" s="78"/>
+      <c r="R68" s="78"/>
+      <c r="S68" s="78"/>
+      <c r="T68" s="78"/>
+      <c r="U68" s="78"/>
+      <c r="V68" s="78"/>
+      <c r="W68" s="78"/>
+      <c r="X68" s="78"/>
+    </row>
+    <row r="69" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="78"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="78"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="78"/>
+      <c r="M69" s="78"/>
+      <c r="N69" s="78"/>
+      <c r="O69" s="78"/>
+      <c r="P69" s="78"/>
+      <c r="Q69" s="78"/>
+      <c r="R69" s="78"/>
+      <c r="S69" s="78"/>
+      <c r="T69" s="78"/>
+      <c r="U69" s="78"/>
+      <c r="V69" s="78"/>
+      <c r="W69" s="78"/>
+      <c r="X69" s="78"/>
+    </row>
+    <row r="70" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="78"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="78"/>
+      <c r="T70" s="78"/>
+      <c r="U70" s="78"/>
+      <c r="V70" s="78"/>
+      <c r="W70" s="78"/>
+      <c r="X70" s="78"/>
+    </row>
+    <row r="71" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="78"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="78"/>
+      <c r="I71" s="78"/>
+      <c r="J71" s="78"/>
+      <c r="K71" s="78"/>
+      <c r="L71" s="78"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="78"/>
+      <c r="T71" s="78"/>
+      <c r="U71" s="78"/>
+      <c r="V71" s="78"/>
+      <c r="W71" s="78"/>
+      <c r="X71" s="78"/>
+    </row>
+    <row r="72" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="78"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="78"/>
+      <c r="I72" s="78"/>
+      <c r="J72" s="78"/>
+      <c r="K72" s="78"/>
+      <c r="L72" s="78"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="78"/>
+      <c r="T72" s="78"/>
+      <c r="U72" s="78"/>
+      <c r="V72" s="78"/>
+      <c r="W72" s="78"/>
+      <c r="X72" s="78"/>
+    </row>
+    <row r="73" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="78"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="78"/>
+      <c r="I73" s="78"/>
+      <c r="J73" s="78"/>
+      <c r="K73" s="78"/>
+      <c r="L73" s="78"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="78"/>
+      <c r="T73" s="78"/>
+      <c r="U73" s="78"/>
+      <c r="V73" s="78"/>
+      <c r="W73" s="78"/>
+      <c r="X73" s="78"/>
+    </row>
+    <row r="74" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="78"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="78"/>
+      <c r="I74" s="78"/>
+      <c r="J74" s="78"/>
+      <c r="K74" s="78"/>
+      <c r="L74" s="78"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="78"/>
+      <c r="T74" s="78"/>
+      <c r="U74" s="78"/>
+      <c r="V74" s="78"/>
+      <c r="W74" s="78"/>
+      <c r="X74" s="78"/>
+    </row>
+    <row r="75" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="78"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="78"/>
+      <c r="I75" s="78"/>
+      <c r="J75" s="78"/>
+      <c r="K75" s="78"/>
+      <c r="L75" s="78"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="78"/>
+      <c r="T75" s="78"/>
+      <c r="U75" s="78"/>
+      <c r="V75" s="78"/>
+      <c r="W75" s="78"/>
+      <c r="X75" s="78"/>
+    </row>
+    <row r="76" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="78"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="78"/>
+      <c r="I76" s="78"/>
+      <c r="J76" s="78"/>
+      <c r="K76" s="78"/>
+      <c r="L76" s="78"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="78"/>
+      <c r="T76" s="78"/>
+      <c r="U76" s="78"/>
+      <c r="V76" s="78"/>
+      <c r="W76" s="78"/>
+      <c r="X76" s="78"/>
+    </row>
+    <row r="77" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="78"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="78"/>
+      <c r="I77" s="78"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="78"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="78"/>
+      <c r="T77" s="78"/>
+      <c r="U77" s="78"/>
+      <c r="V77" s="78"/>
+      <c r="W77" s="78"/>
+      <c r="X77" s="78"/>
+    </row>
+    <row r="78" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="78"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="78"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="78"/>
+      <c r="H78" s="78"/>
+      <c r="I78" s="78"/>
+      <c r="J78" s="78"/>
+      <c r="K78" s="78"/>
+      <c r="L78" s="78"/>
+      <c r="M78" s="78"/>
+      <c r="N78" s="78"/>
+      <c r="O78" s="78"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="78"/>
+      <c r="T78" s="78"/>
+      <c r="U78" s="78"/>
+      <c r="V78" s="78"/>
+      <c r="W78" s="78"/>
+      <c r="X78" s="78"/>
+    </row>
+    <row r="79" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="78"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="78"/>
+      <c r="F79" s="78"/>
+      <c r="G79" s="78"/>
+      <c r="H79" s="78"/>
+      <c r="I79" s="78"/>
+      <c r="J79" s="78"/>
+      <c r="K79" s="78"/>
+      <c r="L79" s="78"/>
+      <c r="M79" s="78"/>
+      <c r="N79" s="78"/>
+      <c r="O79" s="78"/>
+      <c r="P79" s="78"/>
+      <c r="Q79" s="78"/>
+      <c r="R79" s="78"/>
+      <c r="S79" s="78"/>
+      <c r="T79" s="78"/>
+      <c r="U79" s="78"/>
+      <c r="V79" s="78"/>
+      <c r="W79" s="78"/>
+      <c r="X79" s="78"/>
+    </row>
+    <row r="80" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="78"/>
+      <c r="B80" s="78"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="78"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="78"/>
+      <c r="H80" s="78"/>
+      <c r="I80" s="78"/>
+      <c r="J80" s="78"/>
+      <c r="K80" s="78"/>
+      <c r="L80" s="78"/>
+      <c r="M80" s="78"/>
+      <c r="N80" s="78"/>
+      <c r="O80" s="78"/>
+      <c r="P80" s="78"/>
+      <c r="Q80" s="78"/>
+      <c r="R80" s="78"/>
+      <c r="S80" s="78"/>
+      <c r="T80" s="78"/>
+      <c r="U80" s="78"/>
+      <c r="V80" s="78"/>
+      <c r="W80" s="78"/>
+      <c r="X80" s="78"/>
+    </row>
+    <row r="81" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="78"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="78"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="78"/>
+      <c r="H81" s="78"/>
+      <c r="I81" s="78"/>
+      <c r="J81" s="78"/>
+      <c r="K81" s="78"/>
+      <c r="L81" s="78"/>
+      <c r="M81" s="78"/>
+      <c r="N81" s="78"/>
+      <c r="O81" s="78"/>
+      <c r="P81" s="78"/>
+      <c r="Q81" s="78"/>
+      <c r="R81" s="78"/>
+      <c r="S81" s="78"/>
+      <c r="T81" s="78"/>
+      <c r="U81" s="78"/>
+      <c r="V81" s="78"/>
+      <c r="W81" s="78"/>
+      <c r="X81" s="78"/>
+    </row>
+    <row r="82" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="78"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="78"/>
+      <c r="H82" s="78"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="78"/>
+      <c r="K82" s="78"/>
+      <c r="L82" s="78"/>
+      <c r="M82" s="78"/>
+      <c r="N82" s="78"/>
+      <c r="O82" s="78"/>
+      <c r="P82" s="78"/>
+      <c r="Q82" s="78"/>
+      <c r="R82" s="78"/>
+      <c r="S82" s="78"/>
+      <c r="T82" s="78"/>
+      <c r="U82" s="78"/>
+      <c r="V82" s="78"/>
+      <c r="W82" s="78"/>
+      <c r="X82" s="78"/>
+    </row>
+    <row r="83" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="78"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="78"/>
+      <c r="I83" s="78"/>
+      <c r="J83" s="78"/>
+      <c r="K83" s="78"/>
+      <c r="L83" s="78"/>
+      <c r="M83" s="78"/>
+      <c r="N83" s="78"/>
+      <c r="O83" s="78"/>
+      <c r="P83" s="78"/>
+      <c r="Q83" s="78"/>
+      <c r="R83" s="78"/>
+      <c r="S83" s="78"/>
+      <c r="T83" s="78"/>
+      <c r="U83" s="78"/>
+      <c r="V83" s="78"/>
+      <c r="W83" s="78"/>
+      <c r="X83" s="78"/>
+    </row>
+    <row r="84" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="78"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="78"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="78"/>
+      <c r="H84" s="78"/>
+      <c r="I84" s="78"/>
+      <c r="J84" s="78"/>
+      <c r="K84" s="78"/>
+      <c r="L84" s="78"/>
+      <c r="M84" s="78"/>
+      <c r="N84" s="78"/>
+      <c r="O84" s="78"/>
+      <c r="P84" s="78"/>
+      <c r="Q84" s="78"/>
+      <c r="R84" s="78"/>
+      <c r="S84" s="78"/>
+      <c r="T84" s="78"/>
+      <c r="U84" s="78"/>
+      <c r="V84" s="78"/>
+      <c r="W84" s="78"/>
+      <c r="X84" s="78"/>
+    </row>
+    <row r="85" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="78"/>
+      <c r="B85" s="78"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="78"/>
+      <c r="I85" s="78"/>
+      <c r="J85" s="78"/>
+      <c r="K85" s="78"/>
+      <c r="L85" s="78"/>
+      <c r="M85" s="78"/>
+      <c r="N85" s="78"/>
+      <c r="O85" s="78"/>
+      <c r="P85" s="78"/>
+      <c r="Q85" s="78"/>
+      <c r="R85" s="78"/>
+      <c r="S85" s="78"/>
+      <c r="T85" s="78"/>
+      <c r="U85" s="78"/>
+      <c r="V85" s="78"/>
+      <c r="W85" s="78"/>
+      <c r="X85" s="78"/>
+    </row>
+    <row r="86" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="76"/>
+      <c r="B86" s="76"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="76"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="76"/>
+      <c r="K86" s="76"/>
+      <c r="L86" s="76"/>
+      <c r="M86" s="76"/>
+      <c r="N86" s="76"/>
+      <c r="O86" s="76"/>
+      <c r="P86" s="76"/>
+      <c r="Q86" s="76"/>
+      <c r="R86" s="76"/>
+      <c r="S86" s="78"/>
+      <c r="T86" s="78"/>
+      <c r="U86" s="78"/>
+      <c r="V86" s="78"/>
+      <c r="W86" s="78"/>
+      <c r="X86" s="78"/>
+    </row>
+    <row r="87" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="78"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="78"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="78"/>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78"/>
+      <c r="K87" s="78"/>
+      <c r="L87" s="78"/>
+      <c r="M87" s="78"/>
+      <c r="N87" s="78"/>
+      <c r="O87" s="78"/>
+      <c r="P87" s="78"/>
+      <c r="Q87" s="78"/>
+      <c r="R87" s="78"/>
+      <c r="S87" s="78"/>
+      <c r="T87" s="78"/>
+      <c r="U87" s="78"/>
+      <c r="V87" s="78"/>
+      <c r="W87" s="78"/>
+      <c r="X87" s="78"/>
+    </row>
+    <row r="88" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="78"/>
+      <c r="B88" s="78"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="78"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="78"/>
+      <c r="H88" s="78"/>
+      <c r="I88" s="78"/>
+      <c r="J88" s="78"/>
+      <c r="K88" s="78"/>
+      <c r="L88" s="78"/>
+      <c r="M88" s="78"/>
+      <c r="N88" s="78"/>
+      <c r="O88" s="78"/>
+      <c r="P88" s="78"/>
+      <c r="Q88" s="78"/>
+      <c r="R88" s="78"/>
+      <c r="S88" s="78"/>
+      <c r="T88" s="78"/>
+      <c r="U88" s="78"/>
+      <c r="V88" s="78"/>
+      <c r="W88" s="78"/>
+      <c r="X88" s="78"/>
+    </row>
+    <row r="89" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="78"/>
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
+      <c r="F89" s="78"/>
+      <c r="G89" s="78"/>
+      <c r="H89" s="78"/>
+      <c r="I89" s="78"/>
+      <c r="J89" s="78"/>
+      <c r="K89" s="78"/>
+      <c r="L89" s="78"/>
+      <c r="M89" s="78"/>
+      <c r="N89" s="78"/>
+      <c r="O89" s="78"/>
+      <c r="P89" s="78"/>
+      <c r="Q89" s="78"/>
+      <c r="R89" s="78"/>
+      <c r="S89" s="78"/>
+      <c r="T89" s="78"/>
+      <c r="U89" s="78"/>
+      <c r="V89" s="78"/>
+      <c r="W89" s="78"/>
+      <c r="X89" s="78"/>
+    </row>
+    <row r="90" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="78"/>
+      <c r="B90" s="78"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="78"/>
+      <c r="E90" s="78"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="78"/>
+      <c r="H90" s="78"/>
+      <c r="I90" s="78"/>
+      <c r="J90" s="78"/>
+      <c r="K90" s="78"/>
+      <c r="L90" s="78"/>
+      <c r="M90" s="78"/>
+      <c r="N90" s="78"/>
+      <c r="O90" s="78"/>
+      <c r="P90" s="78"/>
+      <c r="Q90" s="78"/>
+      <c r="R90" s="78"/>
+      <c r="S90" s="78"/>
+      <c r="T90" s="78"/>
+      <c r="U90" s="78"/>
+      <c r="V90" s="78"/>
+      <c r="W90" s="78"/>
+      <c r="X90" s="78"/>
+    </row>
+    <row r="91" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="78"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="78"/>
+      <c r="E91" s="78"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="78"/>
+      <c r="H91" s="78"/>
+      <c r="I91" s="78"/>
+      <c r="J91" s="78"/>
+      <c r="K91" s="78"/>
+      <c r="L91" s="78"/>
+      <c r="M91" s="78"/>
+      <c r="N91" s="78"/>
+      <c r="O91" s="78"/>
+      <c r="P91" s="78"/>
+      <c r="Q91" s="78"/>
+      <c r="R91" s="78"/>
+      <c r="S91" s="78"/>
+      <c r="T91" s="78"/>
+      <c r="U91" s="78"/>
+      <c r="V91" s="78"/>
+      <c r="W91" s="78"/>
+      <c r="X91" s="78"/>
+    </row>
+    <row r="92" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="78"/>
+      <c r="B92" s="78"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="78"/>
+      <c r="E92" s="78"/>
+      <c r="F92" s="78"/>
+      <c r="G92" s="78"/>
+      <c r="H92" s="78"/>
+      <c r="I92" s="78"/>
+      <c r="J92" s="78"/>
+      <c r="K92" s="78"/>
+      <c r="L92" s="78"/>
+      <c r="M92" s="78"/>
+      <c r="N92" s="78"/>
+      <c r="O92" s="78"/>
+      <c r="P92" s="78"/>
+      <c r="Q92" s="78"/>
+      <c r="R92" s="78"/>
+      <c r="S92" s="78"/>
+      <c r="T92" s="78"/>
+      <c r="U92" s="78"/>
+      <c r="V92" s="78"/>
+      <c r="W92" s="78"/>
+      <c r="X92" s="78"/>
+    </row>
+    <row r="93" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="78"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="78"/>
+      <c r="E93" s="78"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="78"/>
+      <c r="H93" s="78"/>
+      <c r="I93" s="78"/>
+      <c r="J93" s="78"/>
+      <c r="K93" s="78"/>
+      <c r="L93" s="78"/>
+      <c r="M93" s="78"/>
+      <c r="N93" s="78"/>
+      <c r="O93" s="78"/>
+      <c r="P93" s="78"/>
+      <c r="Q93" s="78"/>
+      <c r="R93" s="78"/>
+      <c r="S93" s="78"/>
+      <c r="T93" s="78"/>
+      <c r="U93" s="78"/>
+      <c r="V93" s="78"/>
+      <c r="W93" s="78"/>
+      <c r="X93" s="78"/>
+    </row>
+    <row r="94" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="78"/>
+      <c r="B94" s="78"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="78"/>
+      <c r="E94" s="78"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="78"/>
+      <c r="H94" s="78"/>
+      <c r="I94" s="78"/>
+      <c r="J94" s="78"/>
+      <c r="K94" s="78"/>
+      <c r="L94" s="78"/>
+      <c r="M94" s="78"/>
+      <c r="N94" s="78"/>
+      <c r="O94" s="78"/>
+      <c r="P94" s="78"/>
+      <c r="Q94" s="78"/>
+      <c r="R94" s="78"/>
+      <c r="S94" s="78"/>
+      <c r="T94" s="78"/>
+      <c r="U94" s="78"/>
+      <c r="V94" s="78"/>
+      <c r="W94" s="78"/>
+      <c r="X94" s="78"/>
+    </row>
+    <row r="95" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="78"/>
+      <c r="B95" s="78"/>
+      <c r="C95" s="78"/>
+      <c r="D95" s="78"/>
+      <c r="E95" s="78"/>
+      <c r="F95" s="78"/>
+      <c r="G95" s="78"/>
+      <c r="H95" s="78"/>
+      <c r="I95" s="78"/>
+      <c r="J95" s="78"/>
+      <c r="K95" s="78"/>
+      <c r="L95" s="78"/>
+      <c r="M95" s="78"/>
+      <c r="N95" s="78"/>
+      <c r="O95" s="78"/>
+      <c r="P95" s="78"/>
+      <c r="Q95" s="78"/>
+      <c r="R95" s="78"/>
+      <c r="S95" s="78"/>
+      <c r="T95" s="78"/>
+      <c r="U95" s="78"/>
+      <c r="V95" s="78"/>
+      <c r="W95" s="78"/>
+      <c r="X95" s="78"/>
+    </row>
+    <row r="96" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="78"/>
+      <c r="B96" s="78"/>
+      <c r="C96" s="78"/>
+      <c r="D96" s="78"/>
+      <c r="E96" s="78"/>
+      <c r="F96" s="78"/>
+      <c r="G96" s="78"/>
+      <c r="H96" s="78"/>
+      <c r="I96" s="78"/>
+      <c r="J96" s="78"/>
+      <c r="K96" s="78"/>
+      <c r="L96" s="78"/>
+      <c r="M96" s="78"/>
+      <c r="N96" s="78"/>
+      <c r="O96" s="78"/>
+      <c r="P96" s="78"/>
+      <c r="Q96" s="78"/>
+      <c r="R96" s="78"/>
+      <c r="S96" s="78"/>
+      <c r="T96" s="78"/>
+      <c r="U96" s="78"/>
+      <c r="V96" s="78"/>
+      <c r="W96" s="78"/>
+      <c r="X96" s="78"/>
+    </row>
+    <row r="97" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="78"/>
+      <c r="B97" s="78"/>
+      <c r="C97" s="78"/>
+      <c r="D97" s="78"/>
+      <c r="E97" s="78"/>
+      <c r="F97" s="78"/>
+      <c r="G97" s="78"/>
+      <c r="H97" s="78"/>
+      <c r="I97" s="78"/>
+      <c r="J97" s="78"/>
+      <c r="K97" s="78"/>
+      <c r="L97" s="78"/>
+      <c r="M97" s="78"/>
+      <c r="N97" s="78"/>
+      <c r="O97" s="78"/>
+      <c r="P97" s="78"/>
+      <c r="Q97" s="78"/>
+      <c r="R97" s="78"/>
+      <c r="S97" s="78"/>
+      <c r="T97" s="78"/>
+      <c r="U97" s="78"/>
+      <c r="V97" s="78"/>
+      <c r="W97" s="78"/>
+      <c r="X97" s="78"/>
+    </row>
+    <row r="98" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="78"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="78"/>
+      <c r="E98" s="78"/>
+      <c r="F98" s="78"/>
+      <c r="G98" s="78"/>
+      <c r="H98" s="78"/>
+      <c r="I98" s="78"/>
+      <c r="J98" s="78"/>
+      <c r="K98" s="78"/>
+      <c r="L98" s="78"/>
+      <c r="M98" s="78"/>
+      <c r="N98" s="78"/>
+      <c r="O98" s="78"/>
+      <c r="P98" s="78"/>
+      <c r="Q98" s="78"/>
+      <c r="R98" s="78"/>
+      <c r="S98" s="78"/>
+      <c r="T98" s="78"/>
+      <c r="U98" s="78"/>
+      <c r="V98" s="78"/>
+      <c r="W98" s="78"/>
+      <c r="X98" s="78"/>
+    </row>
+    <row r="99" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="78"/>
+      <c r="B99" s="78"/>
+      <c r="C99" s="78"/>
+      <c r="D99" s="78"/>
+      <c r="E99" s="78"/>
+      <c r="F99" s="78"/>
+      <c r="G99" s="78"/>
+      <c r="H99" s="78"/>
+      <c r="I99" s="78"/>
+      <c r="J99" s="78"/>
+      <c r="K99" s="78"/>
+      <c r="L99" s="78"/>
+      <c r="M99" s="78"/>
+      <c r="N99" s="78"/>
+      <c r="O99" s="78"/>
+      <c r="P99" s="78"/>
+      <c r="Q99" s="78"/>
+      <c r="R99" s="78"/>
+      <c r="S99" s="78"/>
+      <c r="T99" s="78"/>
+      <c r="U99" s="78"/>
+      <c r="V99" s="78"/>
+      <c r="W99" s="78"/>
+      <c r="X99" s="78"/>
+    </row>
+    <row r="100" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="78"/>
+      <c r="B100" s="78"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="78"/>
+      <c r="F100" s="78"/>
+      <c r="G100" s="78"/>
+      <c r="H100" s="78"/>
+      <c r="I100" s="78"/>
+      <c r="J100" s="78"/>
+      <c r="K100" s="78"/>
+      <c r="L100" s="78"/>
+      <c r="M100" s="78"/>
+      <c r="N100" s="78"/>
+      <c r="O100" s="78"/>
+      <c r="P100" s="78"/>
+      <c r="Q100" s="78"/>
+      <c r="R100" s="78"/>
+      <c r="S100" s="78"/>
+      <c r="T100" s="78"/>
+      <c r="U100" s="78"/>
+      <c r="V100" s="78"/>
+      <c r="W100" s="78"/>
+      <c r="X100" s="78"/>
+    </row>
+    <row r="101" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="78"/>
+      <c r="B101" s="78"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="78"/>
+      <c r="H101" s="78"/>
+      <c r="I101" s="78"/>
+      <c r="J101" s="78"/>
+      <c r="K101" s="78"/>
+      <c r="L101" s="78"/>
+      <c r="M101" s="78"/>
+      <c r="N101" s="78"/>
+      <c r="O101" s="78"/>
+      <c r="P101" s="78"/>
+      <c r="Q101" s="78"/>
+      <c r="R101" s="78"/>
+      <c r="S101" s="78"/>
+      <c r="T101" s="78"/>
+      <c r="U101" s="78"/>
+      <c r="V101" s="78"/>
+      <c r="W101" s="78"/>
+      <c r="X101" s="78"/>
+    </row>
+    <row r="102" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="78"/>
+      <c r="B102" s="78"/>
+      <c r="C102" s="78"/>
+      <c r="D102" s="78"/>
+      <c r="E102" s="78"/>
+      <c r="F102" s="78"/>
+      <c r="G102" s="78"/>
+      <c r="H102" s="78"/>
+      <c r="I102" s="78"/>
+      <c r="J102" s="78"/>
+      <c r="K102" s="78"/>
+      <c r="L102" s="78"/>
+      <c r="M102" s="78"/>
+      <c r="N102" s="78"/>
+      <c r="O102" s="78"/>
+      <c r="P102" s="78"/>
+      <c r="Q102" s="78"/>
+      <c r="R102" s="78"/>
+      <c r="S102" s="78"/>
+      <c r="T102" s="78"/>
+      <c r="U102" s="78"/>
+      <c r="V102" s="78"/>
+      <c r="W102" s="78"/>
+      <c r="X102" s="78"/>
+    </row>
+    <row r="103" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="78"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="78"/>
+      <c r="D103" s="78"/>
+      <c r="E103" s="78"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="78"/>
+      <c r="H103" s="78"/>
+      <c r="I103" s="78"/>
+      <c r="J103" s="78"/>
+      <c r="K103" s="78"/>
+      <c r="L103" s="78"/>
+      <c r="M103" s="78"/>
+      <c r="N103" s="78"/>
+      <c r="O103" s="78"/>
+      <c r="P103" s="78"/>
+      <c r="Q103" s="78"/>
+      <c r="R103" s="78"/>
+      <c r="S103" s="78"/>
+      <c r="T103" s="78"/>
+      <c r="U103" s="78"/>
+      <c r="V103" s="78"/>
+      <c r="W103" s="78"/>
+      <c r="X103" s="78"/>
+    </row>
+    <row r="104" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="78"/>
+      <c r="B104" s="78"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="78"/>
+      <c r="E104" s="78"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="78"/>
+      <c r="H104" s="78"/>
+      <c r="I104" s="78"/>
+      <c r="J104" s="78"/>
+      <c r="K104" s="78"/>
+      <c r="L104" s="78"/>
+      <c r="M104" s="78"/>
+      <c r="N104" s="78"/>
+      <c r="O104" s="78"/>
+      <c r="P104" s="78"/>
+      <c r="Q104" s="78"/>
+      <c r="R104" s="78"/>
+      <c r="S104" s="78"/>
+      <c r="T104" s="78"/>
+      <c r="U104" s="78"/>
+      <c r="V104" s="78"/>
+      <c r="W104" s="78"/>
+      <c r="X104" s="78"/>
+    </row>
+    <row r="105" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="78"/>
+      <c r="B105" s="78"/>
+      <c r="C105" s="78"/>
+      <c r="D105" s="78"/>
+      <c r="E105" s="78"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="78"/>
+      <c r="H105" s="78"/>
+      <c r="I105" s="78"/>
+      <c r="J105" s="78"/>
+      <c r="K105" s="78"/>
+      <c r="L105" s="78"/>
+      <c r="M105" s="78"/>
+      <c r="N105" s="78"/>
+      <c r="O105" s="78"/>
+      <c r="P105" s="78"/>
+      <c r="Q105" s="78"/>
+      <c r="R105" s="78"/>
+      <c r="S105" s="78"/>
+      <c r="T105" s="78"/>
+      <c r="U105" s="78"/>
+      <c r="V105" s="78"/>
+      <c r="W105" s="78"/>
+      <c r="X105" s="78"/>
+    </row>
+    <row r="106" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="78"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="78"/>
+      <c r="E106" s="78"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="78"/>
+      <c r="H106" s="78"/>
+      <c r="I106" s="78"/>
+      <c r="J106" s="78"/>
+      <c r="K106" s="78"/>
+      <c r="L106" s="78"/>
+      <c r="M106" s="78"/>
+      <c r="N106" s="78"/>
+      <c r="O106" s="78"/>
+      <c r="P106" s="78"/>
+      <c r="Q106" s="78"/>
+      <c r="R106" s="78"/>
+      <c r="S106" s="78"/>
+      <c r="T106" s="78"/>
+      <c r="U106" s="78"/>
+      <c r="V106" s="78"/>
+      <c r="W106" s="78"/>
+      <c r="X106" s="78"/>
+    </row>
+    <row r="107" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="78"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="78"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="78"/>
+      <c r="H107" s="78"/>
+      <c r="I107" s="78"/>
+      <c r="J107" s="78"/>
+      <c r="K107" s="78"/>
+      <c r="L107" s="78"/>
+      <c r="M107" s="78"/>
+      <c r="N107" s="78"/>
+      <c r="O107" s="78"/>
+      <c r="P107" s="78"/>
+      <c r="Q107" s="78"/>
+      <c r="R107" s="78"/>
+      <c r="S107" s="78"/>
+      <c r="T107" s="78"/>
+      <c r="U107" s="78"/>
+      <c r="V107" s="78"/>
+      <c r="W107" s="78"/>
+      <c r="X107" s="78"/>
+    </row>
+    <row r="108" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="78"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="78"/>
+      <c r="D108" s="78"/>
+      <c r="E108" s="78"/>
+      <c r="F108" s="78"/>
+      <c r="G108" s="78"/>
+      <c r="H108" s="78"/>
+      <c r="I108" s="78"/>
+      <c r="J108" s="78"/>
+      <c r="K108" s="78"/>
+      <c r="L108" s="78"/>
+      <c r="M108" s="78"/>
+      <c r="N108" s="78"/>
+      <c r="O108" s="78"/>
+      <c r="P108" s="78"/>
+      <c r="Q108" s="78"/>
+      <c r="R108" s="78"/>
+      <c r="S108" s="78"/>
+      <c r="T108" s="78"/>
+      <c r="U108" s="78"/>
+      <c r="V108" s="78"/>
+      <c r="W108" s="78"/>
+      <c r="X108" s="78"/>
+    </row>
+    <row r="109" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="78"/>
+      <c r="B109" s="78"/>
+      <c r="C109" s="78"/>
+      <c r="D109" s="78"/>
+      <c r="E109" s="78"/>
+      <c r="F109" s="78"/>
+      <c r="G109" s="78"/>
+      <c r="H109" s="78"/>
+      <c r="I109" s="78"/>
+      <c r="J109" s="78"/>
+      <c r="K109" s="78"/>
+      <c r="L109" s="78"/>
+      <c r="M109" s="78"/>
+      <c r="N109" s="78"/>
+      <c r="O109" s="78"/>
+      <c r="P109" s="78"/>
+      <c r="Q109" s="78"/>
+      <c r="R109" s="78"/>
+      <c r="S109" s="78"/>
+      <c r="T109" s="78"/>
+      <c r="U109" s="78"/>
+      <c r="V109" s="78"/>
+      <c r="W109" s="78"/>
+      <c r="X109" s="78"/>
+    </row>
+    <row r="110" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="78"/>
+      <c r="B110" s="78"/>
+      <c r="C110" s="78"/>
+      <c r="D110" s="78"/>
+      <c r="E110" s="78"/>
+      <c r="F110" s="78"/>
+      <c r="G110" s="78"/>
+      <c r="H110" s="78"/>
+      <c r="I110" s="78"/>
+      <c r="J110" s="78"/>
+      <c r="K110" s="78"/>
+      <c r="L110" s="78"/>
+      <c r="M110" s="78"/>
+      <c r="N110" s="78"/>
+      <c r="O110" s="78"/>
+      <c r="P110" s="78"/>
+      <c r="Q110" s="78"/>
+      <c r="R110" s="78"/>
+      <c r="S110" s="78"/>
+      <c r="T110" s="78"/>
+      <c r="U110" s="78"/>
+      <c r="V110" s="78"/>
+      <c r="W110" s="78"/>
+      <c r="X110" s="78"/>
+    </row>
+    <row r="111" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="78"/>
+      <c r="B111" s="78"/>
+      <c r="C111" s="78"/>
+      <c r="D111" s="78"/>
+      <c r="E111" s="78"/>
+      <c r="F111" s="78"/>
+      <c r="G111" s="78"/>
+      <c r="H111" s="78"/>
+      <c r="I111" s="78"/>
+      <c r="J111" s="78"/>
+      <c r="K111" s="78"/>
+      <c r="L111" s="78"/>
+      <c r="M111" s="78"/>
+      <c r="N111" s="78"/>
+      <c r="O111" s="78"/>
+      <c r="P111" s="78"/>
+      <c r="Q111" s="78"/>
+      <c r="R111" s="78"/>
+      <c r="S111" s="78"/>
+      <c r="T111" s="78"/>
+      <c r="U111" s="78"/>
+      <c r="V111" s="78"/>
+      <c r="W111" s="78"/>
+      <c r="X111" s="78"/>
+    </row>
+    <row r="112" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="78"/>
+      <c r="B112" s="78"/>
+      <c r="C112" s="78"/>
+      <c r="D112" s="78"/>
+      <c r="E112" s="78"/>
+      <c r="F112" s="78"/>
+      <c r="G112" s="78"/>
+      <c r="H112" s="78"/>
+      <c r="I112" s="78"/>
+      <c r="J112" s="78"/>
+      <c r="K112" s="78"/>
+      <c r="L112" s="78"/>
+      <c r="M112" s="78"/>
+      <c r="N112" s="78"/>
+      <c r="O112" s="78"/>
+      <c r="P112" s="78"/>
+      <c r="Q112" s="78"/>
+      <c r="R112" s="78"/>
+      <c r="S112" s="78"/>
+      <c r="T112" s="78"/>
+      <c r="U112" s="78"/>
+      <c r="V112" s="78"/>
+      <c r="W112" s="78"/>
+      <c r="X112" s="78"/>
+    </row>
+    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="78"/>
+      <c r="B113" s="78"/>
+      <c r="C113" s="78"/>
+      <c r="D113" s="78"/>
+      <c r="E113" s="78"/>
+      <c r="F113" s="78"/>
+      <c r="G113" s="78"/>
+      <c r="H113" s="78"/>
+      <c r="I113" s="78"/>
+      <c r="J113" s="78"/>
+      <c r="K113" s="78"/>
+      <c r="L113" s="78"/>
+      <c r="M113" s="78"/>
+      <c r="N113" s="78"/>
+      <c r="O113" s="78"/>
+      <c r="P113" s="78"/>
+      <c r="Q113" s="78"/>
+      <c r="R113" s="78"/>
+      <c r="S113" s="78"/>
+      <c r="T113" s="78"/>
+      <c r="U113" s="78"/>
+      <c r="V113" s="78"/>
+      <c r="W113" s="78"/>
+      <c r="X113" s="78"/>
+    </row>
+    <row r="114" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="78"/>
+      <c r="B114" s="78"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="78"/>
+      <c r="E114" s="78"/>
+      <c r="F114" s="78"/>
+      <c r="G114" s="78"/>
+      <c r="H114" s="78"/>
+      <c r="I114" s="78"/>
+      <c r="J114" s="78"/>
+      <c r="K114" s="78"/>
+      <c r="L114" s="78"/>
+      <c r="M114" s="78"/>
+      <c r="N114" s="78"/>
+      <c r="O114" s="78"/>
+      <c r="P114" s="78"/>
+      <c r="Q114" s="78"/>
+      <c r="R114" s="78"/>
+      <c r="S114" s="78"/>
+      <c r="T114" s="78"/>
+      <c r="U114" s="78"/>
+      <c r="V114" s="78"/>
+      <c r="W114" s="78"/>
+      <c r="X114" s="78"/>
+    </row>
+    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="78"/>
+      <c r="B115" s="78"/>
+      <c r="C115" s="78"/>
+      <c r="D115" s="78"/>
+      <c r="E115" s="78"/>
+      <c r="F115" s="78"/>
+      <c r="G115" s="78"/>
+      <c r="H115" s="78"/>
+      <c r="I115" s="78"/>
+      <c r="J115" s="78"/>
+      <c r="K115" s="78"/>
+      <c r="L115" s="78"/>
+      <c r="M115" s="78"/>
+      <c r="N115" s="78"/>
+      <c r="O115" s="78"/>
+      <c r="P115" s="78"/>
+      <c r="Q115" s="78"/>
+      <c r="R115" s="78"/>
+      <c r="S115" s="78"/>
+      <c r="T115" s="78"/>
+      <c r="U115" s="78"/>
+      <c r="V115" s="78"/>
+      <c r="W115" s="78"/>
+      <c r="X115" s="78"/>
+    </row>
+    <row r="116" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="78"/>
+      <c r="B116" s="78"/>
+      <c r="C116" s="78"/>
+      <c r="D116" s="78"/>
+      <c r="E116" s="78"/>
+      <c r="F116" s="78"/>
+      <c r="G116" s="78"/>
+      <c r="H116" s="78"/>
+      <c r="I116" s="78"/>
+      <c r="J116" s="78"/>
+      <c r="K116" s="78"/>
+      <c r="L116" s="78"/>
+      <c r="M116" s="78"/>
+      <c r="N116" s="78"/>
+      <c r="O116" s="78"/>
+      <c r="P116" s="78"/>
+      <c r="Q116" s="78"/>
+      <c r="R116" s="78"/>
+      <c r="S116" s="78"/>
+      <c r="T116" s="78"/>
+      <c r="U116" s="78"/>
+      <c r="V116" s="78"/>
+      <c r="W116" s="78"/>
+      <c r="X116" s="78"/>
+    </row>
+    <row r="117" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="78"/>
+      <c r="B117" s="78"/>
+      <c r="C117" s="78"/>
+      <c r="D117" s="78"/>
+      <c r="E117" s="78"/>
+      <c r="F117" s="78"/>
+      <c r="G117" s="78"/>
+      <c r="H117" s="78"/>
+      <c r="I117" s="78"/>
+      <c r="J117" s="78"/>
+      <c r="K117" s="78"/>
+      <c r="L117" s="78"/>
+      <c r="M117" s="78"/>
+      <c r="N117" s="78"/>
+      <c r="O117" s="78"/>
+      <c r="P117" s="78"/>
+      <c r="Q117" s="78"/>
+      <c r="R117" s="78"/>
+      <c r="S117" s="78"/>
+      <c r="T117" s="78"/>
+      <c r="U117" s="78"/>
+      <c r="V117" s="78"/>
+      <c r="W117" s="78"/>
+      <c r="X117" s="78"/>
+    </row>
+    <row r="118" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="78"/>
+      <c r="B118" s="78"/>
+      <c r="C118" s="78"/>
+      <c r="D118" s="78"/>
+      <c r="E118" s="78"/>
+      <c r="F118" s="78"/>
+      <c r="G118" s="78"/>
+      <c r="H118" s="78"/>
+      <c r="I118" s="78"/>
+      <c r="J118" s="78"/>
+      <c r="K118" s="78"/>
+      <c r="L118" s="78"/>
+      <c r="M118" s="78"/>
+      <c r="N118" s="78"/>
+      <c r="O118" s="78"/>
+      <c r="P118" s="78"/>
+      <c r="Q118" s="78"/>
+      <c r="R118" s="78"/>
+      <c r="S118" s="78"/>
+      <c r="T118" s="78"/>
+      <c r="U118" s="78"/>
+      <c r="V118" s="78"/>
+      <c r="W118" s="78"/>
+      <c r="X118" s="78"/>
+    </row>
+    <row r="119" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="78"/>
+      <c r="B119" s="78"/>
+      <c r="C119" s="78"/>
+      <c r="D119" s="78"/>
+      <c r="E119" s="78"/>
+      <c r="F119" s="78"/>
+      <c r="G119" s="78"/>
+      <c r="H119" s="78"/>
+      <c r="I119" s="78"/>
+      <c r="J119" s="78"/>
+      <c r="K119" s="78"/>
+      <c r="L119" s="78"/>
+      <c r="M119" s="78"/>
+      <c r="N119" s="78"/>
+      <c r="O119" s="78"/>
+      <c r="P119" s="78"/>
+      <c r="Q119" s="78"/>
+      <c r="R119" s="78"/>
+      <c r="S119" s="78"/>
+      <c r="T119" s="78"/>
+      <c r="U119" s="78"/>
+      <c r="V119" s="78"/>
+      <c r="W119" s="78"/>
+      <c r="X119" s="78"/>
+    </row>
+    <row r="120" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="78"/>
+      <c r="B120" s="78"/>
+      <c r="C120" s="78"/>
+      <c r="D120" s="78"/>
+      <c r="E120" s="78"/>
+      <c r="F120" s="78"/>
+      <c r="G120" s="78"/>
+      <c r="H120" s="78"/>
+      <c r="I120" s="78"/>
+      <c r="J120" s="78"/>
+      <c r="K120" s="78"/>
+      <c r="L120" s="78"/>
+      <c r="M120" s="78"/>
+      <c r="N120" s="78"/>
+      <c r="O120" s="78"/>
+      <c r="P120" s="78"/>
+      <c r="Q120" s="78"/>
+      <c r="R120" s="78"/>
+      <c r="S120" s="78"/>
+      <c r="T120" s="78"/>
+      <c r="U120" s="78"/>
+      <c r="V120" s="78"/>
+      <c r="W120" s="78"/>
+      <c r="X120" s="78"/>
+    </row>
+    <row r="121" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="78"/>
+      <c r="B121" s="78"/>
+      <c r="C121" s="78"/>
+      <c r="D121" s="78"/>
+      <c r="E121" s="78"/>
+      <c r="F121" s="78"/>
+      <c r="G121" s="78"/>
+      <c r="H121" s="78"/>
+      <c r="I121" s="78"/>
+      <c r="J121" s="78"/>
+      <c r="K121" s="78"/>
+      <c r="L121" s="78"/>
+      <c r="M121" s="78"/>
+      <c r="N121" s="78"/>
+      <c r="O121" s="78"/>
+      <c r="P121" s="78"/>
+      <c r="Q121" s="78"/>
+      <c r="R121" s="78"/>
+      <c r="S121" s="78"/>
+      <c r="T121" s="78"/>
+      <c r="U121" s="78"/>
+      <c r="V121" s="78"/>
+      <c r="W121" s="78"/>
+      <c r="X121" s="78"/>
+    </row>
+    <row r="122" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="78"/>
+      <c r="B122" s="78"/>
+      <c r="C122" s="78"/>
+      <c r="D122" s="78"/>
+      <c r="E122" s="78"/>
+      <c r="F122" s="78"/>
+      <c r="G122" s="78"/>
+      <c r="H122" s="78"/>
+      <c r="I122" s="78"/>
+      <c r="J122" s="78"/>
+      <c r="K122" s="78"/>
+      <c r="L122" s="78"/>
+      <c r="M122" s="78"/>
+      <c r="N122" s="78"/>
+      <c r="O122" s="78"/>
+      <c r="P122" s="78"/>
+      <c r="Q122" s="78"/>
+      <c r="R122" s="78"/>
+      <c r="S122" s="78"/>
+      <c r="T122" s="78"/>
+      <c r="U122" s="78"/>
+      <c r="V122" s="78"/>
+      <c r="W122" s="78"/>
+      <c r="X122" s="78"/>
+    </row>
+    <row r="123" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="78"/>
+      <c r="B123" s="78"/>
+      <c r="C123" s="78"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="35"/>
+      <c r="J123" s="35"/>
+      <c r="K123" s="35"/>
+      <c r="L123" s="35"/>
+      <c r="M123" s="35"/>
+      <c r="N123" s="35"/>
+      <c r="O123" s="35"/>
+      <c r="P123" s="78"/>
+      <c r="Q123" s="78"/>
+      <c r="R123" s="78"/>
+      <c r="S123" s="78"/>
+      <c r="T123" s="78"/>
+      <c r="U123" s="78"/>
+      <c r="V123" s="78"/>
+      <c r="W123" s="78"/>
+      <c r="X123" s="78"/>
+    </row>
+    <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="78"/>
+      <c r="B124" s="78"/>
+      <c r="C124" s="78"/>
+      <c r="D124" s="78"/>
+      <c r="E124" s="78"/>
+      <c r="F124" s="78"/>
+      <c r="G124" s="78"/>
+      <c r="H124" s="78"/>
+      <c r="I124" s="78"/>
+      <c r="J124" s="78"/>
+      <c r="K124" s="78"/>
+      <c r="L124" s="78"/>
+      <c r="M124" s="78"/>
+      <c r="N124" s="78"/>
+      <c r="O124" s="78"/>
+      <c r="P124" s="78"/>
+      <c r="Q124" s="78"/>
+      <c r="R124" s="78"/>
+      <c r="S124" s="78"/>
+      <c r="T124" s="36"/>
+      <c r="U124" s="78"/>
+      <c r="V124" s="78"/>
+      <c r="W124" s="78"/>
+      <c r="X124" s="78"/>
+    </row>
+    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="78"/>
+      <c r="B125" s="78"/>
+      <c r="C125" s="78"/>
+      <c r="D125" s="78"/>
+      <c r="E125" s="78"/>
+      <c r="F125" s="78"/>
+      <c r="G125" s="78"/>
+      <c r="H125" s="78"/>
+      <c r="I125" s="78"/>
+      <c r="J125" s="78"/>
+      <c r="K125" s="78"/>
+      <c r="L125" s="78"/>
+      <c r="M125" s="78"/>
+      <c r="N125" s="78"/>
+      <c r="O125" s="78"/>
+      <c r="P125" s="78"/>
+      <c r="Q125" s="78"/>
+      <c r="R125" s="78"/>
+      <c r="S125" s="78"/>
+      <c r="T125" s="36"/>
+      <c r="U125" s="78"/>
+      <c r="V125" s="78"/>
+      <c r="W125" s="78"/>
+      <c r="X125" s="78"/>
+    </row>
+    <row r="126" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="78"/>
+      <c r="B126" s="78"/>
+      <c r="C126" s="78"/>
+      <c r="D126" s="78"/>
+      <c r="E126" s="78"/>
+      <c r="F126" s="78"/>
+      <c r="G126" s="78"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="78"/>
+      <c r="J126" s="78"/>
+      <c r="K126" s="78"/>
+      <c r="L126" s="78"/>
+      <c r="M126" s="78"/>
+      <c r="N126" s="78"/>
+      <c r="O126" s="78"/>
+      <c r="P126" s="78"/>
+      <c r="Q126" s="78"/>
+      <c r="R126" s="78"/>
+      <c r="S126" s="78"/>
+      <c r="T126" s="36"/>
+      <c r="U126" s="78"/>
+      <c r="V126" s="78"/>
+      <c r="W126" s="78"/>
+      <c r="X126" s="78"/>
+    </row>
+    <row r="127" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="78"/>
+      <c r="B127" s="78"/>
+      <c r="C127" s="78"/>
+      <c r="D127" s="78"/>
+      <c r="E127" s="78"/>
+      <c r="F127" s="78"/>
+      <c r="G127" s="78"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="78"/>
+      <c r="J127" s="78"/>
+      <c r="K127" s="78"/>
+      <c r="L127" s="78"/>
+      <c r="M127" s="78"/>
+      <c r="N127" s="78"/>
+      <c r="O127" s="78"/>
+      <c r="P127" s="78"/>
+      <c r="Q127" s="78"/>
+      <c r="R127" s="78"/>
+      <c r="S127" s="78"/>
+      <c r="T127" s="36"/>
+      <c r="U127" s="78"/>
+      <c r="V127" s="78"/>
+      <c r="W127" s="78"/>
+      <c r="X127" s="78"/>
+    </row>
+    <row r="128" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="78"/>
+      <c r="B128" s="78"/>
+      <c r="C128" s="78"/>
+      <c r="D128" s="78"/>
+      <c r="E128" s="78"/>
+      <c r="F128" s="78"/>
+      <c r="G128" s="78"/>
+      <c r="H128" s="78"/>
+      <c r="I128" s="78"/>
+      <c r="J128" s="78"/>
+      <c r="K128" s="78"/>
+      <c r="L128" s="78"/>
+      <c r="M128" s="78"/>
+      <c r="N128" s="78"/>
+      <c r="O128" s="78"/>
+      <c r="P128" s="78"/>
+      <c r="Q128" s="78"/>
+      <c r="R128" s="78"/>
+      <c r="S128" s="78"/>
+      <c r="T128" s="36"/>
+      <c r="U128" s="78"/>
+      <c r="V128" s="78"/>
+      <c r="W128" s="78"/>
+      <c r="X128" s="78"/>
+    </row>
+    <row r="129" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="78"/>
+      <c r="B129" s="78"/>
+      <c r="C129" s="78"/>
+      <c r="D129" s="78"/>
+      <c r="E129" s="78"/>
+      <c r="F129" s="78"/>
+      <c r="G129" s="78"/>
+      <c r="H129" s="78"/>
+      <c r="I129" s="78"/>
+      <c r="J129" s="78"/>
+      <c r="K129" s="78"/>
+      <c r="L129" s="78"/>
+      <c r="M129" s="78"/>
+      <c r="N129" s="78"/>
+      <c r="O129" s="78"/>
+      <c r="P129" s="78"/>
+      <c r="Q129" s="78"/>
+      <c r="R129" s="78"/>
+      <c r="S129" s="78"/>
+      <c r="T129" s="78"/>
+      <c r="U129" s="78"/>
+      <c r="V129" s="78"/>
+      <c r="W129" s="78"/>
+      <c r="X129" s="78"/>
+    </row>
+    <row r="130" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="78"/>
+      <c r="B130" s="78"/>
+      <c r="C130" s="78"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="78"/>
+      <c r="F130" s="78"/>
+      <c r="G130" s="78"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="78"/>
+      <c r="J130" s="78"/>
+      <c r="K130" s="78"/>
+      <c r="L130" s="78"/>
+      <c r="M130" s="78"/>
+      <c r="N130" s="78"/>
+      <c r="O130" s="78"/>
+      <c r="P130" s="78"/>
+      <c r="Q130" s="78"/>
+      <c r="R130" s="78"/>
+      <c r="S130" s="78"/>
+      <c r="T130" s="78"/>
+      <c r="U130" s="78"/>
+      <c r="V130" s="78"/>
+      <c r="W130" s="78"/>
+      <c r="X130" s="78"/>
+    </row>
+    <row r="131" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="78"/>
+      <c r="B131" s="78"/>
+      <c r="C131" s="78"/>
+      <c r="D131" s="78"/>
+      <c r="E131" s="78"/>
+      <c r="F131" s="78"/>
+      <c r="G131" s="78"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="78"/>
+      <c r="J131" s="78"/>
+      <c r="K131" s="78"/>
+      <c r="L131" s="78"/>
+      <c r="M131" s="78"/>
+      <c r="N131" s="78"/>
+      <c r="O131" s="78"/>
+      <c r="P131" s="78"/>
+      <c r="Q131" s="78"/>
+      <c r="R131" s="78"/>
+      <c r="S131" s="78"/>
+      <c r="T131" s="78"/>
+      <c r="U131" s="78"/>
+      <c r="V131" s="78"/>
+      <c r="W131" s="78"/>
+      <c r="X131" s="78"/>
+    </row>
+    <row r="132" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="78"/>
+      <c r="B132" s="78"/>
+      <c r="C132" s="78"/>
+      <c r="D132" s="78"/>
+      <c r="E132" s="78"/>
+      <c r="F132" s="78"/>
+      <c r="G132" s="78"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="78"/>
+      <c r="J132" s="78"/>
+      <c r="K132" s="78"/>
+      <c r="L132" s="78"/>
+      <c r="M132" s="78"/>
+      <c r="N132" s="78"/>
+      <c r="O132" s="78"/>
+      <c r="P132" s="78"/>
+      <c r="Q132" s="78"/>
+      <c r="R132" s="78"/>
+      <c r="S132" s="78"/>
+      <c r="T132" s="78"/>
+      <c r="U132" s="78"/>
+      <c r="V132" s="78"/>
+      <c r="W132" s="78"/>
+      <c r="X132" s="78"/>
+    </row>
+    <row r="133" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="78"/>
+      <c r="B133" s="78"/>
+      <c r="C133" s="78"/>
+      <c r="D133" s="78"/>
+      <c r="E133" s="78"/>
+      <c r="F133" s="78"/>
+      <c r="G133" s="78"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="78"/>
+      <c r="J133" s="78"/>
+      <c r="K133" s="78"/>
+      <c r="L133" s="78"/>
+      <c r="M133" s="78"/>
+      <c r="N133" s="78"/>
+      <c r="O133" s="78"/>
+      <c r="P133" s="78"/>
+      <c r="Q133" s="78"/>
+      <c r="R133" s="78"/>
+      <c r="S133" s="78"/>
+      <c r="T133" s="78"/>
+      <c r="U133" s="78"/>
+      <c r="V133" s="78"/>
+      <c r="W133" s="78"/>
+      <c r="X133" s="78"/>
+    </row>
+    <row r="134" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="78"/>
+      <c r="B134" s="78"/>
+      <c r="C134" s="78"/>
+      <c r="D134" s="78"/>
+      <c r="E134" s="78"/>
+      <c r="F134" s="78"/>
+      <c r="G134" s="78"/>
+      <c r="H134" s="78"/>
+      <c r="I134" s="78"/>
+      <c r="J134" s="78"/>
+      <c r="K134" s="78"/>
+      <c r="L134" s="78"/>
+      <c r="M134" s="78"/>
+      <c r="N134" s="78"/>
+      <c r="O134" s="78"/>
+      <c r="P134" s="78"/>
+      <c r="Q134" s="78"/>
+      <c r="R134" s="78"/>
+      <c r="S134" s="78"/>
+      <c r="T134" s="78"/>
+      <c r="U134" s="78"/>
+      <c r="V134" s="78"/>
+      <c r="W134" s="78"/>
+      <c r="X134" s="78"/>
+    </row>
+    <row r="135" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="78"/>
+      <c r="B135" s="78"/>
+      <c r="C135" s="78"/>
+      <c r="D135" s="78"/>
+      <c r="E135" s="78"/>
+      <c r="F135" s="78"/>
+      <c r="G135" s="78"/>
+      <c r="H135" s="78"/>
+      <c r="I135" s="78"/>
+      <c r="J135" s="78"/>
+      <c r="K135" s="78"/>
+      <c r="L135" s="78"/>
+      <c r="M135" s="78"/>
+      <c r="N135" s="78"/>
+      <c r="O135" s="78"/>
+      <c r="P135" s="78"/>
+      <c r="Q135" s="78"/>
+      <c r="R135" s="78"/>
+      <c r="S135" s="78"/>
+      <c r="T135" s="78"/>
+      <c r="U135" s="78"/>
+      <c r="V135" s="78"/>
+      <c r="W135" s="78"/>
+      <c r="X135" s="78"/>
+    </row>
+    <row r="136" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="78"/>
+      <c r="B136" s="78"/>
+      <c r="C136" s="78"/>
+      <c r="D136" s="78"/>
+      <c r="E136" s="78"/>
+      <c r="F136" s="78"/>
+      <c r="G136" s="78"/>
+      <c r="H136" s="78"/>
+      <c r="I136" s="78"/>
+      <c r="J136" s="78"/>
+      <c r="K136" s="78"/>
+      <c r="L136" s="78"/>
+      <c r="M136" s="78"/>
+      <c r="N136" s="78"/>
+      <c r="O136" s="78"/>
+      <c r="P136" s="78"/>
+      <c r="Q136" s="78"/>
+      <c r="R136" s="78"/>
+      <c r="S136" s="78"/>
+      <c r="T136" s="78"/>
+      <c r="U136" s="78"/>
+      <c r="V136" s="78"/>
+      <c r="W136" s="78"/>
+      <c r="X136" s="78"/>
+    </row>
+    <row r="137" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="78"/>
+      <c r="B137" s="78"/>
+      <c r="C137" s="78"/>
+      <c r="D137" s="78"/>
+      <c r="E137" s="78"/>
+      <c r="F137" s="78"/>
+      <c r="G137" s="78"/>
+      <c r="H137" s="78"/>
+      <c r="I137" s="78"/>
+      <c r="J137" s="78"/>
+      <c r="K137" s="78"/>
+      <c r="L137" s="78"/>
+      <c r="M137" s="78"/>
+      <c r="N137" s="78"/>
+      <c r="O137" s="78"/>
+      <c r="P137" s="78"/>
+      <c r="Q137" s="78"/>
+      <c r="R137" s="78"/>
+      <c r="S137" s="78"/>
+      <c r="T137" s="78"/>
+      <c r="U137" s="78"/>
+      <c r="V137" s="78"/>
+      <c r="W137" s="78"/>
+      <c r="X137" s="78"/>
+    </row>
+    <row r="138" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="78"/>
+      <c r="B138" s="78"/>
+      <c r="C138" s="78"/>
+      <c r="D138" s="78"/>
+      <c r="E138" s="78"/>
+      <c r="F138" s="78"/>
+      <c r="G138" s="78"/>
+      <c r="H138" s="78"/>
+      <c r="I138" s="78"/>
+      <c r="J138" s="78"/>
+      <c r="K138" s="78"/>
+      <c r="L138" s="78"/>
+      <c r="M138" s="78"/>
+      <c r="N138" s="78"/>
+      <c r="O138" s="78"/>
+      <c r="P138" s="78"/>
+      <c r="Q138" s="78"/>
+      <c r="R138" s="78"/>
+      <c r="S138" s="78"/>
+      <c r="T138" s="78"/>
+      <c r="U138" s="78"/>
+      <c r="V138" s="78"/>
+      <c r="W138" s="78"/>
+      <c r="X138" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A86:R86"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="I21:K21"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3688,31 +5730,31 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="83" t="s">
+      <c r="A5" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="83" t="s">
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -4067,21 +6109,21 @@
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="83" t="s">
+      <c r="H13" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="16" t="s">
